--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37740" windowHeight="19460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38280" windowHeight="19460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Num and Cat" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Cat" sheetId="3" r:id="rId3"/>
     <sheet name="Relationnal" sheetId="4" r:id="rId4"/>
     <sheet name="Map" sheetId="5" r:id="rId5"/>
+    <sheet name="Time Serie" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="244">
   <si>
     <t>Variable 1</t>
   </si>
@@ -362,16 +363,7 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>Ordered variable</t>
-  </si>
-  <si>
     <t>Line plot</t>
-  </si>
-  <si>
-    <t>connected scatter</t>
-  </si>
-  <si>
-    <t>Bubble</t>
   </si>
   <si>
     <t>Barplot (unadvised)</t>
@@ -876,7 +868,13 @@
     <t>Hierarchical edge bundling</t>
   </si>
   <si>
-    <t>if you link only value &gt; threshold</t>
+    <t>Sankey?</t>
+  </si>
+  <si>
+    <t>Value for connection</t>
+  </si>
+  <si>
+    <t>connection list</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,9 +1684,6 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1697,6 +1692,18 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AX157"/>
+  <dimension ref="A3:AX141"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25:AA28"/>
+    <sheetView topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1998,7 +2005,7 @@
       <c r="V3" s="100"/>
       <c r="W3" s="101"/>
       <c r="X3" s="102" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y3" s="101"/>
       <c r="Z3" s="100"/>
@@ -2011,7 +2018,7 @@
       <c r="F9" s="92"/>
       <c r="G9" s="92"/>
       <c r="H9" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9" s="92"/>
       <c r="J9" s="92"/>
@@ -2026,7 +2033,7 @@
       <c r="U9" s="92"/>
       <c r="V9" s="92"/>
       <c r="W9" s="97" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X9" s="92"/>
       <c r="Y9" s="92"/>
@@ -2043,7 +2050,7 @@
       <c r="AK9" s="92"/>
       <c r="AL9" s="92"/>
       <c r="AM9" s="97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AN9" s="92"/>
       <c r="AO9" s="92"/>
@@ -2052,7 +2059,7 @@
       <c r="AR9" s="92"/>
       <c r="AT9" s="92"/>
       <c r="AU9" s="97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AV9" s="92"/>
       <c r="AW9" s="92"/>
@@ -2060,42 +2067,42 @@
     </row>
     <row r="13" spans="3:50" ht="26" x14ac:dyDescent="0.3">
       <c r="C13" s="91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
       <c r="G13" s="92"/>
       <c r="I13" s="91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J13" s="92"/>
       <c r="K13" s="92"/>
       <c r="P13" s="91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="92"/>
       <c r="R13" s="92"/>
       <c r="S13" s="92"/>
       <c r="T13" s="92"/>
       <c r="AC13" s="91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AD13" s="92"/>
       <c r="AE13" s="92"/>
       <c r="AF13" s="105"/>
       <c r="AH13" s="91" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AI13" s="92"/>
       <c r="AJ13" s="92"/>
       <c r="AL13" s="91" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AM13" s="92"/>
       <c r="AN13" s="92"/>
       <c r="AP13" s="91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AQ13" s="92"/>
       <c r="AR13" s="92"/>
@@ -2103,13 +2110,13 @@
         <v>12</v>
       </c>
       <c r="AU13" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="3:50" ht="26" x14ac:dyDescent="0.3">
@@ -2159,17 +2166,17 @@
     </row>
     <row r="16" spans="3:50" ht="21" x14ac:dyDescent="0.25">
       <c r="P16" s="98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="92"/>
       <c r="R16" s="92"/>
       <c r="T16" s="98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U16" s="92"/>
       <c r="V16" s="92"/>
       <c r="X16" s="98" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Y16" s="92"/>
       <c r="Z16" s="92"/>
@@ -2177,38 +2184,38 @@
         <v>12</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF16" s="106"/>
       <c r="AH16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AL16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AM16" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AP16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AR16" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AT16" s="32" t="s">
         <v>13</v>
@@ -2240,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AC17" s="30" t="s">
         <v>13</v>
@@ -2315,28 +2322,28 @@
         <v>12</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AC18" s="32" t="s">
         <v>13</v>
@@ -2396,7 +2403,7 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>14</v>
@@ -2414,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R19" s="21" t="s">
         <v>2</v>
@@ -2466,10 +2473,10 @@
         <v>9</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="3:49" x14ac:dyDescent="0.2">
@@ -2495,7 +2502,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>4</v>
@@ -2550,19 +2557,19 @@
         <v>12</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AT20" s="107" t="s">
         <v>12</v>
       </c>
       <c r="AU20" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="3:49" x14ac:dyDescent="0.2">
@@ -2588,7 +2595,7 @@
         <v>14</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>5</v>
@@ -2643,7 +2650,7 @@
         <v>13</v>
       </c>
       <c r="AQ21" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AR21" s="21" t="s">
         <v>2</v>
@@ -2652,7 +2659,7 @@
         <v>13</v>
       </c>
       <c r="AU21" s="68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AV21" s="3" t="s">
         <v>2</v>
@@ -2669,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="Q22" s="95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>6</v>
@@ -2706,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AR22" s="6" t="s">
         <v>4</v>
@@ -2715,7 +2722,7 @@
         <v>13</v>
       </c>
       <c r="AU22" s="69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AV22" s="3" t="s">
         <v>4</v>
@@ -2729,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AC23" s="33" t="s">
         <v>14</v>
@@ -2742,16 +2749,16 @@
       </c>
       <c r="AF23" s="106"/>
       <c r="AH23" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AP23" s="33" t="s">
         <v>14</v>
       </c>
       <c r="AQ23" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AR23" s="6" t="s">
         <v>5</v>
@@ -2760,7 +2767,7 @@
         <v>13</v>
       </c>
       <c r="AU23" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AV23" s="3" t="s">
         <v>4</v>
@@ -2768,13 +2775,13 @@
     </row>
     <row r="24" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y24" s="57" t="s">
         <v>39</v>
@@ -2790,16 +2797,16 @@
       </c>
       <c r="AF24" s="106"/>
       <c r="AH24" s="96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AP24" s="39" t="s">
         <v>14</v>
       </c>
       <c r="AQ24" s="95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AR24" s="7" t="s">
         <v>6</v>
@@ -2808,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="AU24" s="68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AV24" s="3" t="s">
         <v>2</v>
@@ -2816,7 +2823,7 @@
     </row>
     <row r="25" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>28</v>
@@ -2831,13 +2838,13 @@
         <v>15</v>
       </c>
       <c r="AH25" s="96" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AT25" s="64" t="s">
         <v>14</v>
       </c>
       <c r="AU25" s="69" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AV25" s="3" t="s">
         <v>4</v>
@@ -2845,13 +2852,13 @@
     </row>
     <row r="26" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I26" s="93" t="s">
         <v>24</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W26" s="56" t="s">
         <v>38</v>
@@ -2869,19 +2876,19 @@
         <v>1.3</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AT26" s="108" t="s">
         <v>14</v>
       </c>
       <c r="AU26" s="34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AV26" s="2" t="s">
         <v>4</v>
@@ -2889,19 +2896,19 @@
     </row>
     <row r="27" spans="3:49" x14ac:dyDescent="0.2">
       <c r="I27" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="96" t="s">
-        <v>118</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="96" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X27" s="49" t="s">
         <v>14</v>
@@ -2916,27 +2923,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D28" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="X28" s="50" t="s">
         <v>15</v>
@@ -2951,1475 +2958,1253 @@
         <v>36</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D29" s="93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AC29" s="96" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL29" s="96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="3:49" x14ac:dyDescent="0.2">
       <c r="I30" s="93" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J30" s="96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I31" s="93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P31" s="93" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="3:49" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P32" s="93" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q32" s="96" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P33" s="93" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q35" s="96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="P37" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="96" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="P39" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="R39" s="96" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="13">
+        <v>2001</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2002</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D49" s="13">
+        <v>2001</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D50" s="6">
+        <v>2002</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D51" s="7">
+        <v>2002</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="55" t="s">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D49" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="E69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D71" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D74" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="6">
-        <v>3</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="6">
-        <v>4</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="7" t="s">
+      <c r="E74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="7">
-        <v>5</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="E75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D57" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="13">
-        <v>2001</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="7">
-        <v>2002</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D65" s="13">
-        <v>2001</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="6">
-        <v>2002</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="7">
-        <v>2002</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>14</v>
+      <c r="F78" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="F79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D82" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D84" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="4" t="s">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D87" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D89" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H89" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I89" s="38">
-        <v>12</v>
+      <c r="E89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D90" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="19" t="s">
+      <c r="E90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D91" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G92" s="3">
+        <v>12</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D94" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D102" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H102" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D103" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="H103" s="74">
+        <v>12</v>
+      </c>
+      <c r="J103" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" s="84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D104" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H104" s="75">
+        <v>14</v>
+      </c>
+      <c r="J104" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="K104" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D105" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="G105" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="H105" s="75">
+        <v>34</v>
+      </c>
+      <c r="J105" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="K105" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D106" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="G106" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H106" s="75">
+        <v>21</v>
+      </c>
+      <c r="J106" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="K106" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D107" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="G107" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="H107" s="75">
+        <v>12</v>
+      </c>
+      <c r="J107" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="K107" s="83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D108" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="G108" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" s="75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G109" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="H109" s="76">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B116" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B117" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B118" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B119" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G119" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B120" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J123" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J124" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I125" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="40">
+        <v>12</v>
+      </c>
+      <c r="K125" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L125" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I126" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" s="42">
+        <v>1</v>
+      </c>
+      <c r="K126" s="43">
+        <v>12</v>
+      </c>
+      <c r="L126" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I127" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="44">
+        <v>4</v>
+      </c>
+      <c r="K127" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L127" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K132" s="67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C133" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K133" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C134" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K134" s="60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C135" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H135" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I135" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J135" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K135" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C136" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C137" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K137" s="63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C138" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="K138" s="63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C139" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D91" s="7" t="s">
+      <c r="E139" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C140" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H95" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D96" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D98" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D99" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D100" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D101" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D102" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D107" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D108" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G108" s="3">
-        <v>12</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D116" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D118" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G118" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="H118" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="J118" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D119" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E119" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G119" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="H119" s="74">
-        <v>12</v>
-      </c>
-      <c r="J119" s="84" t="s">
-        <v>95</v>
-      </c>
-      <c r="K119" s="84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D120" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="E120" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G120" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="H120" s="75">
-        <v>14</v>
-      </c>
-      <c r="J120" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="K120" s="82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D121" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="E121" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G121" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="H121" s="75">
-        <v>34</v>
-      </c>
-      <c r="J121" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="K121" s="81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D122" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="E122" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G122" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="H122" s="75">
-        <v>21</v>
-      </c>
-      <c r="J122" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="K122" s="82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D123" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="E123" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G123" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H123" s="75">
-        <v>12</v>
-      </c>
-      <c r="J123" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="K123" s="83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D124" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="E124" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G124" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="H124" s="75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="G125" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="H125" s="76">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B131" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B132" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B133" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F133" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" s="33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B134" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B135" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" s="38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B136" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D136" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C137" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J139" s="57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J140" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K140" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L140" s="48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G141" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H141" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="I141" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J141" s="40">
-        <v>12</v>
-      </c>
-      <c r="K141" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L141" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I142" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" s="42">
-        <v>1</v>
-      </c>
-      <c r="K142" s="43">
-        <v>12</v>
-      </c>
-      <c r="L142" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I143" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J143" s="44">
-        <v>4</v>
-      </c>
-      <c r="K143" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="L143" s="45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H148" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I148" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K148" s="67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C149" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F149" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H149" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K149" s="60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C150" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H150" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I150" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="K150" s="60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C151" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G151" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H151" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I151" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="J151" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="K151" s="60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C152" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H152" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="K152" s="62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C153" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="26" t="s">
+      <c r="H140" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="I140" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="F153" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H153" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I153" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="K153" s="63" t="s">
+      <c r="K140" s="65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C154" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H154" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="I154" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="K154" s="63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C155" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H155" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I155" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="K155" s="64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C156" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E156" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H156" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="I156" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K156" s="65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H157" s="66" t="s">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H141" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I157" s="7" t="s">
+      <c r="I141" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K157" s="66" t="s">
+      <c r="K141" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4453,7 +4238,7 @@
   <sheetData>
     <row r="3" spans="3:37" ht="62" x14ac:dyDescent="0.7">
       <c r="K3" s="111" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L3" s="110"/>
       <c r="M3" s="110"/>
@@ -4463,12 +4248,12 @@
     </row>
     <row r="9" spans="3:37" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="97" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="92"/>
       <c r="H9" s="97" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I9" s="92"/>
       <c r="J9" s="92"/>
@@ -4482,7 +4267,7 @@
       <c r="R9" s="92"/>
       <c r="S9" s="105"/>
       <c r="U9" s="97" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V9" s="92"/>
       <c r="W9" s="92"/>
@@ -4491,7 +4276,7 @@
       <c r="Z9" s="92"/>
       <c r="AA9" s="92"/>
       <c r="AC9" s="113" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AD9" s="92"/>
       <c r="AE9" s="92"/>
@@ -4499,7 +4284,7 @@
     </row>
     <row r="11" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="3:37" x14ac:dyDescent="0.2">
@@ -4512,35 +4297,35 @@
         <v>3</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I13" s="92"/>
       <c r="J13" s="92"/>
       <c r="K13" s="92"/>
       <c r="P13" s="91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="92"/>
       <c r="R13" s="92"/>
       <c r="S13" s="105"/>
       <c r="U13" s="91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V13" s="92"/>
       <c r="W13" s="92"/>
       <c r="Y13" s="91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Z13" s="92"/>
       <c r="AA13" s="92"/>
       <c r="AC13" s="91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AD13" s="92"/>
       <c r="AE13" s="92"/>
       <c r="AF13" s="105"/>
       <c r="AH13" s="91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AI13" s="92"/>
       <c r="AJ13" s="92"/>
@@ -4563,58 +4348,58 @@
         <v>26</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AH15" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="3:37" x14ac:dyDescent="0.2">
@@ -4914,41 +4699,41 @@
         <v>34</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="3:37" ht="19" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H23" s="109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I23" s="109"/>
       <c r="J23" s="86"/>
       <c r="K23" s="109" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="V23" s="96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>67</v>
@@ -4956,83 +4741,83 @@
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.2">
       <c r="P24" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U24" s="96"/>
       <c r="AH24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C25" s="96" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="U25" s="96"/>
       <c r="AC25" s="105" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AD25" s="93"/>
       <c r="AH25" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C26" s="96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K26" s="96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AC26" s="105" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AD26" s="93"/>
       <c r="AH26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="3:37" x14ac:dyDescent="0.2">
       <c r="AC27" s="105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD27" s="93"/>
       <c r="AE27" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="3:37" x14ac:dyDescent="0.2">
       <c r="AC28" s="105" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD28" s="93"/>
       <c r="AE28" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH28" s="96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="3:37" x14ac:dyDescent="0.2">
       <c r="AC29" s="105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AD29" s="93"/>
     </row>
     <row r="30" spans="3:37" x14ac:dyDescent="0.2">
       <c r="AC30" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="3:37" x14ac:dyDescent="0.2">
@@ -5043,11 +4828,11 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="AC33" s="105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AD33" s="93"/>
       <c r="AE33" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.2">
@@ -5240,7 +5025,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>3</v>
@@ -5321,7 +5106,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>3</v>
@@ -5332,7 +5117,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>4</v>
@@ -5488,68 +5273,68 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D116" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D118" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D119" s="74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E119" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D120" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E120" s="71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D121" s="72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E121" s="81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D122" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="81" t="s">
         <v>93</v>
-      </c>
-      <c r="E122" s="81" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D123" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="82" t="s">
         <v>94</v>
-      </c>
-      <c r="E123" s="82" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D124" s="73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E124" s="83" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -5760,7 +5545,7 @@
   <sheetData>
     <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
       <c r="L3" s="111" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M3" s="110"/>
       <c r="N3" s="110"/>
@@ -5770,12 +5555,12 @@
     </row>
     <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="92"/>
       <c r="H9" s="97" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I9" s="97"/>
       <c r="J9" s="92"/>
@@ -5792,7 +5577,7 @@
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="3:20" ht="21" x14ac:dyDescent="0.25">
@@ -5800,20 +5585,20 @@
         <v>13</v>
       </c>
       <c r="H12" s="116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I12" s="92"/>
       <c r="J12" s="92"/>
       <c r="L12" s="116" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M12" s="92"/>
       <c r="O12" s="116" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P12" s="92"/>
       <c r="R12" s="116" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S12" s="92"/>
     </row>
@@ -5827,28 +5612,28 @@
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.2">
@@ -5865,13 +5650,13 @@
         <v>13</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O15" s="30" t="s">
         <v>13</v>
       </c>
       <c r="P15" s="43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R15" s="30" t="s">
         <v>13</v>
@@ -5894,13 +5679,13 @@
         <v>13</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O16" s="32" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R16" s="32" t="s">
         <v>13</v>
@@ -5917,19 +5702,19 @@
         <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>13</v>
       </c>
       <c r="M17" s="114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>13</v>
       </c>
       <c r="P17" s="43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R17" s="32" t="s">
         <v>13</v>
@@ -5943,22 +5728,22 @@
         <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="L18" s="33" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>14</v>
       </c>
       <c r="P18" s="43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R18" s="33" t="s">
         <v>14</v>
@@ -5972,22 +5757,22 @@
         <v>15</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L19" s="39" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O19" s="39" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R19" s="39" t="s">
         <v>14</v>
@@ -5998,10 +5783,10 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -6009,7 +5794,7 @@
       <c r="M22" s="117"/>
       <c r="N22" s="117"/>
       <c r="O22" s="117" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P22" s="117"/>
       <c r="Q22" s="117"/>
@@ -6018,61 +5803,61 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="L26" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="93" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -6261,7 +6046,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>3</v>
@@ -6342,7 +6127,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>3</v>
@@ -6353,7 +6138,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>4</v>
@@ -6509,68 +6294,68 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D116" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D118" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D119" s="74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E119" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D120" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E120" s="71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D121" s="72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E121" s="81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D122" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="81" t="s">
         <v>93</v>
-      </c>
-      <c r="E122" s="81" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D123" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="82" t="s">
         <v>94</v>
-      </c>
-      <c r="E123" s="82" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D124" s="73" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E124" s="83" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -6766,42 +6551,67 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AB38"/>
+  <dimension ref="A3:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8" style="1"/>
-    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
-    <col min="20" max="24" width="8" style="1"/>
-    <col min="25" max="25" width="13.1640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8" style="1"/>
+    <col min="1" max="14" width="8" style="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
+    <col min="16" max="20" width="8" style="1"/>
+    <col min="21" max="21" width="13.1640625" style="1" customWidth="1"/>
+    <col min="22" max="27" width="8" style="1"/>
+    <col min="28" max="28" width="2.5" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:28" ht="62" x14ac:dyDescent="0.7">
-      <c r="I3" s="111" t="s">
-        <v>223</v>
-      </c>
+    <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
+      <c r="H3" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="110"/>
       <c r="J3" s="110"/>
       <c r="K3" s="110"/>
       <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="112"/>
-    </row>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="I4" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-    </row>
-    <row r="9" spans="3:28" ht="26" x14ac:dyDescent="0.3">
+      <c r="M3" s="112"/>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="H4" s="125" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+    </row>
+    <row r="9" spans="3:30" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
@@ -6809,69 +6619,78 @@
       <c r="G9" s="92"/>
       <c r="H9" s="92"/>
       <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="105"/>
-      <c r="P9" s="113" t="s">
-        <v>229</v>
-      </c>
+      <c r="L9" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="M9" s="97"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
       <c r="Q9" s="97"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
       <c r="T9" s="92"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
       <c r="X9" s="92"/>
       <c r="Y9" s="92"/>
       <c r="Z9" s="92"/>
       <c r="AA9" s="92"/>
-      <c r="AB9" s="105"/>
-    </row>
-    <row r="12" spans="3:28" ht="21" x14ac:dyDescent="0.25">
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+    </row>
+    <row r="12" spans="3:30" ht="21" x14ac:dyDescent="0.25">
       <c r="C12" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="118" t="s">
-        <v>233</v>
-      </c>
+      <c r="L12" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
       <c r="P12" s="116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="92"/>
       <c r="R12" s="92"/>
-      <c r="T12" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="V12" s="116" t="s">
+        <v>225</v>
+      </c>
       <c r="W12" s="92"/>
       <c r="X12" s="92"/>
       <c r="Z12" s="116" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AA12" s="92"/>
       <c r="AB12" s="92"/>
-    </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C14" s="74" t="s">
         <v>13</v>
       </c>
@@ -6887,20 +6706,26 @@
       <c r="I14" s="74">
         <v>1</v>
       </c>
+      <c r="L14" s="118" t="s">
+        <v>227</v>
+      </c>
       <c r="P14" s="118" t="s">
+        <v>227</v>
+      </c>
+      <c r="S14" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="T14" s="118" t="s">
-        <v>230</v>
-      </c>
-      <c r="W14" s="118" t="s">
-        <v>233</v>
+      <c r="V14" s="118" t="s">
+        <v>227</v>
       </c>
       <c r="Z14" s="118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="AC14" s="118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C15" s="75" t="s">
         <v>14</v>
       </c>
@@ -6919,35 +6744,47 @@
       <c r="I15" s="75">
         <v>2.2000000000000002</v>
       </c>
+      <c r="L15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="P15" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>91</v>
+        <v>164</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD15" s="59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C16" s="75" t="s">
         <v>15</v>
       </c>
@@ -6957,8 +6794,8 @@
       <c r="E16" s="75">
         <v>21</v>
       </c>
-      <c r="F16" s="120" t="s">
-        <v>231</v>
+      <c r="F16" s="119" t="s">
+        <v>228</v>
       </c>
       <c r="H16" s="75" t="s">
         <v>15</v>
@@ -6966,35 +6803,47 @@
       <c r="I16" s="75">
         <v>10</v>
       </c>
+      <c r="L16" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="P16" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="T16" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="U16" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="W16" s="81" t="s">
-        <v>95</v>
+      <c r="T16" s="74">
+        <v>1</v>
+      </c>
+      <c r="V16" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="54" t="s">
+        <v>90</v>
       </c>
       <c r="X16" s="74">
         <v>1</v>
       </c>
       <c r="Z16" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA16" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AA16" s="54" t="s">
+      <c r="AD16" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="AB16" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C17" s="76" t="s">
         <v>13</v>
       </c>
@@ -7010,152 +6859,197 @@
       <c r="I17" s="76">
         <v>3</v>
       </c>
+      <c r="L17" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="71" t="s">
+        <v>91</v>
+      </c>
       <c r="P17" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="T17" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="U17" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="W17" s="81" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="S17" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="T17" s="75">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V17" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" s="71" t="s">
+        <v>91</v>
       </c>
       <c r="X17" s="75">
         <v>2.2000000000000002</v>
       </c>
       <c r="Z17" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="AA17" s="71" t="s">
+      <c r="AD17" s="82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L18" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="AB17" s="75">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="P18" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="T18" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="U18" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="82" t="s">
-        <v>97</v>
+      <c r="T18" s="75">
+        <v>10</v>
+      </c>
+      <c r="V18" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="W18" s="81" t="s">
+        <v>92</v>
       </c>
       <c r="X18" s="75">
         <v>10</v>
       </c>
       <c r="Z18" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA18" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD18" s="83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AA18" s="81" t="s">
+      <c r="P19" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="AB18" s="75">
+      <c r="T19" s="76">
+        <v>3</v>
+      </c>
+      <c r="V19" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="W19" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19" s="75">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z19" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C20" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="L20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="W20" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20" s="75">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="T19" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="U19" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="W19" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="X19" s="76">
+      <c r="Z20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA20" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C21" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="V21" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="X21" s="76">
         <v>3</v>
       </c>
-      <c r="Z19" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA19" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB19" s="75">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C20" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="P20" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="T20" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="U20" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z20" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA20" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB20" s="75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C21" s="121" t="s">
+      <c r="Z21" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="T21" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z21" s="73" t="s">
-        <v>94</v>
-      </c>
       <c r="AA21" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB21" s="76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D22" s="47" t="s">
         <v>13</v>
       </c>
@@ -7168,16 +7062,16 @@
       <c r="G22" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="122" t="s">
+      <c r="K22" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="S22" s="122" t="s">
+      <c r="O22" s="121" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="121" t="s">
-        <v>90</v>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B23" s="120" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>13</v>
@@ -7194,14 +7088,17 @@
       <c r="G23" s="51">
         <v>1.3</v>
       </c>
+      <c r="L23" s="118" t="s">
+        <v>237</v>
+      </c>
       <c r="P23" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="T23" s="118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24" s="49" t="s">
         <v>14</v>
       </c>
@@ -7217,29 +7114,32 @@
       <c r="G24" s="52">
         <v>2.2000000000000002</v>
       </c>
+      <c r="L24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="P24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C25" s="50" t="s">
         <v>15</v>
       </c>
@@ -7255,6 +7155,15 @@
       <c r="G25" s="53" t="s">
         <v>36</v>
       </c>
+      <c r="L25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="P25" s="30" t="s">
         <v>13</v>
       </c>
@@ -7264,20 +7173,15 @@
       <c r="R25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="T25" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="U25" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="V25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="W25" s="21" t="s">
+      <c r="S25" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z25" s="118"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26" s="50" t="s">
         <v>40</v>
       </c>
@@ -7293,6 +7197,15 @@
       <c r="G26" s="53" t="s">
         <v>36</v>
       </c>
+      <c r="L26" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="P26" s="32" t="s">
         <v>13</v>
       </c>
@@ -7302,20 +7215,20 @@
       <c r="R26" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="T26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U26" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="V26" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26" s="6" t="s">
+      <c r="S26" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L27" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="P27" s="32" t="s">
         <v>13</v>
       </c>
@@ -7325,20 +7238,20 @@
       <c r="R27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="U27" s="18" t="s">
+      <c r="S27" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L28" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="V27" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="N28" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="P28" s="58" t="s">
         <v>13</v>
       </c>
@@ -7348,20 +7261,20 @@
       <c r="R28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="U28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="W28" s="13" t="s">
+      <c r="S28" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L29" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="P29" s="33" t="s">
         <v>14</v>
       </c>
@@ -7371,20 +7284,20 @@
       <c r="R29" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="T29" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="U29" s="26" t="s">
+      <c r="S29" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L30" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="V29" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="N30" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="P30" s="33" t="s">
         <v>14</v>
       </c>
@@ -7394,22 +7307,22 @@
       <c r="R30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="T30" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="U30" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="W30" s="6" t="s">
+      <c r="S30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="P31" s="33" t="s">
         <v>14</v>
@@ -7420,22 +7333,22 @@
       <c r="R31" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="T31" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="U31" s="19" t="s">
+      <c r="S31" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>235</v>
+      <c r="N32" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="P32" s="39" t="s">
         <v>14</v>
@@ -7446,92 +7359,74 @@
       <c r="R32" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="T32" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="U32" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="V32" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="W32" s="7" t="s">
+      <c r="S32" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="L36" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" s="93"/>
+      <c r="N36" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="O36" s="118"/>
       <c r="P36" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="118" t="s">
-        <v>238</v>
-      </c>
-      <c r="S36" s="118"/>
-      <c r="T36" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="U36" s="105"/>
-      <c r="Z36" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="105"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L37" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="93"/>
+      <c r="N37" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" s="118"/>
       <c r="P37" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="118" t="s">
-        <v>239</v>
-      </c>
-      <c r="S37" s="118"/>
-      <c r="T37" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="U37" s="105"/>
-      <c r="Z37" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="3:26" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="Q37" s="105"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L38" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="93"/>
       <c r="P38" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q38" s="93"/>
-      <c r="T38" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="U38" s="105"/>
-      <c r="Z38" s="118" t="s">
-        <v>244</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Q38" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7549,4 +7444,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -924,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1190,6 +1190,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1450,8 +1466,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1689,15 +1709,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1729,9 +1740,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1795,8 +1803,24 @@
     <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3508,7 +3532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3518,17 +3542,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
@@ -3562,10 +3586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AW69"/>
+  <dimension ref="C3:AW69"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:Q25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16:AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3609,7 +3633,7 @@
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
-      <c r="O9" s="90" t="s">
+      <c r="O9" s="87" t="s">
         <v>286</v>
       </c>
       <c r="P9" s="68"/>
@@ -3633,7 +3657,7 @@
       <c r="AH9" s="68"/>
       <c r="AI9" s="68"/>
       <c r="AJ9" s="82"/>
-      <c r="AL9" s="90" t="s">
+      <c r="AL9" s="87" t="s">
         <v>287</v>
       </c>
       <c r="AM9" s="68"/>
@@ -3964,7 +3988,7 @@
       <c r="S21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="97" t="s">
+      <c r="T21" s="94" t="s">
         <v>96</v>
       </c>
       <c r="U21" s="18" t="s">
@@ -4274,7 +4298,7 @@
       <c r="U26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="W26" s="111"/>
+      <c r="W26" s="107"/>
       <c r="AA26" s="30" t="s">
         <v>14</v>
       </c>
@@ -4328,7 +4352,7 @@
       <c r="AL27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AM27" s="117" t="s">
+      <c r="AM27" s="113" t="s">
         <v>251</v>
       </c>
       <c r="AP27" s="1" t="s">
@@ -4557,10 +4581,10 @@
       <c r="AE37" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AF37" s="95" t="s">
+      <c r="AF37" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="AG37" s="117"/>
+      <c r="AG37" s="113"/>
     </row>
     <row r="38" spans="4:46" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
@@ -4673,95 +4697,95 @@
       <c r="AI43" s="82"/>
     </row>
     <row r="45" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="D45" s="113">
+      <c r="D45" s="109">
         <v>7</v>
       </c>
-      <c r="I45" s="113">
+      <c r="I45" s="109">
         <v>8</v>
       </c>
-      <c r="O45" s="113">
+      <c r="O45" s="109">
         <v>9</v>
       </c>
-      <c r="S45" s="113">
+      <c r="S45" s="109">
         <v>10</v>
       </c>
-      <c r="W45" s="113">
+      <c r="W45" s="109">
         <v>11</v>
       </c>
-      <c r="AA45" s="113">
+      <c r="AA45" s="109">
         <v>12</v>
       </c>
-      <c r="AE45" s="113">
-        <v>13</v>
-      </c>
-      <c r="AL45" s="113"/>
+      <c r="AE45" s="109">
+        <v>13</v>
+      </c>
+      <c r="AL45" s="109"/>
       <c r="AM45" s="84"/>
-      <c r="AP45" s="113">
+      <c r="AP45" s="109">
         <v>5</v>
       </c>
-      <c r="AT45" s="113">
+      <c r="AT45" s="109">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="I46" s="112" t="s">
+      <c r="I46" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="O46" s="112" t="s">
+      <c r="O46" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="S46" s="112" t="s">
+      <c r="S46" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="W46" s="112" t="s">
+      <c r="W46" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="AA46" s="112" t="s">
+      <c r="AA46" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="AE46" s="112" t="s">
+      <c r="AE46" s="108" t="s">
         <v>222</v>
       </c>
-      <c r="AL46" s="112"/>
+      <c r="AL46" s="108"/>
       <c r="AM46" s="84"/>
-      <c r="AP46" s="112" t="s">
+      <c r="AP46" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="AT46" s="112" t="s">
+      <c r="AT46" s="108" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="112" t="s">
+      <c r="I47" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="O47" s="112" t="s">
+      <c r="O47" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="S47" s="112" t="s">
+      <c r="S47" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="W47" s="112" t="s">
+      <c r="W47" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="AA47" s="112" t="s">
+      <c r="AA47" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="AE47" s="112" t="s">
+      <c r="AE47" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="AL47" s="112"/>
+      <c r="AL47" s="108"/>
       <c r="AM47" s="84"/>
-      <c r="AP47" s="112" t="s">
+      <c r="AP47" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="AT47" s="112" t="s">
+      <c r="AT47" s="108" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4837,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AM43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AB45" sqref="AB45:AB50"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,14 +4883,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:37" ht="62" x14ac:dyDescent="0.7">
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="89"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
     </row>
     <row r="9" spans="3:37" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="73" t="s">
@@ -4897,7 +4921,7 @@
       <c r="Y9" s="68"/>
       <c r="Z9" s="68"/>
       <c r="AA9" s="68"/>
-      <c r="AC9" s="90" t="s">
+      <c r="AC9" s="87" t="s">
         <v>143</v>
       </c>
       <c r="AD9" s="68"/>
@@ -5309,25 +5333,25 @@
       </c>
     </row>
     <row r="21" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="P21" s="111" t="s">
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="P21" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="U21" s="111" t="s">
+      <c r="U21" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="Y21" s="111" t="s">
+      <c r="Y21" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="AC21" s="111" t="s">
+      <c r="AC21" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="AH21" s="111" t="s">
+      <c r="AH21" s="107" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5349,7 +5373,7 @@
       <c r="AH24" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="AM24" s="108" t="s">
+      <c r="AM24" s="104" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5387,8 +5411,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="3:39" s="106" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH27" s="107" t="s">
+    <row r="27" spans="3:39" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH27" s="103" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5417,7 +5441,7 @@
       <c r="AH30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM30" s="109" t="s">
+      <c r="AM30" s="105" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5431,7 +5455,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="3:39" s="106" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:39" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P34" s="1" t="s">
         <v>118</v>
@@ -5455,7 +5479,7 @@
       <c r="AB36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM36" s="110" t="s">
+      <c r="AM36" s="106" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5463,69 +5487,69 @@
       <c r="AB37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AM37" s="110"/>
+      <c r="AM37" s="106"/>
     </row>
     <row r="40" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C40" s="113">
+      <c r="C40" s="109">
         <v>1</v>
       </c>
-      <c r="I40" s="113">
+      <c r="I40" s="109">
         <v>2</v>
       </c>
-      <c r="P40" s="113">
+      <c r="P40" s="109">
         <v>3</v>
       </c>
-      <c r="U40" s="113">
+      <c r="U40" s="109">
         <v>4</v>
       </c>
-      <c r="AB40" s="113">
+      <c r="AB40" s="109">
         <v>5</v>
       </c>
-      <c r="AH40" s="113">
+      <c r="AH40" s="109">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C41" s="112" t="s">
+      <c r="C41" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="I41" s="112" t="s">
+      <c r="I41" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="J41" s="112"/>
-      <c r="P41" s="112" t="s">
+      <c r="J41" s="108"/>
+      <c r="P41" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="Q41" s="112"/>
-      <c r="U41" s="112" t="s">
+      <c r="Q41" s="108"/>
+      <c r="U41" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="AB41" s="112" t="s">
+      <c r="AB41" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="AH41" s="112" t="s">
+      <c r="AH41" s="108" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="42" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C42" s="112" t="s">
+      <c r="C42" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="112" t="s">
+      <c r="I42" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="112"/>
-      <c r="P42" s="112" t="s">
+      <c r="J42" s="108"/>
+      <c r="P42" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="Q42" s="112"/>
-      <c r="U42" s="112" t="s">
+      <c r="Q42" s="108"/>
+      <c r="U42" s="108" t="s">
         <v>224</v>
       </c>
-      <c r="AB42" s="112" t="s">
+      <c r="AB42" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="AH42" s="112" t="s">
+      <c r="AH42" s="108" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5563,14 +5587,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="89"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="131"/>
     </row>
     <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="73" t="s">
@@ -5578,7 +5602,7 @@
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="68"/>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="87" t="s">
         <v>241</v>
       </c>
       <c r="I9" s="73"/>
@@ -5603,20 +5627,20 @@
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="90" t="s">
         <v>160</v>
       </c>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="90" t="s">
         <v>100</v>
       </c>
       <c r="M12" s="68"/>
-      <c r="O12" s="93" t="s">
+      <c r="O12" s="90" t="s">
         <v>101</v>
       </c>
       <c r="P12" s="68"/>
-      <c r="R12" s="93" t="s">
+      <c r="R12" s="90" t="s">
         <v>97</v>
       </c>
       <c r="S12" s="68"/>
@@ -5726,7 +5750,7 @@
       <c r="L17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="91" t="s">
+      <c r="M17" s="88" t="s">
         <v>152</v>
       </c>
       <c r="O17" s="29" t="s">
@@ -5755,7 +5779,7 @@
       <c r="L18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="92" t="s">
+      <c r="M18" s="89" t="s">
         <v>153</v>
       </c>
       <c r="O18" s="30" t="s">
@@ -5801,19 +5825,19 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="107" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
@@ -5921,53 +5945,53 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C39" s="113">
+      <c r="C39" s="109">
         <v>7</v>
       </c>
-      <c r="H39" s="113">
-        <v>14</v>
-      </c>
-      <c r="L39" s="113">
+      <c r="H39" s="109">
+        <v>14</v>
+      </c>
+      <c r="L39" s="109">
         <v>11</v>
       </c>
-      <c r="O39" s="113">
+      <c r="O39" s="109">
         <v>9</v>
       </c>
-      <c r="R39" s="113">
+      <c r="R39" s="109">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C40" s="112" t="s">
+      <c r="C40" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="108" t="s">
         <v>228</v>
       </c>
-      <c r="L40" s="112" t="s">
+      <c r="L40" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="O40" s="112" t="s">
+      <c r="O40" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="R40" s="112" t="s">
+      <c r="R40" s="108" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C41" s="112" t="s">
+      <c r="C41" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="112" t="s">
+      <c r="H41" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="112" t="s">
+      <c r="L41" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="O41" s="112" t="s">
+      <c r="O41" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="R41" s="112" t="s">
+      <c r="R41" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6680,24 +6704,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="89"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.2">
       <c r="L8" s="82"/>
@@ -6721,7 +6745,7 @@
       <c r="AD8" s="82"/>
     </row>
     <row r="9" spans="3:30" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="87" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="73"/>
@@ -6730,7 +6754,7 @@
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
-      <c r="L9" s="116" t="s">
+      <c r="L9" s="112" t="s">
         <v>246</v>
       </c>
       <c r="M9" s="73"/>
@@ -6753,30 +6777,30 @@
       <c r="AD9" s="68"/>
     </row>
     <row r="12" spans="3:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="93" t="s">
+      <c r="L12" s="90" t="s">
         <v>169</v>
       </c>
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
-      <c r="P12" s="93" t="s">
+      <c r="P12" s="90" t="s">
         <v>170</v>
       </c>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
       <c r="T12" s="68"/>
-      <c r="V12" s="93" t="s">
+      <c r="V12" s="90" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="68"/>
       <c r="X12" s="68"/>
-      <c r="Z12" s="93" t="s">
+      <c r="Z12" s="90" t="s">
         <v>185</v>
       </c>
       <c r="AA12" s="68"/>
@@ -6817,22 +6841,22 @@
       <c r="I14" s="55">
         <v>1</v>
       </c>
-      <c r="L14" s="95" t="s">
+      <c r="L14" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="P14" s="95" t="s">
+      <c r="P14" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="S14" s="95" t="s">
+      <c r="S14" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="V14" s="95" t="s">
+      <c r="V14" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="Z14" s="95" t="s">
+      <c r="Z14" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="AC14" s="95" t="s">
+      <c r="AC14" s="92" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6905,7 +6929,7 @@
       <c r="E16" s="56">
         <v>21</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="93" t="s">
         <v>172</v>
       </c>
       <c r="H16" s="56" t="s">
@@ -6947,7 +6971,7 @@
       <c r="AA16" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AC16" s="100" t="s">
+      <c r="AC16" s="97" t="s">
         <v>71</v>
       </c>
       <c r="AD16" s="61" t="s">
@@ -7003,7 +7027,7 @@
       <c r="AA17" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AC17" s="101" t="s">
+      <c r="AC17" s="98" t="s">
         <v>71</v>
       </c>
       <c r="AD17" s="59" t="s">
@@ -7050,7 +7074,7 @@
       <c r="AB18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AC18" s="102" t="s">
+      <c r="AC18" s="99" t="s">
         <v>73</v>
       </c>
       <c r="AD18" s="60" t="s">
@@ -7058,7 +7082,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="96" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="53" t="s">
@@ -7096,7 +7120,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="92" t="s">
         <v>173</v>
       </c>
       <c r="F20" s="33"/>
@@ -7129,7 +7153,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="95" t="s">
         <v>67</v>
       </c>
       <c r="L21" s="54" t="s">
@@ -7173,15 +7197,15 @@
       <c r="G22" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="99" t="s">
+      <c r="K22" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="99" t="s">
+      <c r="O22" s="96" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="95" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="40" t="s">
@@ -7199,10 +7223,10 @@
       <c r="G23" s="55">
         <v>1.3</v>
       </c>
-      <c r="L23" s="95" t="s">
+      <c r="L23" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="P23" s="95" t="s">
+      <c r="P23" s="92" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7287,7 +7311,7 @@
       <c r="S25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="95"/>
+      <c r="Z25" s="92"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26" s="43" t="s">
@@ -7484,12 +7508,12 @@
       <c r="C34" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
@@ -7511,7 +7535,7 @@
         <v>82</v>
       </c>
       <c r="O38" s="69"/>
-      <c r="P38" s="95" t="s">
+      <c r="P38" s="92" t="s">
         <v>178</v>
       </c>
       <c r="Q38" s="82"/>
@@ -7521,7 +7545,7 @@
         <v>83</v>
       </c>
       <c r="O39" s="69"/>
-      <c r="P39" s="95" t="s">
+      <c r="P39" s="92" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7537,35 +7561,35 @@
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C44" s="113">
-        <v>13</v>
-      </c>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="114">
+      <c r="C44" s="109">
+        <v>13</v>
+      </c>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="110">
         <v>11</v>
       </c>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="V44" s="113">
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="V44" s="109">
         <v>15</v>
       </c>
-      <c r="Z44" s="113">
+      <c r="Z44" s="109">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="108" t="s">
         <v>222</v>
       </c>
       <c r="L45" s="82"/>
       <c r="M45" s="82"/>
       <c r="N45" s="82"/>
-      <c r="O45" s="115" t="s">
+      <c r="O45" s="111" t="s">
         <v>221</v>
       </c>
       <c r="P45" s="82"/>
@@ -7573,24 +7597,24 @@
       <c r="R45" s="82"/>
       <c r="S45" s="82"/>
       <c r="T45" s="82"/>
-      <c r="V45" s="112" t="s">
+      <c r="V45" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="Z45" s="112" t="s">
+      <c r="Z45" s="108" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C46" s="112" t="s">
+      <c r="C46" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="O46" s="112" t="s">
+      <c r="O46" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="V46" s="112" t="s">
+      <c r="V46" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="Z46" s="112" t="s">
+      <c r="Z46" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7655,7 +7679,7 @@
     </row>
     <row r="13" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="100" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7665,7 +7689,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:17" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
         <v>236</v>
@@ -7677,7 +7701,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="100" t="s">
         <v>232</v>
       </c>
       <c r="Q46" s="1" t="s">
@@ -7689,7 +7713,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" s="94" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7701,7 +7725,7 @@
   <dimension ref="D7:CW45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CE14" sqref="CE14:CF16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7712,7 +7736,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:101" ht="26" x14ac:dyDescent="0.3">
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="87" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="68"/>
@@ -7761,7 +7785,7 @@
       <c r="AV7" s="82"/>
       <c r="AW7" s="82"/>
       <c r="AX7" s="82"/>
-      <c r="AZ7" s="90" t="s">
+      <c r="AZ7" s="87" t="s">
         <v>253</v>
       </c>
       <c r="BA7" s="68"/>
@@ -7931,7 +7955,7 @@
       <c r="AK13" s="84"/>
       <c r="AL13" s="84"/>
       <c r="AM13" s="84"/>
-      <c r="AO13" s="118" t="s">
+      <c r="AO13" s="114" t="s">
         <v>95</v>
       </c>
       <c r="AP13" s="86" t="s">
@@ -7940,7 +7964,7 @@
       <c r="AQ13" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="AZ13" s="118" t="s">
+      <c r="AZ13" s="114" t="s">
         <v>12</v>
       </c>
       <c r="BA13" s="86" t="s">
@@ -7949,14 +7973,14 @@
       <c r="BB13" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="BC13" s="118" t="s">
+      <c r="BC13" s="114" t="s">
         <v>95</v>
       </c>
       <c r="BD13" s="84"/>
       <c r="BE13" s="84"/>
       <c r="BF13" s="84"/>
       <c r="BG13" s="84"/>
-      <c r="BI13" s="118" t="s">
+      <c r="BI13" s="114" t="s">
         <v>12</v>
       </c>
       <c r="BJ13" s="86" t="s">
@@ -7965,14 +7989,14 @@
       <c r="BK13" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="BL13" s="118" t="s">
+      <c r="BL13" s="114" t="s">
         <v>95</v>
       </c>
       <c r="BM13" s="84"/>
       <c r="BN13" s="84"/>
       <c r="BO13" s="84"/>
       <c r="BP13" s="84"/>
-      <c r="BR13" s="118" t="s">
+      <c r="BR13" s="114" t="s">
         <v>95</v>
       </c>
       <c r="BS13" s="86" t="s">
@@ -7986,13 +8010,13 @@
       <c r="D14" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="M14" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
       <c r="R14" s="84"/>
@@ -8002,13 +8026,13 @@
       <c r="X14" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
       <c r="AF14" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
       <c r="AI14" s="84"/>
       <c r="AJ14" s="84"/>
       <c r="AK14" s="84"/>
@@ -8064,37 +8088,37 @@
       <c r="BT14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="BW14" s="118" t="s">
+      <c r="BW14" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="BX14" s="118" t="s">
+      <c r="BX14" s="114" t="s">
         <v>95</v>
       </c>
       <c r="BY14" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="CA14" s="118" t="s">
+      <c r="CA14" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="CB14" s="118" t="s">
+      <c r="CB14" s="114" t="s">
         <v>95</v>
       </c>
       <c r="CC14" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="CE14" s="118" t="s">
+      <c r="CE14" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="CF14" s="118" t="s">
+      <c r="CF14" s="114" t="s">
         <v>95</v>
       </c>
       <c r="CG14" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="CJ14" s="118" t="s">
+      <c r="CJ14" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="CK14" s="118" t="s">
+      <c r="CK14" s="114" t="s">
         <v>95</v>
       </c>
       <c r="CL14" s="86" t="s">
@@ -8103,10 +8127,10 @@
       <c r="CM14" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="CO14" s="118" t="s">
+      <c r="CO14" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="CP14" s="118" t="s">
+      <c r="CP14" s="114" t="s">
         <v>95</v>
       </c>
       <c r="CQ14" s="86" t="s">
@@ -8115,10 +8139,10 @@
       <c r="CR14" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="CT14" s="118" t="s">
+      <c r="CT14" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="CU14" s="118" t="s">
+      <c r="CU14" s="114" t="s">
         <v>95</v>
       </c>
       <c r="CV14" s="86" t="s">
@@ -8400,41 +8424,41 @@
       <c r="D17" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="124"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="68"/>
       <c r="H17" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I17" s="124"/>
+      <c r="I17" s="120"/>
       <c r="J17" s="68"/>
       <c r="M17" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="N17" s="124"/>
+      <c r="N17" s="120"/>
       <c r="Q17" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="R17" s="124"/>
+      <c r="R17" s="120"/>
       <c r="X17" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="Y17" s="124"/>
+      <c r="Y17" s="120"/>
       <c r="Z17" s="68"/>
       <c r="AB17" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="AC17" s="124"/>
+      <c r="AC17" s="120"/>
       <c r="AD17" s="68"/>
       <c r="AE17" s="84"/>
       <c r="AF17" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="AG17" s="124"/>
+      <c r="AG17" s="120"/>
       <c r="AH17" s="68"/>
       <c r="AJ17" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="AK17" s="124"/>
+      <c r="AK17" s="120"/>
       <c r="AL17" s="68"/>
       <c r="AM17" s="84"/>
       <c r="AO17" s="36" t="s">
@@ -8549,10 +8573,10 @@
       <c r="AP18" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BI18" s="111" t="s">
+      <c r="BI18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="BR18" s="111" t="s">
+      <c r="BR18" s="107" t="s">
         <v>258</v>
       </c>
       <c r="BW18" s="30" t="s">
@@ -8602,49 +8626,49 @@
       </c>
     </row>
     <row r="19" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X19" s="118" t="s">
+      <c r="X19" s="114" t="s">
         <v>12</v>
       </c>
       <c r="Y19" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="Z19" s="118" t="s">
+      <c r="Z19" s="114" t="s">
         <v>95</v>
       </c>
       <c r="AB19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AC19" s="97" t="s">
+      <c r="AC19" s="94" t="s">
         <v>96</v>
       </c>
       <c r="AD19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AF19" s="118" t="s">
+      <c r="AF19" s="114" t="s">
         <v>12</v>
       </c>
       <c r="AG19" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="AH19" s="118" t="s">
+      <c r="AH19" s="114" t="s">
         <v>95</v>
       </c>
       <c r="AJ19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AK19" s="97" t="s">
+      <c r="AK19" s="94" t="s">
         <v>96</v>
       </c>
       <c r="AL19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AP19" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ19" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR19" s="121" t="s">
+      <c r="AP19" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ19" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR19" s="117" t="s">
         <v>15</v>
       </c>
       <c r="BW19" s="36" t="s">
@@ -8691,19 +8715,19 @@
       </c>
     </row>
     <row r="20" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="114" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="118" t="s">
+      <c r="F20" s="114" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="97" t="s">
+      <c r="I20" s="94" t="s">
         <v>96</v>
       </c>
       <c r="J20" s="18" t="s">
@@ -8712,7 +8736,7 @@
       <c r="M20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="97" t="s">
+      <c r="N20" s="94" t="s">
         <v>96</v>
       </c>
       <c r="O20" s="18" t="s">
@@ -8721,7 +8745,7 @@
       <c r="Q20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="97" t="s">
+      <c r="R20" s="94" t="s">
         <v>96</v>
       </c>
       <c r="S20" s="18" t="s">
@@ -8766,7 +8790,7 @@
       <c r="AN20" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AO20" s="119" t="s">
+      <c r="AO20" s="115" t="s">
         <v>13</v>
       </c>
       <c r="AP20" s="55" t="s">
@@ -8807,23 +8831,23 @@
       </c>
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
-      <c r="M21" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="125" t="s">
+      <c r="M21" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="125" t="s">
+      <c r="O21" s="121" t="s">
         <v>2</v>
       </c>
       <c r="P21" s="72"/>
-      <c r="Q21" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="125" t="s">
+      <c r="Q21" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="S21" s="125" t="s">
+      <c r="S21" s="121" t="s">
         <v>2</v>
       </c>
       <c r="T21" s="72"/>
@@ -8865,7 +8889,7 @@
       <c r="AL21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AO21" s="122" t="s">
+      <c r="AO21" s="118" t="s">
         <v>14</v>
       </c>
       <c r="AP21" s="56">
@@ -8914,22 +8938,22 @@
       <c r="J22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="126" t="s">
+      <c r="M22" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="126" t="s">
+      <c r="O22" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="126" t="s">
+      <c r="Q22" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="126">
+      <c r="S22" s="122">
         <v>12</v>
       </c>
       <c r="X22" s="30" t="s">
@@ -8953,7 +8977,7 @@
       <c r="AF22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AG22" s="131" t="s">
+      <c r="AG22" s="127" t="s">
         <v>276</v>
       </c>
       <c r="AH22" s="6" t="s">
@@ -8968,7 +8992,7 @@
       <c r="AL22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AO22" s="123" t="s">
+      <c r="AO22" s="119" t="s">
         <v>15</v>
       </c>
       <c r="AP22" s="57">
@@ -9012,22 +9036,22 @@
       <c r="J23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="126" t="s">
+      <c r="M23" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="O23" s="126" t="s">
+      <c r="O23" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="126" t="s">
+      <c r="Q23" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="126" t="s">
+      <c r="S23" s="122" t="s">
         <v>4</v>
       </c>
       <c r="X23" s="36" t="s">
@@ -9094,22 +9118,22 @@
       <c r="J24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="127" t="s">
+      <c r="M24" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="127" t="s">
+      <c r="O24" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="126" t="s">
+      <c r="Q24" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="S24" s="126" t="s">
+      <c r="S24" s="122" t="s">
         <v>2</v>
       </c>
       <c r="AB24" s="30" t="s">
@@ -9124,7 +9148,7 @@
       <c r="AF24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AG24" s="132" t="s">
+      <c r="AG24" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AH24" s="6" t="s">
@@ -9153,7 +9177,7 @@
       <c r="E25" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="128"/>
+      <c r="G25" s="124"/>
       <c r="H25" s="30" t="s">
         <v>14</v>
       </c>
@@ -9163,23 +9187,23 @@
       <c r="J25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="M25" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="127" t="s">
+      <c r="K25" s="124"/>
+      <c r="M25" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="O25" s="127" t="s">
+      <c r="O25" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="127" t="s">
+      <c r="Q25" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="S25" s="127" t="s">
+      <c r="S25" s="123" t="s">
         <v>5</v>
       </c>
       <c r="AB25" s="30" t="s">
@@ -9238,22 +9262,22 @@
       <c r="J26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="127" t="s">
+      <c r="M26" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="127" t="s">
+      <c r="Q26" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="127" t="s">
+      <c r="S26" s="123" t="s">
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -9302,22 +9326,22 @@
         <v>6</v>
       </c>
       <c r="K27" s="84"/>
-      <c r="M27" s="129" t="s">
+      <c r="M27" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="129" t="s">
+      <c r="N27" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="129" t="s">
+      <c r="O27" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="127" t="s">
+      <c r="Q27" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="S27" s="127" t="s">
+      <c r="S27" s="123" t="s">
         <v>6</v>
       </c>
       <c r="AB27" s="36" t="s">
@@ -9357,22 +9381,22 @@
       <c r="I28" s="84"/>
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
-      <c r="M28" s="129" t="s">
+      <c r="M28" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="129" t="s">
+      <c r="N28" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="O28" s="129" t="s">
+      <c r="O28" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="127" t="s">
+      <c r="Q28" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="S28" s="127" t="s">
+      <c r="S28" s="123" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -9403,22 +9427,22 @@
       <c r="I29" s="84"/>
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
-      <c r="M29" s="129" t="s">
+      <c r="M29" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="129" t="s">
+      <c r="N29" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="O29" s="129" t="s">
+      <c r="O29" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="127" t="s">
+      <c r="Q29" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="S29" s="127" t="s">
+      <c r="S29" s="123" t="s">
         <v>6</v>
       </c>
       <c r="AJ29" s="30" t="s">
@@ -9446,22 +9470,22 @@
       <c r="I30" s="84"/>
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
-      <c r="M30" s="130" t="s">
+      <c r="M30" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="130" t="s">
+      <c r="N30" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="O30" s="130" t="s">
+      <c r="O30" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="129" t="s">
+      <c r="Q30" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="129" t="s">
+      <c r="R30" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="S30" s="129" t="s">
+      <c r="S30" s="125" t="s">
         <v>5</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -9492,13 +9516,13 @@
       <c r="I31" s="84"/>
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
-      <c r="Q31" s="129" t="s">
+      <c r="Q31" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="129" t="s">
+      <c r="R31" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="S31" s="129" t="s">
+      <c r="S31" s="125" t="s">
         <v>6</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -9524,13 +9548,13 @@
       <c r="M32" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Q32" s="129" t="s">
+      <c r="Q32" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="129" t="s">
+      <c r="R32" s="125" t="s">
         <v>260</v>
       </c>
-      <c r="S32" s="129" t="s">
+      <c r="S32" s="125" t="s">
         <v>6</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -9556,13 +9580,13 @@
       </c>
     </row>
     <row r="33" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q33" s="129" t="s">
+      <c r="Q33" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="129" t="s">
+      <c r="R33" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="S33" s="129" t="s">
+      <c r="S33" s="125" t="s">
         <v>6</v>
       </c>
       <c r="AF33" s="1" t="s">
@@ -9585,13 +9609,13 @@
       <c r="M34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="Q34" s="130" t="s">
+      <c r="Q34" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="130" t="s">
+      <c r="R34" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="S34" s="130" t="s">
+      <c r="S34" s="126" t="s">
         <v>6</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -9649,7 +9673,7 @@
       <c r="M39" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="BT39" s="117" t="s">
+      <c r="BT39" s="113" t="s">
         <v>251</v>
       </c>
     </row>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="295">
   <si>
     <t>Variable 1</t>
   </si>
@@ -918,6 +918,18 @@
   </si>
   <si>
     <t>violin</t>
+  </si>
+  <si>
+    <t>Baby. Names</t>
+  </si>
+  <si>
+    <t>17 Point map</t>
+  </si>
+  <si>
+    <t>18 bubble map</t>
+  </si>
+  <si>
+    <t>Connection map</t>
   </si>
 </sst>
 </file>
@@ -4861,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5547,7 +5559,7 @@
         <v>224</v>
       </c>
       <c r="AB42" s="108" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="AH42" s="108" t="s">
         <v>225</v>
@@ -6689,7 +6701,7 @@
   <dimension ref="A3:AD46"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+      <selection activeCell="Z44" sqref="Z44:Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7630,14 +7642,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B14:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="108" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="295">
   <si>
     <t>Variable 1</t>
   </si>
@@ -487,9 +487,6 @@
     <t>1 cat</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
@@ -635,9 +632,6 @@
   </si>
   <si>
     <t>see 2num 1 cat with one num ord.</t>
-  </si>
-  <si>
-    <t>distribution of height</t>
   </si>
   <si>
     <t>Story1num</t>
@@ -929,14 +923,20 @@
     <t>18 bubble map</t>
   </si>
   <si>
-    <t>Connection map</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>distribution RBNB price</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1218,8 +1218,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,6 +1266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69B3A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,7 +1498,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1827,6 +1840,12 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1837,6 +1856,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF69B3A2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3545,7 +3569,7 @@
   <dimension ref="C6:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3555,7 +3579,7 @@
   <sheetData>
     <row r="6" spans="3:11" ht="21" x14ac:dyDescent="0.25">
       <c r="C6" s="101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
@@ -3568,27 +3592,27 @@
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3670,7 @@
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
       <c r="O9" s="87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P9" s="68"/>
       <c r="Q9" s="68"/>
@@ -3670,7 +3694,7 @@
       <c r="AI9" s="68"/>
       <c r="AJ9" s="82"/>
       <c r="AL9" s="87" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AM9" s="68"/>
       <c r="AN9" s="68"/>
@@ -3749,22 +3773,22 @@
     </row>
     <row r="16" spans="3:49" ht="26" x14ac:dyDescent="0.3">
       <c r="O16" s="67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P16" s="68"/>
       <c r="Q16" s="68"/>
       <c r="S16" s="67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="T16" s="68"/>
       <c r="U16" s="68"/>
       <c r="W16" s="67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X16" s="68"/>
       <c r="Y16" s="68"/>
       <c r="AA16" s="67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AB16" s="68"/>
       <c r="AC16" s="68"/>
@@ -4230,7 +4254,7 @@
         <v>140</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AT24" s="1" t="s">
         <v>106</v>
@@ -4344,7 +4368,7 @@
         <v>14</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U27" s="30" t="s">
         <v>5</v>
@@ -4362,10 +4386,10 @@
         <v>35</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM27" s="113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>118</v>
@@ -4385,7 +4409,7 @@
         <v>14</v>
       </c>
       <c r="T28" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U28" s="36" t="s">
         <v>6</v>
@@ -4452,7 +4476,7 @@
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="3:48" x14ac:dyDescent="0.2">
@@ -4475,7 +4499,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AT30" s="1" t="s">
         <v>104</v>
@@ -4527,13 +4551,13 @@
         <v>88</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN32" s="72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="4:46" x14ac:dyDescent="0.2">
@@ -4545,16 +4569,16 @@
         <v>78</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AT33" s="82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="4:46" x14ac:dyDescent="0.2">
@@ -4562,10 +4586,10 @@
         <v>24</v>
       </c>
       <c r="AA34" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT34" s="82"/>
     </row>
@@ -4574,10 +4598,10 @@
         <v>25</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="4:46" x14ac:dyDescent="0.2">
@@ -4591,10 +4615,10 @@
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF37" s="92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG37" s="113"/>
     </row>
@@ -4616,7 +4640,7 @@
     </row>
     <row r="40" spans="4:46" x14ac:dyDescent="0.2">
       <c r="O40" s="82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P40" s="82"/>
       <c r="Q40" s="82"/>
@@ -4741,33 +4765,33 @@
     </row>
     <row r="46" spans="4:46" x14ac:dyDescent="0.2">
       <c r="D46" s="108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I46" s="108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O46" s="108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S46" s="108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W46" s="108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AA46" s="108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AE46" s="108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL46" s="108"/>
       <c r="AM46" s="84"/>
       <c r="AP46" s="108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AT46" s="108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="4:46" x14ac:dyDescent="0.2">
@@ -4778,7 +4802,7 @@
         <v>54</v>
       </c>
       <c r="O47" s="108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S47" s="108" t="s">
         <v>54</v>
@@ -4795,10 +4819,10 @@
       <c r="AL47" s="108"/>
       <c r="AM47" s="84"/>
       <c r="AP47" s="108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AT47" s="108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="4:46" x14ac:dyDescent="0.2">
@@ -4873,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AM43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4991,7 +5015,7 @@
       <c r="S14" s="82"/>
     </row>
     <row r="15" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="133" t="s">
         <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -5286,8 +5310,8 @@
       </c>
     </row>
     <row r="20" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C20" s="7" t="s">
-        <v>6</v>
+      <c r="C20" s="134" t="s">
+        <v>294</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>6</v>
@@ -5346,25 +5370,25 @@
     </row>
     <row r="21" spans="3:39" x14ac:dyDescent="0.2">
       <c r="H21" s="107" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I21" s="107"/>
       <c r="J21" s="107"/>
       <c r="K21" s="107"/>
       <c r="P21" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="U21" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y21" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="U21" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y21" s="107" t="s">
-        <v>199</v>
-      </c>
       <c r="AC21" s="107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH21" s="107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="3:39" ht="19" x14ac:dyDescent="0.25">
@@ -5386,7 +5410,7 @@
         <v>145</v>
       </c>
       <c r="AM24" s="104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5411,7 +5435,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>90</v>
@@ -5440,7 +5464,7 @@
         <v>142</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5448,13 +5472,13 @@
         <v>57</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AH30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AM30" s="105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5492,12 +5516,12 @@
         <v>60</v>
       </c>
       <c r="AM36" s="106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="3:39" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM37" s="106"/>
     </row>
@@ -5523,51 +5547,57 @@
     </row>
     <row r="41" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C41" s="108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I41" s="108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J41" s="108"/>
       <c r="P41" s="108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q41" s="108"/>
       <c r="U41" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB41" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="AB41" s="108" t="s">
-        <v>208</v>
-      </c>
       <c r="AH41" s="108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C42" s="108" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="I42" s="108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J42" s="108"/>
       <c r="P42" s="108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q42" s="108"/>
       <c r="U42" s="108" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB42" s="108" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH42" s="108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="P43" s="1" t="s">
-        <v>150</v>
+        <v>292</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5615,7 +5645,7 @@
       <c r="D9" s="73"/>
       <c r="E9" s="68"/>
       <c r="H9" s="87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I9" s="73"/>
       <c r="J9" s="68"/>
@@ -5640,7 +5670,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
@@ -5667,10 +5697,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>95</v>
@@ -5705,13 +5735,13 @@
         <v>13</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O15" s="27" t="s">
         <v>13</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>13</v>
@@ -5734,13 +5764,13 @@
         <v>13</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O16" s="29" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>13</v>
@@ -5757,19 +5787,19 @@
         <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>13</v>
       </c>
       <c r="M17" s="88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O17" s="29" t="s">
         <v>13</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>13</v>
@@ -5783,22 +5813,22 @@
         <v>15</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L18" s="30" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O18" s="30" t="s">
         <v>14</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R18" s="30" t="s">
         <v>14</v>
@@ -5812,22 +5842,22 @@
         <v>15</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O19" s="36" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R19" s="31" t="s">
         <v>15</v>
@@ -5838,7 +5868,7 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -5856,16 +5886,16 @@
         <v>78</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -5873,21 +5903,21 @@
         <v>79</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="L25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>106</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
@@ -5898,7 +5928,7 @@
         <v>109</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
@@ -5922,7 +5952,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
@@ -5953,7 +5983,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
@@ -5975,19 +6005,19 @@
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H40" s="108" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L40" s="108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O40" s="108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R40" s="108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
@@ -6001,7 +6031,7 @@
         <v>54</v>
       </c>
       <c r="O41" s="108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R41" s="108" t="s">
         <v>54</v>
@@ -6717,7 +6747,7 @@
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
       <c r="H3" s="129" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I3" s="130"/>
       <c r="J3" s="130"/>
@@ -6727,7 +6757,7 @@
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
       <c r="H4" s="132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" s="132"/>
       <c r="J4" s="132"/>
@@ -6758,7 +6788,7 @@
     </row>
     <row r="9" spans="3:30" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
@@ -6767,7 +6797,7 @@
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
       <c r="L9" s="112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M9" s="73"/>
       <c r="N9" s="68"/>
@@ -6790,30 +6820,30 @@
     </row>
     <row r="12" spans="3:30" ht="21" x14ac:dyDescent="0.25">
       <c r="C12" s="92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L12" s="90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M12" s="68"/>
       <c r="N12" s="68"/>
       <c r="P12" s="90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="68"/>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
       <c r="T12" s="68"/>
       <c r="V12" s="90" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W12" s="68"/>
       <c r="X12" s="68"/>
       <c r="Z12" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA12" s="68"/>
       <c r="AB12" s="68"/>
@@ -6831,7 +6861,7 @@
         <v>129</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>129</v>
@@ -6854,22 +6884,22 @@
         <v>1</v>
       </c>
       <c r="L14" s="92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P14" s="92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S14" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V14" s="92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z14" s="92" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC14" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.2">
@@ -6904,7 +6934,7 @@
         <v>67</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>129</v>
@@ -6942,7 +6972,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>15</v>
@@ -7133,7 +7163,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C20" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="33"/>
       <c r="L20" s="52" t="s">
@@ -7236,10 +7266,10 @@
         <v>1.3</v>
       </c>
       <c r="L23" s="92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P23" s="92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -7265,7 +7295,7 @@
         <v>96</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>12</v>
@@ -7274,7 +7304,7 @@
         <v>96</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>95</v>
@@ -7283,7 +7313,7 @@
         <v>147</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -7363,7 +7393,7 @@
         <v>3</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -7412,7 +7442,7 @@
         <v>23</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -7440,7 +7470,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L30" s="30" t="s">
         <v>14</v>
@@ -7466,7 +7496,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" s="30" t="s">
         <v>14</v>
@@ -7492,7 +7522,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>14</v>
@@ -7518,10 +7548,10 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E34" s="113"/>
       <c r="F34" s="113"/>
@@ -7541,14 +7571,14 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N38" s="82" t="s">
         <v>82</v>
       </c>
       <c r="O38" s="69"/>
       <c r="P38" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="82"/>
     </row>
@@ -7558,18 +7588,18 @@
       </c>
       <c r="O39" s="69"/>
       <c r="P39" s="92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N40" s="82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O40" s="69"/>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N42" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
@@ -7596,13 +7626,13 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C45" s="108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L45" s="82"/>
       <c r="M45" s="82"/>
       <c r="N45" s="82"/>
       <c r="O45" s="111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P45" s="82"/>
       <c r="Q45" s="82"/>
@@ -7610,10 +7640,10 @@
       <c r="S45" s="82"/>
       <c r="T45" s="82"/>
       <c r="V45" s="108" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z45" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
@@ -7642,34 +7672,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B14:H16"/>
+  <dimension ref="B14:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="109" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" s="109" t="s">
-        <v>293</v>
-      </c>
-      <c r="H14" s="109">
-        <v>19</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E15" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="H15" s="108" t="s">
-        <v>294</v>
+        <v>228</v>
+      </c>
+      <c r="H15" s="109">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -7680,6 +7707,11 @@
         <v>54</v>
       </c>
       <c r="H16" s="108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="108" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7720,43 +7752,43 @@
         <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7832,7 +7864,7 @@
       <c r="AW7" s="82"/>
       <c r="AX7" s="82"/>
       <c r="AZ7" s="87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BA7" s="68"/>
       <c r="BB7" s="68"/>
@@ -7974,7 +8006,7 @@
       <c r="CK11" s="68"/>
       <c r="CL11" s="68"/>
       <c r="CO11" s="67" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="CP11" s="68"/>
       <c r="CQ11" s="68"/>
@@ -8017,7 +8049,7 @@
         <v>96</v>
       </c>
       <c r="BB13" s="86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BC13" s="114" t="s">
         <v>95</v>
@@ -8054,12 +8086,12 @@
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E14" s="120"/>
       <c r="F14" s="120"/>
       <c r="M14" s="74" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N14" s="120"/>
       <c r="O14" s="120"/>
@@ -8070,12 +8102,12 @@
       <c r="T14" s="84"/>
       <c r="U14" s="84"/>
       <c r="X14" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Y14" s="120"/>
       <c r="Z14" s="120"/>
       <c r="AF14" s="74" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG14" s="120"/>
       <c r="AH14" s="120"/>
@@ -8100,7 +8132,7 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
@@ -8232,7 +8264,7 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
@@ -8368,7 +8400,7 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
@@ -8468,41 +8500,41 @@
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E17" s="120"/>
       <c r="F17" s="68"/>
       <c r="H17" s="74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I17" s="120"/>
       <c r="J17" s="68"/>
       <c r="M17" s="74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N17" s="120"/>
       <c r="Q17" s="74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R17" s="120"/>
       <c r="X17" s="74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Y17" s="120"/>
       <c r="Z17" s="68"/>
       <c r="AB17" s="74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AC17" s="120"/>
       <c r="AD17" s="68"/>
       <c r="AE17" s="84"/>
       <c r="AF17" s="74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG17" s="120"/>
       <c r="AH17" s="68"/>
       <c r="AJ17" s="74" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AK17" s="120"/>
       <c r="AL17" s="68"/>
@@ -8523,7 +8555,7 @@
         <v>103</v>
       </c>
       <c r="BB17" s="71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
@@ -8620,10 +8652,10 @@
         <v>35</v>
       </c>
       <c r="BI18" s="107" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BR18" s="107" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -8644,7 +8676,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -8849,10 +8881,10 @@
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8948,7 +8980,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BC21" s="72"/>
       <c r="BD21" s="72"/>
@@ -8962,7 +8994,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9024,7 +9056,7 @@
         <v>13</v>
       </c>
       <c r="AG22" s="127" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9051,7 +9083,7 @@
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BW22" s="72" t="s">
         <v>120</v>
@@ -9060,7 +9092,7 @@
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9086,7 +9118,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="122" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O23" s="122" t="s">
         <v>2</v>
@@ -9177,7 +9209,7 @@
         <v>13</v>
       </c>
       <c r="R24" s="122" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S24" s="122" t="s">
         <v>2</v>
@@ -9204,13 +9236,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -9238,7 +9270,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O25" s="123" t="s">
         <v>6</v>
@@ -9265,7 +9297,7 @@
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -9274,13 +9306,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -9303,7 +9335,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
@@ -9312,7 +9344,7 @@
         <v>14</v>
       </c>
       <c r="N26" s="123" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O26" s="123" t="s">
         <v>6</v>
@@ -9327,7 +9359,7 @@
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AB26" s="30" t="s">
         <v>14</v>
@@ -9348,7 +9380,7 @@
         <v>5</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9366,7 +9398,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>6</v>
@@ -9385,7 +9417,7 @@
         <v>14</v>
       </c>
       <c r="R27" s="123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S27" s="123" t="s">
         <v>6</v>
@@ -9409,7 +9441,7 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9431,7 +9463,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O28" s="125" t="s">
         <v>6</v>
@@ -9440,16 +9472,16 @@
         <v>14</v>
       </c>
       <c r="R28" s="123" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S28" s="123" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AJ28" s="30" t="s">
         <v>14</v>
@@ -9461,10 +9493,10 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BY28" s="72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9477,7 +9509,7 @@
         <v>15</v>
       </c>
       <c r="N29" s="125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O29" s="125" t="s">
         <v>6</v>
@@ -9486,7 +9518,7 @@
         <v>14</v>
       </c>
       <c r="R29" s="123" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S29" s="123" t="s">
         <v>6</v>
@@ -9501,15 +9533,15 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="84"/>
@@ -9520,7 +9552,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O30" s="126" t="s">
         <v>6</v>
@@ -9538,19 +9570,19 @@
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
@@ -9566,7 +9598,7 @@
         <v>15</v>
       </c>
       <c r="R31" s="125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S31" s="125" t="s">
         <v>6</v>
@@ -9575,13 +9607,13 @@
         <v>82</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -9589,16 +9621,16 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q32" s="125" t="s">
         <v>15</v>
       </c>
       <c r="R32" s="125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S32" s="125" t="s">
         <v>6</v>
@@ -9607,7 +9639,7 @@
         <v>83</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>99</v>
@@ -9616,7 +9648,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -9630,7 +9662,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S33" s="125" t="s">
         <v>6</v>
@@ -9642,7 +9674,7 @@
         <v>14</v>
       </c>
       <c r="AK33" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL33" s="36" t="s">
         <v>6</v>
@@ -9650,16 +9682,16 @@
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="126" t="s">
         <v>15</v>
       </c>
       <c r="R34" s="126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S34" s="126" t="s">
         <v>6</v>
@@ -9681,16 +9713,16 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9698,7 +9730,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -9706,21 +9738,21 @@
     </row>
     <row r="38" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="BT39" s="113" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -9730,7 +9762,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -9743,7 +9775,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="295">
   <si>
     <t>Variable 1</t>
   </si>
@@ -4895,10 +4895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AM43"/>
+  <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="AA8" zoomScale="268" zoomScaleNormal="268" zoomScalePageLayoutView="268" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4911,14 +4911,15 @@
     <col min="12" max="14" width="5" style="1" customWidth="1"/>
     <col min="15" max="23" width="8.5" style="1"/>
     <col min="24" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="32" width="8.5" style="1"/>
-    <col min="33" max="33" width="2.83203125" style="1" customWidth="1"/>
-    <col min="34" max="37" width="8.5" style="1"/>
-    <col min="38" max="38" width="1" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.5" style="1"/>
+    <col min="25" max="28" width="8.5" style="1"/>
+    <col min="29" max="33" width="7.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" style="1" customWidth="1"/>
+    <col min="35" max="38" width="8.5" style="1"/>
+    <col min="39" max="39" width="8.5" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:37" ht="62" x14ac:dyDescent="0.7">
+    <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
       <c r="K3" s="129" t="s">
         <v>130</v>
       </c>
@@ -4928,7 +4929,7 @@
       <c r="O3" s="130"/>
       <c r="P3" s="131"/>
     </row>
-    <row r="9" spans="3:37" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="73" t="s">
         <v>131</v>
       </c>
@@ -4968,8 +4969,9 @@
       <c r="AI9" s="68"/>
       <c r="AJ9" s="68"/>
       <c r="AK9" s="68"/>
-    </row>
-    <row r="13" spans="3:37" ht="26" x14ac:dyDescent="0.3">
+      <c r="AL9" s="68"/>
+    </row>
+    <row r="13" spans="3:39" ht="26" x14ac:dyDescent="0.3">
       <c r="H13" s="67" t="s">
         <v>134</v>
       </c>
@@ -4997,14 +4999,14 @@
       </c>
       <c r="AD13" s="68"/>
       <c r="AE13" s="68"/>
-      <c r="AH13" s="67" t="s">
+      <c r="AI13" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="AI13" s="68"/>
       <c r="AJ13" s="68"/>
-      <c r="AK13" s="82"/>
-    </row>
-    <row r="14" spans="3:37" ht="26" x14ac:dyDescent="0.3">
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="82"/>
+    </row>
+    <row r="14" spans="3:39" ht="26" x14ac:dyDescent="0.3">
       <c r="H14" s="81"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
@@ -5014,361 +5016,397 @@
       <c r="R14" s="82"/>
       <c r="S14" s="82"/>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Y15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AA15" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AC15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AF15" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AG15" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI15" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="AI15" s="5" t="s">
+      <c r="AJ15" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="AJ15" s="5" t="s">
+      <c r="AK15" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="AK15" s="5" t="s">
+      <c r="AL15" s="133" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="AM15" s="133" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="6">
         <v>1</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="V16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="W16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y16" s="6">
         <v>1</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AA16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AC16" s="6">
         <v>1</v>
       </c>
-      <c r="AD16" s="3" t="s">
+      <c r="AD16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AE16" s="3" t="s">
+      <c r="AE16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AF16" s="3" t="s">
+      <c r="AF16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AH16" s="6" t="s">
+      <c r="AG16" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AJ16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AJ16" s="3" t="s">
+      <c r="AK16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AL16" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AM16" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="6">
         <v>2</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="W17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y17" s="6">
         <v>2</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="Z17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="3" t="s">
+      <c r="AA17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AC17" s="6">
         <v>2</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AD17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AE17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AF17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AH17" s="6" t="s">
+      <c r="AG17" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AJ17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AJ17" s="3" t="s">
+      <c r="AK17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AL17" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AM17" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="P18" s="6">
         <v>3</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="U18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y18" s="6">
         <v>3</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AA18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AC18" s="6">
         <v>3</v>
       </c>
-      <c r="AD18" s="3" t="s">
+      <c r="AD18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AE18" s="3" t="s">
+      <c r="AE18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AF18" s="3" t="s">
+      <c r="AF18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AH18" s="6" t="s">
+      <c r="AG18" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AJ18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AJ18" s="3" t="s">
+      <c r="AK18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AL18" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AM18" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="P19" s="6">
         <v>4</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="W19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="Y19" s="6">
         <v>4</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AA19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="AC19" s="6">
         <v>4</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AD19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AE19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AF19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AJ19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AK19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AK19" s="3" t="s">
+      <c r="AL19" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AM19" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="H20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="I20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="P20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="U20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="V20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="W20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL20" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM20" s="134" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.2">
       <c r="H21" s="107" t="s">
         <v>231</v>
       </c>
@@ -5387,11 +5425,11 @@
       <c r="AC21" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="AH21" s="107" t="s">
+      <c r="AI21" s="107" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="3:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:40" ht="19" x14ac:dyDescent="0.25">
       <c r="H23" s="85" t="s">
         <v>136</v>
       </c>
@@ -5403,17 +5441,17 @@
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
       <c r="N23" s="68"/>
-      <c r="AH23" s="82"/>
-    </row>
-    <row r="24" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH24" s="82" t="s">
+      <c r="AI23" s="82"/>
+    </row>
+    <row r="24" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI24" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="AM24" s="104" t="s">
+      <c r="AN24" s="104" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
@@ -5426,11 +5464,11 @@
       <c r="U25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AI25" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>90</v>
       </c>
@@ -5443,17 +5481,17 @@
       <c r="U26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AH26" s="82" t="s">
+      <c r="AI26" s="82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="3:39" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH27" s="103" t="s">
+    <row r="27" spans="3:40" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI27" s="103" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="3:39" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:40" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="1" t="s">
         <v>138</v>
       </c>
@@ -5463,36 +5501,36 @@
       <c r="U29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AH29" s="1" t="s">
+      <c r="AI29" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AH30" s="1" t="s">
+      <c r="AI30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM30" s="105" t="s">
+      <c r="AN30" s="105" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH31" s="1" t="s">
+    <row r="31" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI31" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AH32" s="1" t="s">
+    <row r="32" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI32" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="3:39" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:40" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P34" s="1" t="s">
         <v>118</v>
       </c>
@@ -5500,7 +5538,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:40" x14ac:dyDescent="0.2">
       <c r="P35" s="1" t="s">
         <v>140</v>
       </c>
@@ -5508,24 +5546,24 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:40" x14ac:dyDescent="0.2">
       <c r="P36" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM36" s="106" t="s">
+      <c r="AN36" s="106" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AM37" s="106"/>
-    </row>
-    <row r="40" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="AN37" s="106"/>
+    </row>
+    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C40" s="109">
         <v>1</v>
       </c>
@@ -5541,11 +5579,11 @@
       <c r="AB40" s="109">
         <v>5</v>
       </c>
-      <c r="AH40" s="109">
+      <c r="AI40" s="109">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C41" s="108" t="s">
         <v>199</v>
       </c>
@@ -5563,11 +5601,11 @@
       <c r="AB41" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="AH41" s="108" t="s">
+      <c r="AI41" s="108" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="108" t="s">
         <v>293</v>
       </c>
@@ -5585,11 +5623,11 @@
       <c r="AB42" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="AH42" s="108" t="s">
+      <c r="AI42" s="108" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="3:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>292</v>
       </c>
@@ -5605,6 +5643,9 @@
     <mergeCell ref="K3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C16:C19 AI16:AL19 AD16" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="302">
   <si>
     <t>Variable 1</t>
   </si>
@@ -496,18 +496,12 @@
     <t>b1</t>
   </si>
   <si>
-    <t>b2</t>
-  </si>
-  <si>
     <t>Venn diagram</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -532,9 +526,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Relationnal</t>
-  </si>
-  <si>
     <t>Network</t>
   </si>
   <si>
@@ -575,9 +566,6 @@
   </si>
   <si>
     <t>nested dataframe</t>
-  </si>
-  <si>
-    <t>SubSub</t>
   </si>
   <si>
     <t>Sankey diagram</t>
@@ -931,12 +919,45 @@
   <si>
     <t>…</t>
   </si>
+  <si>
+    <t>A.1</t>
+  </si>
+  <si>
+    <t>A.2</t>
+  </si>
+  <si>
+    <t>B.1</t>
+  </si>
+  <si>
+    <t>B.2</t>
+  </si>
+  <si>
+    <t>node1</t>
+  </si>
+  <si>
+    <t>node2</t>
+  </si>
+  <si>
+    <t>node 1</t>
+  </si>
+  <si>
+    <t>node 2</t>
+  </si>
+  <si>
+    <t>possible cycle : A-&gt;B, B-&gt;C, C-&gt;A</t>
+  </si>
+  <si>
+    <t>Relational</t>
+  </si>
+  <si>
+    <t>Leaf val</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,14 +1012,6 @@
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,6 +1238,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1276,7 +1333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1490,15 +1547,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1570,12 +1638,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1588,45 +1656,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1636,23 +1677,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,58 +1705,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1728,84 +1754,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,36 +1829,166 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1976,13 +2120,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2024,13 +2168,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3578,41 +3722,41 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="C6" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3622,10 +3766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AW69"/>
+  <dimension ref="C1:AY69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16:AR21"/>
+    <sheetView topLeftCell="AA24" zoomScale="270" zoomScaleNormal="270" zoomScalePageLayoutView="270" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27:AH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3638,991 +3782,1147 @@
     <col min="22" max="22" width="11.33203125" style="1" customWidth="1"/>
     <col min="23" max="29" width="8.5" style="1"/>
     <col min="30" max="30" width="12.1640625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.5" style="1"/>
+    <col min="31" max="37" width="8.5" style="1"/>
+    <col min="38" max="41" width="8" style="1" customWidth="1"/>
+    <col min="42" max="42" width="8.5" style="1"/>
+    <col min="43" max="46" width="8" style="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" style="1"/>
+    <col min="48" max="51" width="8" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:49" ht="62" x14ac:dyDescent="0.7">
-      <c r="X3" s="76"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="79" t="s">
+    <row r="1" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AU1" s="127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AU2" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="3:51" ht="62" x14ac:dyDescent="0.7">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="80"/>
-    </row>
-    <row r="9" spans="3:49" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="73" t="s">
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="66"/>
+      <c r="AU3" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AU4" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AU5" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AU6" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="AU7" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="3:51" ht="26" x14ac:dyDescent="0.3">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="O9" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="82"/>
-      <c r="AL9" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM9" s="68"/>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="82"/>
-    </row>
-    <row r="13" spans="3:49" ht="26" x14ac:dyDescent="0.3">
-      <c r="C13" s="67" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="O9" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="68"/>
+      <c r="AL9" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="68"/>
+    </row>
+    <row r="13" spans="3:51" ht="26" x14ac:dyDescent="0.3">
+      <c r="C13" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="I13" s="67" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="I13" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="O13" s="67" t="s">
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="O13" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="82"/>
-      <c r="W13" s="67" t="s">
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="68"/>
+      <c r="W13" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="82"/>
-      <c r="AC13" s="82"/>
-      <c r="AE13" s="67" t="s">
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AE13" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AL13" s="67" t="s">
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AL13" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AP13" s="67" t="s">
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="68"/>
+      <c r="AQ13" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AT13" s="67" t="s">
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="68"/>
+      <c r="AV13" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="82"/>
-    </row>
-    <row r="14" spans="3:49" ht="26" x14ac:dyDescent="0.3">
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="16" spans="3:49" ht="26" x14ac:dyDescent="0.3">
-      <c r="O16" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="S16" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="W16" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="AA16" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AL16" s="4" t="s">
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="68"/>
+    </row>
+    <row r="14" spans="3:51" ht="26" x14ac:dyDescent="0.3">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+    </row>
+    <row r="16" spans="3:51" ht="26" x14ac:dyDescent="0.3">
+      <c r="O16" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="S16" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="W16" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="AA16" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+    </row>
+    <row r="17" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C17" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="AM16" s="4" t="s">
+      <c r="J17" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL17" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="AN16" s="5" t="s">
+      <c r="AN17" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="AP16" s="4" t="s">
+      <c r="AO17" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ17" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AR17" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="AR16" s="5" t="s">
+      <c r="AS17" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="AT16" s="4" t="s">
+      <c r="AT17" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV17" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AU16" s="4" t="s">
+      <c r="AW17" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="AV16" s="5" t="s">
+      <c r="AX17" s="127" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU17" s="6">
-        <v>12.1</v>
-      </c>
-      <c r="AV17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="C18" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="63">
+      <c r="AY17" s="127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C18" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="119">
         <v>0.25</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="47">
+      <c r="F18" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="45">
         <v>10</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AL18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ18" s="6">
+      <c r="AL18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AR18" s="3" t="s">
-        <v>8</v>
+      <c r="AN18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO18" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU18" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="C19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="64">
+        <v>290</v>
+      </c>
+      <c r="AV18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW18" s="36">
+        <v>12.1</v>
+      </c>
+      <c r="AX18" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY18" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="120">
         <v>0.3</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="30">
+      <c r="F19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="46">
         <v>12</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AL19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ19" s="6">
+      <c r="AL19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AR19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="C20" s="34" t="s">
+      <c r="AN19" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO19" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT19" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV19" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW19" s="36">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AX19" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY19" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="120">
         <v>0.4</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="46">
         <v>15</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="48" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AL20" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP20" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="C21" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="66">
-        <v>0.05</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="35">
-        <v>12</v>
-      </c>
-      <c r="I21" s="30" t="s">
+      <c r="AL20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM20" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO20" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT20" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV20" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW20" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX20" s="46">
+        <v>98</v>
+      </c>
+      <c r="AY20" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="C21" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="117" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="94" t="s">
+      <c r="T21" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X21" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="4" t="s">
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="AB21" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AC21" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF21" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG21" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="AF21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL21" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP21" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ21" s="7">
-        <v>2</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="I22" s="30" t="s">
+      <c r="AL21" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO21" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ21" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT21" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW21" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX21" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY21" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="I22" s="117" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="21" t="s">
+      <c r="O22" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="84"/>
-      <c r="S22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T22" s="27" t="s">
+      <c r="R22" s="70"/>
+      <c r="S22" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="U22" s="27" t="s">
+      <c r="U22" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="X22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y22" s="18" t="s">
+      <c r="W22" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X22" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y22" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC22" s="18" t="s">
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC22" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AE22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG22" s="44" t="s">
+      <c r="AE22" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF22" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AT22" s="1" t="s">
+      <c r="AL22" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO22" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ22" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR22" s="46">
+        <v>2</v>
+      </c>
+      <c r="AS22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT22" s="36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="I23" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="70"/>
+      <c r="S23" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="U23" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="X23" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF23" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG23" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM23" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN23" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO23" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ23" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR23" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS23" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT23" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV23" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="I23" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="84"/>
-      <c r="S23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="U23" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG23" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="3:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="21" t="s">
+      <c r="O24" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="84"/>
-      <c r="S24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="U24" s="29" t="s">
+      <c r="R24" s="70"/>
+      <c r="S24" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="U24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y24" s="6" t="s">
+      <c r="W24" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC24" s="6" t="s">
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AE24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG24" s="45" t="s">
+      <c r="AE24" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AL24" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="3:48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O25" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q25" s="7" t="s">
+      <c r="O25" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R25" s="84"/>
-      <c r="S25" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="30" t="s">
+      <c r="R25" s="70"/>
+      <c r="S25" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="U25" s="30" t="s">
+      <c r="U25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W25" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="X25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y25" s="7" t="s">
+      <c r="W25" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="132" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC25" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE25" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG25" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE25" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF25" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG25" s="46" t="s">
+      <c r="AL25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="I26" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="128" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="S26" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="T26" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AL25" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="I26" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="T26" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="U26" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="W26" s="107"/>
-      <c r="AA26" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB26" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="6" t="s">
+      <c r="W26" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="X26" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y26" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA26" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB26" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC26" s="46" t="s">
         <v>5</v>
       </c>
       <c r="AE26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AP26" s="1" t="s">
+      <c r="AL26" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D27" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="S27" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="U27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB27" s="133" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC27" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF27" s="145"/>
+      <c r="AL27" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D28" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="S28" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="T28" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="U28" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA28" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB28" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC28" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="143" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG28" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH28" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="D27" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="S27" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF27" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM27" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="AP27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT27" s="1" t="s">
+      <c r="AV28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="D28" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="T28" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="U28" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA28" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF28" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG28" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH28" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP28" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="D29" s="69" t="s">
+    <row r="29" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="D29" s="55" t="s">
         <v>85</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q29" s="72" t="s">
+      <c r="Q29" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="R29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="AA29" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB29" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC29" s="7" t="s">
+      <c r="R29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="AA29" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB29" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD29" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE29" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF29" s="55" t="s">
+      <c r="AE29" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF29" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AG29" s="44">
+      <c r="AG29" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH29" s="44">
+      <c r="AH29" s="35">
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="3:48" x14ac:dyDescent="0.2">
-      <c r="I30" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM29" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:51" x14ac:dyDescent="0.2">
+      <c r="I30" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="AE30" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF30" s="56">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AG30" s="45" t="s">
+      <c r="AE30" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF30" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="AG30" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AH30" s="45">
+      <c r="AH30" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AL30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="3:48" x14ac:dyDescent="0.2">
+      <c r="AQ30" s="58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="69" t="s">
+      <c r="I31" s="55" t="s">
         <v>93</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P31" s="72" t="s">
+      <c r="P31" s="58" t="s">
         <v>107</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE31" s="43" t="s">
+      <c r="AE31" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="AF31" s="57">
-        <v>1.3</v>
-      </c>
-      <c r="AG31" s="46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AH31" s="46" t="s">
+      <c r="AF31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AT31" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="3:48" x14ac:dyDescent="0.2">
+      <c r="AG31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="3:51" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P32" s="72" t="s">
+      <c r="P32" s="58" t="s">
         <v>110</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN32" s="72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="4:46" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="AV32" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S33" s="72"/>
+      <c r="S33" s="58"/>
       <c r="W33" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AT33" s="82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="4:46" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="AO33" s="58"/>
+    </row>
+    <row r="34" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA34" s="72" t="s">
-        <v>216</v>
+      <c r="AA34" s="58" t="s">
+        <v>212</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT34" s="82"/>
-    </row>
-    <row r="35" spans="4:46" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN34" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV34" s="68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O35" s="1" t="s">
         <v>25</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="4:46" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV35" s="68"/>
+    </row>
+    <row r="37" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="P37" s="72" t="s">
+      <c r="P37" s="58" t="s">
         <v>111</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF37" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="AF37" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG37" s="113"/>
-    </row>
-    <row r="38" spans="4:46" x14ac:dyDescent="0.2">
+      <c r="AG37" s="95"/>
+    </row>
+    <row r="38" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
         <v>105</v>
       </c>
@@ -4630,7 +4930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="4:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:48" x14ac:dyDescent="0.2">
       <c r="W39" s="1" t="s">
         <v>83</v>
       </c>
@@ -4638,257 +4938,261 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="O40" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="82"/>
-      <c r="AF40" s="82"/>
-      <c r="AG40" s="82"/>
-      <c r="AH40" s="82"/>
-      <c r="AI40" s="82"/>
-    </row>
-    <row r="41" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="82"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-    </row>
-    <row r="42" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
-      <c r="AC42" s="82"/>
-      <c r="AD42" s="82"/>
-      <c r="AE42" s="82"/>
-      <c r="AF42" s="82"/>
-      <c r="AG42" s="82"/>
-      <c r="AH42" s="82"/>
-      <c r="AI42" s="82"/>
-    </row>
-    <row r="43" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="82"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82"/>
-    </row>
-    <row r="45" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="D45" s="109">
+    <row r="40" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="O40" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+    </row>
+    <row r="41" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+    </row>
+    <row r="42" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+    </row>
+    <row r="43" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+    </row>
+    <row r="45" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="D45" s="91">
         <v>7</v>
       </c>
-      <c r="I45" s="109">
+      <c r="I45" s="91">
         <v>8</v>
       </c>
-      <c r="O45" s="109">
+      <c r="O45" s="91">
         <v>9</v>
       </c>
-      <c r="S45" s="109">
+      <c r="S45" s="91">
         <v>10</v>
       </c>
-      <c r="W45" s="109">
+      <c r="W45" s="91">
         <v>11</v>
       </c>
-      <c r="AA45" s="109">
+      <c r="AA45" s="91">
         <v>12</v>
       </c>
-      <c r="AE45" s="109">
-        <v>13</v>
-      </c>
-      <c r="AL45" s="109"/>
-      <c r="AM45" s="84"/>
-      <c r="AP45" s="109">
+      <c r="AE45" s="91">
+        <v>13</v>
+      </c>
+      <c r="AL45" s="91"/>
+      <c r="AM45" s="70"/>
+      <c r="AQ45" s="91">
         <v>5</v>
       </c>
-      <c r="AT45" s="109">
+      <c r="AV45" s="91">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="D46" s="108" t="s">
+    <row r="46" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="D46" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="O46" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="I46" s="108" t="s">
+      <c r="S46" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="O46" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="S46" s="108" t="s">
-        <v>213</v>
-      </c>
-      <c r="W46" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA46" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE46" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="84"/>
-      <c r="AP46" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT46" s="108" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="D47" s="108" t="s">
+      <c r="W46" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA46" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE46" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL46" s="90"/>
+      <c r="AM46" s="70"/>
+      <c r="AQ46" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV46" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="D47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="O47" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="S47" s="108" t="s">
+      <c r="O47" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="S47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="W47" s="108" t="s">
+      <c r="W47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="AA47" s="108" t="s">
+      <c r="AA47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="AE47" s="108" t="s">
+      <c r="AE47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="AL47" s="108"/>
-      <c r="AM47" s="84"/>
-      <c r="AP47" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT47" s="108" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="4:46" x14ac:dyDescent="0.2">
-      <c r="AM48" s="84"/>
+      <c r="AL47" s="90"/>
+      <c r="AM47" s="70"/>
+      <c r="AQ47" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV47" s="90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="AM48" s="70"/>
     </row>
     <row r="49" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AM49" s="84"/>
+      <c r="AM49" s="70"/>
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AM50" s="84"/>
+      <c r="AM50" s="70"/>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="Z61" s="83"/>
-      <c r="AA61" s="83"/>
-      <c r="AB61" s="83"/>
-      <c r="AC61" s="83"/>
+      <c r="Z61" s="69"/>
+      <c r="AA61" s="69"/>
+      <c r="AB61" s="69"/>
+      <c r="AC61" s="69"/>
     </row>
     <row r="62" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="Z62" s="84"/>
-      <c r="AA62" s="84"/>
-      <c r="AB62" s="84"/>
-      <c r="AC62" s="84"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="70"/>
+      <c r="AC62" s="70"/>
     </row>
     <row r="63" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="Z63" s="84"/>
-      <c r="AA63" s="84"/>
-      <c r="AB63" s="84"/>
-      <c r="AC63" s="84"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="70"/>
     </row>
     <row r="64" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="Z64" s="84"/>
-      <c r="AA64" s="84"/>
-      <c r="AB64" s="84"/>
-      <c r="AC64" s="84"/>
+      <c r="Z64" s="70"/>
+      <c r="AA64" s="70"/>
+      <c r="AB64" s="70"/>
+      <c r="AC64" s="70"/>
     </row>
     <row r="65" spans="26:29" x14ac:dyDescent="0.2">
-      <c r="Z65" s="84"/>
-      <c r="AA65" s="84"/>
-      <c r="AB65" s="84"/>
-      <c r="AC65" s="84"/>
+      <c r="Z65" s="70"/>
+      <c r="AA65" s="70"/>
+      <c r="AB65" s="70"/>
+      <c r="AC65" s="70"/>
     </row>
     <row r="66" spans="26:29" x14ac:dyDescent="0.2">
-      <c r="Z66" s="84"/>
-      <c r="AA66" s="84"/>
-      <c r="AB66" s="84"/>
-      <c r="AC66" s="84"/>
+      <c r="Z66" s="70"/>
+      <c r="AA66" s="70"/>
+      <c r="AB66" s="70"/>
+      <c r="AC66" s="70"/>
     </row>
     <row r="67" spans="26:29" x14ac:dyDescent="0.2">
-      <c r="Z67" s="84"/>
-      <c r="AA67" s="84"/>
-      <c r="AB67" s="84"/>
-      <c r="AC67" s="84"/>
+      <c r="Z67" s="70"/>
+      <c r="AA67" s="70"/>
+      <c r="AB67" s="70"/>
+      <c r="AC67" s="70"/>
     </row>
     <row r="68" spans="26:29" x14ac:dyDescent="0.2">
-      <c r="Z68" s="84"/>
-      <c r="AA68" s="84"/>
-      <c r="AB68" s="84"/>
-      <c r="AC68" s="84"/>
+      <c r="Z68" s="70"/>
+      <c r="AA68" s="70"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="70"/>
     </row>
     <row r="69" spans="26:29" x14ac:dyDescent="0.2">
-      <c r="Z69" s="84"/>
-      <c r="AA69" s="84"/>
-      <c r="AB69" s="84"/>
-      <c r="AC69" s="84"/>
+      <c r="Z69" s="70"/>
+      <c r="AA69" s="70"/>
+      <c r="AB69" s="70"/>
+      <c r="AC69" s="70"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AE27:AF27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4897,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA8" zoomScale="268" zoomScaleNormal="268" zoomScalePageLayoutView="268" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView topLeftCell="A9" zoomScale="268" zoomScaleNormal="268" zoomScalePageLayoutView="268" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4920,165 +5224,165 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
-      <c r="K3" s="129" t="s">
+      <c r="K3" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="115"/>
     </row>
     <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="68"/>
-      <c r="H9" s="73" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="54"/>
+      <c r="H9" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="82"/>
-      <c r="U9" s="73" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="68"/>
+      <c r="U9" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AC9" s="87" t="s">
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AC9" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="AD9" s="68"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
-      <c r="AH9" s="68"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="68"/>
-      <c r="AK9" s="68"/>
-      <c r="AL9" s="68"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
     </row>
     <row r="13" spans="3:39" ht="26" x14ac:dyDescent="0.3">
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="P13" s="67" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="P13" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="82"/>
-      <c r="U13" s="67" t="s">
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="68"/>
+      <c r="U13" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="Y13" s="67" t="s">
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="Y13" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AC13" s="67" t="s">
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AC13" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AI13" s="67" t="s">
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AI13" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="82"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="68"/>
     </row>
     <row r="14" spans="3:39" ht="26" x14ac:dyDescent="0.3">
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
     </row>
     <row r="15" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="133" t="s">
+      <c r="H15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="133" t="s">
+      <c r="I15" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="133" t="s">
+      <c r="P15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="Q15" s="133" t="s">
+      <c r="Q15" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="133" t="s">
+      <c r="U15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="V15" s="133" t="s">
+      <c r="V15" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="W15" s="133" t="s">
+      <c r="W15" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="133" t="s">
+      <c r="Y15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="Z15" s="133" t="s">
+      <c r="Z15" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="AA15" s="133" t="s">
+      <c r="AA15" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="AC15" s="133" t="s">
+      <c r="AC15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="AD15" s="133" t="s">
+      <c r="AD15" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="AE15" s="133" t="s">
+      <c r="AE15" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="AF15" s="133" t="s">
+      <c r="AF15" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="AG15" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI15" s="133" t="s">
+      <c r="AG15" s="111" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI15" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="AJ15" s="133" t="s">
+      <c r="AJ15" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="AK15" s="133" t="s">
+      <c r="AK15" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="AL15" s="133" t="s">
+      <c r="AL15" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="AM15" s="133" t="s">
-        <v>294</v>
+      <c r="AM15" s="111" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
@@ -5128,7 +5432,7 @@
         <v>7</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AI16" s="6" t="s">
         <v>2</v>
@@ -5143,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
@@ -5193,7 +5497,7 @@
         <v>8</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AI17" s="6" t="s">
         <v>3</v>
@@ -5208,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
@@ -5258,7 +5562,7 @@
         <v>9</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AI18" s="6" t="s">
         <v>4</v>
@@ -5273,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
@@ -5323,7 +5627,7 @@
         <v>10</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>5</v>
@@ -5338,117 +5642,117 @@
         <v>10</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="I20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="P20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="U20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="V20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="W20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AJ20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AL20" s="134" t="s">
-        <v>294</v>
-      </c>
-      <c r="AM20" s="134" t="s">
-        <v>294</v>
+      <c r="C20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="P20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="U20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="V20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="W20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL20" s="112" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM20" s="112" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="H21" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="P21" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="U21" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y21" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC21" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI21" s="107" t="s">
-        <v>196</v>
+      <c r="H21" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="P21" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="U21" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC21" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI21" s="89" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="3:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="85" t="s">
+      <c r="I23" s="71"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="AI23" s="82"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="AI23" s="68"/>
     </row>
     <row r="24" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI24" s="82" t="s">
+      <c r="AI24" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="AN24" s="104" t="s">
-        <v>192</v>
+      <c r="AN24" s="86" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5473,7 +5777,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>90</v>
@@ -5481,12 +5785,12 @@
       <c r="U26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI26" s="82" t="s">
+      <c r="AI26" s="68" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="3:40" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI27" s="103" t="s">
+    <row r="27" spans="3:40" s="84" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI27" s="85" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5502,7 +5806,7 @@
         <v>142</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5510,13 +5814,13 @@
         <v>57</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AN30" s="105" t="s">
-        <v>193</v>
+      <c r="AN30" s="87" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5529,7 +5833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="3:40" s="102" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:40" s="84" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P34" s="1" t="s">
         <v>118</v>
@@ -5553,89 +5857,89 @@
       <c r="AB36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN36" s="106" t="s">
-        <v>194</v>
+      <c r="AN36" s="88" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN37" s="106"/>
+        <v>228</v>
+      </c>
+      <c r="AN37" s="88"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C40" s="109">
+      <c r="C40" s="91">
         <v>1</v>
       </c>
-      <c r="I40" s="109">
+      <c r="I40" s="91">
         <v>2</v>
       </c>
-      <c r="P40" s="109">
+      <c r="P40" s="91">
         <v>3</v>
       </c>
-      <c r="U40" s="109">
+      <c r="U40" s="91">
         <v>4</v>
       </c>
-      <c r="AB40" s="109">
+      <c r="AB40" s="91">
         <v>5</v>
       </c>
-      <c r="AI40" s="109">
+      <c r="AI40" s="91">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="90" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="90"/>
+      <c r="P41" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q41" s="90"/>
+      <c r="U41" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB41" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI41" s="90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C42" s="90" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="90" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" s="90"/>
+      <c r="P42" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="J41" s="108"/>
-      <c r="P41" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q41" s="108"/>
-      <c r="U41" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB41" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI41" s="108" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C42" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="I42" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="J42" s="108"/>
-      <c r="P42" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q42" s="108"/>
-      <c r="U42" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB42" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI42" s="108" t="s">
-        <v>223</v>
+      <c r="Q42" s="90"/>
+      <c r="U42" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB42" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI42" s="90" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5654,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView topLeftCell="H8" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="260" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5670,39 +5974,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="131"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="68"/>
-      <c r="H9" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="82"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="54"/>
+      <c r="H9" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="68"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="111" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5710,23 +6014,23 @@
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="L12" s="90" t="s">
+      <c r="H12" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="L12" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="O12" s="90" t="s">
+      <c r="M12" s="54"/>
+      <c r="O12" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="R12" s="90" t="s">
+      <c r="P12" s="54"/>
+      <c r="R12" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="68"/>
+      <c r="S12" s="54"/>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
@@ -5737,28 +6041,28 @@
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="111" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5772,22 +6076,22 @@
       <c r="J15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="L15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="O15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" s="27" t="s">
+      <c r="O15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5801,142 +6105,157 @@
       <c r="J16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="L16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="O16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="34" t="s">
+      <c r="O16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="118" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="O17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="R17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="30" t="s">
+      <c r="O17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="117" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
-        <v>15</v>
+      <c r="C18" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="29" t="s">
+      <c r="O18" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="R19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>14</v>
+        <v>290</v>
+      </c>
+      <c r="L19" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="148" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="107" t="s">
-        <v>195</v>
+      <c r="C20" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="R20" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
@@ -5944,21 +6263,21 @@
         <v>79</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="L25" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>106</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
@@ -5969,7 +6288,7 @@
         <v>109</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
@@ -5989,18 +6308,18 @@
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="55" t="s">
         <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="55" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6024,57 +6343,57 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C39" s="109">
+      <c r="C39" s="91">
         <v>7</v>
       </c>
-      <c r="H39" s="109">
-        <v>14</v>
-      </c>
-      <c r="L39" s="109">
+      <c r="H39" s="91">
+        <v>14</v>
+      </c>
+      <c r="L39" s="91">
         <v>11</v>
       </c>
-      <c r="O39" s="109">
+      <c r="O39" s="91">
         <v>9</v>
       </c>
-      <c r="R39" s="109">
+      <c r="R39" s="91">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="O40" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="H40" s="108" t="s">
-        <v>226</v>
-      </c>
-      <c r="L40" s="108" t="s">
-        <v>219</v>
-      </c>
-      <c r="O40" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="R40" s="108" t="s">
-        <v>220</v>
+      <c r="R40" s="90" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="108" t="s">
+      <c r="H41" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="108" t="s">
+      <c r="L41" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="O41" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="R41" s="108" t="s">
+      <c r="O41" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="R41" s="90" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6529,50 +6848,50 @@
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D119" s="55" t="s">
+      <c r="D119" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E119" s="47" t="s">
+      <c r="E119" s="38" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E120" s="52" t="s">
+      <c r="E120" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="53" t="s">
+      <c r="D121" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E121" s="58" t="s">
+      <c r="E121" s="48" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="53" t="s">
+      <c r="D122" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E122" s="58" t="s">
+      <c r="E122" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="52" t="s">
+      <c r="D123" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E123" s="59" t="s">
+      <c r="E123" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E124" s="60" t="s">
+      <c r="E124" s="50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6599,7 +6918,7 @@
       <c r="C132" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="44" t="s">
+      <c r="D132" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6610,7 +6929,7 @@
       <c r="C133" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="45" t="s">
+      <c r="D133" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="33" t="s">
@@ -6624,7 +6943,7 @@
       <c r="C134" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="45" t="s">
+      <c r="D134" s="36" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6635,7 +6954,7 @@
       <c r="C135" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D135" s="45" t="s">
+      <c r="D135" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6646,7 +6965,7 @@
       <c r="C136" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D136" s="46" t="s">
+      <c r="D136" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6705,7 +7024,7 @@
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="50" t="s">
+      <c r="C152" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="20" t="s">
@@ -6749,7 +7068,7 @@
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="17" t="s">
@@ -6769,17 +7088,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD46"/>
+  <dimension ref="A3:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44:Z46"/>
+    <sheetView topLeftCell="K14" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="260" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="8" style="1"/>
+    <col min="1" max="13" width="8" style="1"/>
+    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
-    <col min="16" max="20" width="8" style="1"/>
+    <col min="16" max="17" width="8" style="1"/>
+    <col min="18" max="18" width="6.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8" style="1"/>
     <col min="21" max="21" width="13.1640625" style="1" customWidth="1"/>
     <col min="22" max="27" width="8" style="1"/>
     <col min="28" max="28" width="2.5" style="1" customWidth="1"/>
@@ -6787,924 +7109,933 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115"/>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="H4" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+    </row>
+    <row r="9" spans="3:30" ht="26" x14ac:dyDescent="0.3">
+      <c r="C9" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="L9" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" s="59"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+    </row>
+    <row r="12" spans="3:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="C12" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="131"/>
-    </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="H4" s="132" t="s">
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="P12" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="V12" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Z12" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C13" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C14" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="45">
+        <v>1</v>
+      </c>
+      <c r="L14" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-    </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-    </row>
-    <row r="9" spans="3:30" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="L9" s="112" t="s">
-        <v>244</v>
-      </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="68"/>
-    </row>
-    <row r="12" spans="3:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="C12" s="92" t="s">
+      <c r="P14" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="S14" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="L12" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="P12" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="V12" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Z12" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-    </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C14" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="55">
-        <v>90</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="55">
-        <v>1</v>
-      </c>
-      <c r="L14" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="S14" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="V14" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z14" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC14" s="92" t="s">
-        <v>185</v>
+      <c r="V14" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC14" s="76" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C15" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="56" t="s">
+      <c r="C15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="56">
-        <v>76</v>
+      <c r="E15" s="36" t="s">
+        <v>2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="56">
+      <c r="H15" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="T15" s="4" t="s">
+      <c r="S15" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="V15" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="Z15" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="AA15" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="X15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AC15" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AD15" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD15" s="51" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="56">
-        <v>21</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="56" t="s">
+      <c r="I16" s="47">
+        <v>10</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="45">
+        <v>1</v>
+      </c>
+      <c r="V16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="45">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC16" s="158" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD16" s="137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C17" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="56">
-        <v>10</v>
-      </c>
-      <c r="L16" s="55" t="s">
+      <c r="E17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="55" t="s">
+      <c r="M17" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="Q16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="S16" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="T16" s="55">
-        <v>1</v>
-      </c>
-      <c r="V16" s="55" t="s">
+      <c r="Q17" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="X16" s="55">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="55" t="s">
+      <c r="W17" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AA16" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC16" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD16" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C17" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="57">
-        <v>34</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="57">
-        <v>3</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="T17" s="56">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="W17" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="X17" s="56">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z17" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA17" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC17" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD17" s="59" t="s">
-        <v>74</v>
+      <c r="AA17" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD17" s="49" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="58" t="s">
-        <v>71</v>
+      <c r="C18" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="L18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="155" t="s">
+        <v>27</v>
       </c>
       <c r="R18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="S18" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="T18" s="56">
+      <c r="S18" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="46">
         <v>10</v>
       </c>
-      <c r="V18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="W18" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="X18" s="56">
+      <c r="V18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="155" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="46">
         <v>10</v>
       </c>
-      <c r="Z18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA18" s="58" t="s">
-        <v>71</v>
+      <c r="Z18" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="155" t="s">
+        <v>27</v>
       </c>
       <c r="AB18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AC18" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD18" s="60" t="s">
-        <v>74</v>
+      <c r="AC18" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="160" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="S19" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" s="57">
+      <c r="L19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="152" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="47">
         <v>3</v>
       </c>
-      <c r="V19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="X19" s="56">
+      <c r="V19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="156" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" s="156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C20" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="L20" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="X20" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z19" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" s="58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C20" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="L20" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="V20" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="W20" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="X20" s="56">
+      <c r="Z20" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA20" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C21" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="145"/>
+      <c r="L21" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="46">
         <v>10</v>
       </c>
-      <c r="Z20" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA20" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="W21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="X21" s="57">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA21" s="60" t="s">
-        <v>74</v>
+      <c r="Z21" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA21" s="151" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="D22" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="41" t="s">
+      <c r="B22" s="143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="96" t="s">
+      <c r="L22" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="M22" s="152" t="s">
+        <v>290</v>
+      </c>
+      <c r="P22" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q22" s="152" t="s">
+        <v>290</v>
+      </c>
+      <c r="V22" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="W22" s="152" t="s">
+        <v>290</v>
+      </c>
+      <c r="X22" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z22" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA22" s="152" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C23" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23" s="35">
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="96" t="s">
+      <c r="O23" s="79" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B23" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="55" t="s">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C24" s="127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="55">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F23" s="55">
-        <v>1.3</v>
-      </c>
-      <c r="G23" s="55">
-        <v>1.3</v>
-      </c>
-      <c r="L23" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="P23" s="92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C24" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="56">
+      <c r="F24" s="36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G24" s="56">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>95</v>
+      <c r="L24" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="76" t="s">
+        <v>176</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>147</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="56">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F25" s="56" t="s">
+      <c r="E25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="F25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25" s="21" t="s">
+      <c r="L25" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="N25" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="127" t="s">
+        <v>290</v>
+      </c>
+      <c r="S25" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z25" s="76"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L26" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q25" s="21" t="s">
+      <c r="N26" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="S25" s="18" t="s">
+      <c r="R26" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="S26" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="92"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C26" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="57">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" s="22" t="s">
+      <c r="V26" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L27" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q26" s="22" t="s">
+      <c r="N27" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="6" t="s">
+      <c r="R27" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="S27" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="15" t="s">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="15" t="s">
+      <c r="N28" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="P28" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="6" t="s">
+      <c r="R28" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="S28" s="46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L28" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" s="20" t="s">
+      <c r="V28" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L29" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q28" s="20" t="s">
+      <c r="N29" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="P29" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="S28" s="12" t="s">
+      <c r="R29" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="S29" s="136" t="s">
         <v>23</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L29" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="24" t="s">
+      <c r="N30" s="157" t="s">
+        <v>290</v>
+      </c>
+      <c r="P30" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="R30" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>22</v>
+      <c r="R30" s="157" t="s">
+        <v>290</v>
+      </c>
+      <c r="S30" s="46" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="L31" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="133" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="P31" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="133" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="S31" s="46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="N32" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q32" s="17" t="s">
+      <c r="N32" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="P32" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="R32" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="S32" s="7" t="s">
+      <c r="R32" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="S32" s="46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="L33" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="P33" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="S33" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N36" s="1" t="s">
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="N37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q36" s="82"/>
-    </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="Q37" s="82"/>
+      <c r="Q37" s="68"/>
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N38" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q38" s="68"/>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="N39" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="O38" s="69"/>
-      <c r="P38" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q38" s="82"/>
-    </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="N39" s="82" t="s">
+      <c r="O39" s="55"/>
+      <c r="P39" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q39" s="68"/>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="N40" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="O39" s="69"/>
-      <c r="P39" s="92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="N40" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="O40" s="69"/>
-    </row>
-    <row r="42" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="N42" s="1" t="s">
-        <v>241</v>
+      <c r="O40" s="55"/>
+      <c r="P40" s="76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="N41" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="O41" s="55"/>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="N43" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C44" s="109">
-        <v>13</v>
-      </c>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="110">
+      <c r="C44" s="91">
+        <v>13</v>
+      </c>
+      <c r="V44" s="91">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C45" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="92">
         <v>11</v>
       </c>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="91"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="91"/>
-      <c r="V44" s="109">
-        <v>15</v>
-      </c>
-      <c r="Z44" s="109">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C45" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="111" t="s">
-        <v>219</v>
-      </c>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="V45" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z45" s="108" t="s">
-        <v>228</v>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="V45" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z45" s="90" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="O46" s="108" t="s">
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="93" t="s">
+        <v>215</v>
+      </c>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="V46" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="V46" s="108" t="s">
+      <c r="Z46" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="Z46" s="108" t="s">
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="O47" s="90" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7722,37 +8053,37 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>291</v>
+      <c r="B14" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="109">
+      <c r="B15" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="91">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="108" t="s">
-        <v>228</v>
+      <c r="H16" s="90" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="90" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7789,50 +8120,50 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="61" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A20" s="82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
-        <v>230</v>
+      <c r="A46" s="82" t="s">
+        <v>226</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" s="91" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7843,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:CW45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7855,315 +8186,315 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:101" ht="26" x14ac:dyDescent="0.3">
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="68"/>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="68"/>
-      <c r="AR7" s="68"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="82"/>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="82"/>
-      <c r="AZ7" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="68"/>
-      <c r="BS7" s="68"/>
-      <c r="BT7" s="68"/>
-      <c r="BW7" s="68"/>
-      <c r="BX7" s="68"/>
-      <c r="BY7" s="68"/>
-      <c r="BZ7" s="68"/>
-      <c r="CA7" s="68"/>
-      <c r="CB7" s="73" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="59"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AZ7" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="54"/>
+      <c r="BE7" s="54"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="54"/>
+      <c r="BI7" s="54"/>
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="54"/>
+      <c r="BM7" s="54"/>
+      <c r="BN7" s="54"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="54"/>
+      <c r="BQ7" s="54"/>
+      <c r="BR7" s="54"/>
+      <c r="BS7" s="54"/>
+      <c r="BT7" s="54"/>
+      <c r="BW7" s="54"/>
+      <c r="BX7" s="54"/>
+      <c r="BY7" s="54"/>
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="54"/>
+      <c r="CB7" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="CC7" s="68"/>
-      <c r="CD7" s="68"/>
-      <c r="CE7" s="68"/>
-      <c r="CF7" s="68"/>
-      <c r="CG7" s="68"/>
-      <c r="CH7" s="82"/>
-      <c r="CJ7" s="68"/>
-      <c r="CK7" s="73" t="s">
+      <c r="CC7" s="54"/>
+      <c r="CD7" s="54"/>
+      <c r="CE7" s="54"/>
+      <c r="CF7" s="54"/>
+      <c r="CG7" s="54"/>
+      <c r="CH7" s="68"/>
+      <c r="CJ7" s="54"/>
+      <c r="CK7" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="CL7" s="68"/>
-      <c r="CM7" s="68"/>
-      <c r="CN7" s="68"/>
+      <c r="CL7" s="54"/>
+      <c r="CM7" s="54"/>
+      <c r="CN7" s="54"/>
     </row>
     <row r="11" spans="4:101" ht="26" x14ac:dyDescent="0.3">
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="X11" s="67" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="X11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="68"/>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="68"/>
-      <c r="AO11" s="67" t="s">
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AO11" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="68"/>
-      <c r="AW11" s="68"/>
-      <c r="AZ11" s="67" t="s">
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AZ11" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="68"/>
-      <c r="BG11" s="68"/>
-      <c r="BI11" s="67" t="s">
+      <c r="BA11" s="54"/>
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="54"/>
+      <c r="BE11" s="54"/>
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="54"/>
+      <c r="BI11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="BJ11" s="68"/>
-      <c r="BK11" s="68"/>
-      <c r="BL11" s="68"/>
-      <c r="BM11" s="68"/>
-      <c r="BN11" s="68"/>
-      <c r="BO11" s="68"/>
-      <c r="BP11" s="68"/>
-      <c r="BR11" s="67" t="s">
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="54"/>
+      <c r="BL11" s="54"/>
+      <c r="BM11" s="54"/>
+      <c r="BN11" s="54"/>
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="54"/>
+      <c r="BR11" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="BS11" s="68"/>
-      <c r="BT11" s="68"/>
-      <c r="BW11" s="67" t="s">
+      <c r="BS11" s="54"/>
+      <c r="BT11" s="54"/>
+      <c r="BW11" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="BX11" s="68"/>
-      <c r="BY11" s="68"/>
-      <c r="CA11" s="67" t="s">
+      <c r="BX11" s="54"/>
+      <c r="BY11" s="54"/>
+      <c r="CA11" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="CB11" s="68"/>
-      <c r="CC11" s="68"/>
-      <c r="CE11" s="67" t="s">
+      <c r="CB11" s="54"/>
+      <c r="CC11" s="54"/>
+      <c r="CE11" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="CF11" s="68"/>
-      <c r="CG11" s="68"/>
-      <c r="CH11" s="82"/>
-      <c r="CJ11" s="67" t="s">
+      <c r="CF11" s="54"/>
+      <c r="CG11" s="54"/>
+      <c r="CH11" s="68"/>
+      <c r="CJ11" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="CK11" s="68"/>
-      <c r="CL11" s="68"/>
-      <c r="CO11" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="CP11" s="68"/>
-      <c r="CQ11" s="68"/>
+      <c r="CK11" s="54"/>
+      <c r="CL11" s="54"/>
+      <c r="CO11" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="CP11" s="54"/>
+      <c r="CQ11" s="54"/>
     </row>
     <row r="13" spans="4:101" x14ac:dyDescent="0.2">
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AO13" s="114" t="s">
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+      <c r="AO13" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="AP13" s="86" t="s">
+      <c r="AP13" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="AQ13" s="86" t="s">
+      <c r="AQ13" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="AZ13" s="114" t="s">
+      <c r="AZ13" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="BA13" s="86" t="s">
+      <c r="BA13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BB13" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC13" s="114" t="s">
+      <c r="BB13" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC13" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="84"/>
-      <c r="BG13" s="84"/>
-      <c r="BI13" s="114" t="s">
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BI13" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="BJ13" s="86" t="s">
+      <c r="BJ13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BK13" s="86" t="s">
+      <c r="BK13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BL13" s="114" t="s">
+      <c r="BL13" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="84"/>
-      <c r="BO13" s="84"/>
-      <c r="BP13" s="84"/>
-      <c r="BR13" s="114" t="s">
+      <c r="BM13" s="70"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="70"/>
+      <c r="BP13" s="70"/>
+      <c r="BR13" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="BS13" s="86" t="s">
+      <c r="BS13" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="BT13" s="86" t="s">
+      <c r="BT13" s="72" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
-      <c r="D14" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="M14" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="X14" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AF14" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
+      <c r="D14" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="M14" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="X14" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AF14" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="70"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="70"/>
       <c r="AO14" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AP14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AQ14" s="44" t="s">
+      <c r="AQ14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AZ14" s="27" t="s">
@@ -8173,15 +8504,15 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="84"/>
-      <c r="BF14" s="84"/>
-      <c r="BG14" s="84"/>
+      <c r="BD14" s="70"/>
+      <c r="BE14" s="70"/>
+      <c r="BF14" s="70"/>
+      <c r="BG14" s="70"/>
       <c r="BI14" s="27" t="s">
         <v>13</v>
       </c>
@@ -8194,108 +8525,108 @@
       <c r="BL14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="84"/>
-      <c r="BO14" s="84"/>
-      <c r="BP14" s="84"/>
+      <c r="BM14" s="70"/>
+      <c r="BN14" s="70"/>
+      <c r="BO14" s="70"/>
+      <c r="BP14" s="70"/>
       <c r="BR14" s="27" t="s">
         <v>13</v>
       </c>
       <c r="BS14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="BT14" s="44" t="s">
+      <c r="BT14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="BW14" s="114" t="s">
+      <c r="BW14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="BX14" s="114" t="s">
+      <c r="BX14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="BY14" s="86" t="s">
+      <c r="BY14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CA14" s="114" t="s">
+      <c r="CA14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="CB14" s="114" t="s">
+      <c r="CB14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="CC14" s="86" t="s">
+      <c r="CC14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CE14" s="114" t="s">
+      <c r="CE14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="CF14" s="114" t="s">
+      <c r="CF14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="CG14" s="86" t="s">
+      <c r="CG14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CJ14" s="114" t="s">
+      <c r="CJ14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="CK14" s="114" t="s">
+      <c r="CK14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="CL14" s="86" t="s">
+      <c r="CL14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CM14" s="86" t="s">
+      <c r="CM14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="CO14" s="114" t="s">
+      <c r="CO14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="CP14" s="114" t="s">
+      <c r="CP14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="CQ14" s="86" t="s">
+      <c r="CQ14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CR14" s="86" t="s">
+      <c r="CR14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="CT14" s="114" t="s">
+      <c r="CT14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="CU14" s="114" t="s">
+      <c r="CU14" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="CV14" s="86" t="s">
+      <c r="CV14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CW14" s="86" t="s">
+      <c r="CW14" s="72" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="4:101" x14ac:dyDescent="0.2">
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
       <c r="AO15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="AP15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AQ15" s="45" t="s">
+      <c r="AQ15" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AZ15" s="29" t="s">
@@ -8305,15 +8636,15 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BD15" s="84"/>
-      <c r="BE15" s="84"/>
-      <c r="BF15" s="84"/>
-      <c r="BG15" s="84"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="70"/>
+      <c r="BF15" s="70"/>
+      <c r="BG15" s="70"/>
       <c r="BI15" s="29" t="s">
         <v>13</v>
       </c>
@@ -8326,17 +8657,17 @@
       <c r="BL15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="84"/>
-      <c r="BO15" s="84"/>
-      <c r="BP15" s="84"/>
+      <c r="BM15" s="70"/>
+      <c r="BN15" s="70"/>
+      <c r="BO15" s="70"/>
+      <c r="BP15" s="70"/>
       <c r="BR15" s="29" t="s">
         <v>13</v>
       </c>
       <c r="BS15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="BT15" s="45" t="s">
+      <c r="BT15" s="36" t="s">
         <v>2</v>
       </c>
       <c r="BW15" s="29" t="s">
@@ -8404,34 +8735,34 @@
       </c>
     </row>
     <row r="16" spans="4:101" x14ac:dyDescent="0.2">
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="70"/>
+      <c r="AM16" s="70"/>
       <c r="AO16" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AP16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AQ16" s="45" t="s">
+      <c r="AQ16" s="36" t="s">
         <v>38</v>
       </c>
       <c r="AZ16" s="30" t="s">
@@ -8441,15 +8772,15 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BD16" s="84"/>
-      <c r="BE16" s="84"/>
-      <c r="BF16" s="84"/>
-      <c r="BG16" s="84"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="70"/>
       <c r="BI16" s="30" t="s">
         <v>14</v>
       </c>
@@ -8462,17 +8793,17 @@
       <c r="BL16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="84"/>
-      <c r="BO16" s="84"/>
-      <c r="BP16" s="84"/>
+      <c r="BM16" s="70"/>
+      <c r="BN16" s="70"/>
+      <c r="BO16" s="70"/>
+      <c r="BP16" s="70"/>
       <c r="BR16" s="30" t="s">
         <v>14</v>
       </c>
       <c r="BS16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BT16" s="45" t="s">
+      <c r="BT16" s="36" t="s">
         <v>38</v>
       </c>
       <c r="BW16" s="29" t="s">
@@ -8493,7 +8824,7 @@
       <c r="CC16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CE16" s="36" t="s">
+      <c r="CE16" s="34" t="s">
         <v>14</v>
       </c>
       <c r="CF16" s="7">
@@ -8540,72 +8871,72 @@
       </c>
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
-      <c r="D17" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="68"/>
-      <c r="H17" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="I17" s="120"/>
-      <c r="J17" s="68"/>
-      <c r="M17" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="N17" s="120"/>
-      <c r="Q17" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="R17" s="120"/>
-      <c r="X17" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="68"/>
-      <c r="AB17" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="74" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG17" s="120"/>
-      <c r="AH17" s="68"/>
-      <c r="AJ17" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK17" s="120"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="84"/>
-      <c r="AO17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP17" s="70" t="s">
+      <c r="D17" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="102"/>
+      <c r="F17" s="54"/>
+      <c r="H17" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="102"/>
+      <c r="J17" s="54"/>
+      <c r="M17" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" s="102"/>
+      <c r="Q17" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="R17" s="102"/>
+      <c r="X17" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="54"/>
+      <c r="AB17" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="54"/>
+      <c r="AJ17" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="70"/>
+      <c r="AO17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AQ17" s="46" t="s">
+      <c r="AQ17" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AZ17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA17" s="71" t="s">
+      <c r="AZ17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA17" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="BB17" s="71" t="s">
-        <v>255</v>
+      <c r="BB17" s="57" t="s">
+        <v>251</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BD17" s="84"/>
-      <c r="BE17" s="84"/>
-      <c r="BF17" s="84"/>
-      <c r="BG17" s="84"/>
-      <c r="BI17" s="36" t="s">
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="70"/>
+      <c r="BF17" s="70"/>
+      <c r="BG17" s="70"/>
+      <c r="BI17" s="34" t="s">
         <v>14</v>
       </c>
       <c r="BJ17" s="17" t="s">
@@ -8617,17 +8948,17 @@
       <c r="BL17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="84"/>
-      <c r="BO17" s="84"/>
-      <c r="BP17" s="84"/>
-      <c r="BR17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="BS17" s="70" t="s">
+      <c r="BM17" s="70"/>
+      <c r="BN17" s="70"/>
+      <c r="BO17" s="70"/>
+      <c r="BP17" s="70"/>
+      <c r="BR17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS17" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="BT17" s="46" t="s">
+      <c r="BT17" s="37" t="s">
         <v>6</v>
       </c>
       <c r="BW17" s="29" t="s">
@@ -8689,14 +9020,14 @@
       <c r="AO18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AP18" s="49" t="s">
+      <c r="AP18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="BI18" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="BR18" s="107" t="s">
-        <v>256</v>
+      <c r="BI18" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="BR18" s="89" t="s">
+        <v>252</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -8717,7 +9048,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -8745,52 +9076,52 @@
       </c>
     </row>
     <row r="19" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X19" s="114" t="s">
+      <c r="X19" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="Y19" s="86" t="s">
+      <c r="Y19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="Z19" s="114" t="s">
+      <c r="Z19" s="96" t="s">
         <v>95</v>
       </c>
       <c r="AB19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AC19" s="94" t="s">
+      <c r="AC19" s="78" t="s">
         <v>96</v>
       </c>
       <c r="AD19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AF19" s="114" t="s">
+      <c r="AF19" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="AG19" s="86" t="s">
+      <c r="AG19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AH19" s="114" t="s">
+      <c r="AH19" s="96" t="s">
         <v>95</v>
       </c>
       <c r="AJ19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AK19" s="94" t="s">
+      <c r="AK19" s="78" t="s">
         <v>96</v>
       </c>
       <c r="AL19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AP19" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ19" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR19" s="117" t="s">
+      <c r="AP19" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ19" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR19" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="BW19" s="36" t="s">
+      <c r="BW19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="BX19" s="7" t="s">
@@ -8799,7 +9130,7 @@
       <c r="BY19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CA19" s="36" t="s">
+      <c r="CA19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="CB19" s="7">
@@ -8808,7 +9139,7 @@
       <c r="CC19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CO19" s="36" t="s">
+      <c r="CO19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="CP19" s="7" t="s">
@@ -8820,7 +9151,7 @@
       <c r="CR19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="CT19" s="36" t="s">
+      <c r="CT19" s="34" t="s">
         <v>14</v>
       </c>
       <c r="CU19" s="6">
@@ -8834,19 +9165,19 @@
       </c>
     </row>
     <row r="20" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="96" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="94" t="s">
+      <c r="I20" s="78" t="s">
         <v>96</v>
       </c>
       <c r="J20" s="18" t="s">
@@ -8855,7 +9186,7 @@
       <c r="M20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="94" t="s">
+      <c r="N20" s="78" t="s">
         <v>96</v>
       </c>
       <c r="O20" s="18" t="s">
@@ -8864,7 +9195,7 @@
       <c r="Q20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R20" s="94" t="s">
+      <c r="R20" s="78" t="s">
         <v>96</v>
       </c>
       <c r="S20" s="18" t="s">
@@ -8906,26 +9237,26 @@
       <c r="AL20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AN20" s="48" t="s">
+      <c r="AN20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AO20" s="115" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP20" s="55" t="s">
+      <c r="AO20" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP20" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AQ20" s="44">
+      <c r="AQ20" s="35">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AR20" s="44">
+      <c r="AR20" s="35">
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,7 +9269,7 @@
       <c r="F21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="72"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="27" t="s">
         <v>13</v>
       </c>
@@ -8948,30 +9279,30 @@
       <c r="J21" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="121" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="121" t="s">
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="121" t="s">
+      <c r="O21" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="121" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="121" t="s">
+      <c r="P21" s="58"/>
+      <c r="Q21" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="S21" s="121" t="s">
+      <c r="S21" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
       <c r="X21" s="29" t="s">
         <v>13</v>
       </c>
@@ -9008,26 +9339,26 @@
       <c r="AL21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AO21" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP21" s="56">
+      <c r="AO21" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP21" s="46">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AQ21" s="45" t="s">
+      <c r="AQ21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AR21" s="45">
+      <c r="AR21" s="36">
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BC21" s="72"/>
-      <c r="BD21" s="72"/>
-      <c r="BE21" s="72"/>
-      <c r="BF21" s="72"/>
-      <c r="BG21" s="72"/>
+        <v>274</v>
+      </c>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
       <c r="BW21" s="1" t="s">
         <v>114</v>
       </c>
@@ -9035,7 +9366,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9057,22 +9388,22 @@
       <c r="J22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="122" t="s">
+      <c r="M22" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="122" t="s">
+      <c r="O22" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="122" t="s">
+      <c r="Q22" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="122">
+      <c r="S22" s="104">
         <v>12</v>
       </c>
       <c r="X22" s="30" t="s">
@@ -9096,8 +9427,8 @@
       <c r="AF22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AG22" s="127" t="s">
-        <v>274</v>
+      <c r="AG22" s="109" t="s">
+        <v>270</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9111,29 +9442,29 @@
       <c r="AL22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AO22" s="119" t="s">
+      <c r="AO22" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AP22" s="57">
+      <c r="AP22" s="47">
         <v>1.3</v>
       </c>
-      <c r="AQ22" s="46">
+      <c r="AQ22" s="37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AR22" s="46" t="s">
+      <c r="AR22" s="37" t="s">
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BW22" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="BW22" s="58" t="s">
         <v>120</v>
       </c>
       <c r="CA22" s="1" t="s">
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9155,25 +9486,25 @@
       <c r="J23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="O23" s="122" t="s">
+      <c r="M23" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="104" t="s">
+        <v>254</v>
+      </c>
+      <c r="O23" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="122" t="s">
+      <c r="Q23" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="122" t="s">
+      <c r="S23" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="X23" s="36" t="s">
+      <c r="X23" s="34" t="s">
         <v>14</v>
       </c>
       <c r="Y23" s="17" t="s">
@@ -9209,9 +9540,9 @@
       <c r="AL23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="BA23" s="72"/>
-      <c r="BB23" s="72"/>
-      <c r="BW23" s="72" t="s">
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="58"/>
+      <c r="BW23" s="58" t="s">
         <v>121</v>
       </c>
       <c r="CA23" s="1" t="s">
@@ -9219,10 +9550,10 @@
       </c>
     </row>
     <row r="24" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="36" t="s">
+      <c r="D24" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -9237,22 +9568,22 @@
       <c r="J24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="123" t="s">
+      <c r="M24" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="123" t="s">
+      <c r="O24" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="122" t="s">
-        <v>260</v>
-      </c>
-      <c r="S24" s="122" t="s">
+      <c r="Q24" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="S24" s="104" t="s">
         <v>2</v>
       </c>
       <c r="AB24" s="30" t="s">
@@ -9267,7 +9598,7 @@
       <c r="AF24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AG24" s="128" t="s">
+      <c r="AG24" s="110" t="s">
         <v>30</v>
       </c>
       <c r="AH24" s="6" t="s">
@@ -9277,13 +9608,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -9296,7 +9627,7 @@
       <c r="E25" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="124"/>
+      <c r="G25" s="106"/>
       <c r="H25" s="30" t="s">
         <v>14</v>
       </c>
@@ -9306,23 +9637,23 @@
       <c r="J25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="124"/>
-      <c r="M25" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="O25" s="123" t="s">
+      <c r="K25" s="106"/>
+      <c r="M25" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="O25" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="123" t="s">
+      <c r="Q25" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="S25" s="123" t="s">
+      <c r="S25" s="105" t="s">
         <v>5</v>
       </c>
       <c r="AB25" s="30" t="s">
@@ -9334,11 +9665,11 @@
       <c r="AD25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AF25" s="36" t="s">
+      <c r="AF25" s="34" t="s">
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -9347,13 +9678,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -9376,31 +9707,31 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="O26" s="123" t="s">
+      <c r="M26" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="123" t="s">
+      <c r="Q26" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="123" t="s">
+      <c r="S26" s="105" t="s">
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AB26" s="30" t="s">
         <v>14</v>
@@ -9421,7 +9752,7 @@
         <v>5</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9434,42 +9765,42 @@
       <c r="F27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="J27" s="36" t="s">
+      <c r="G27" s="70"/>
+      <c r="H27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="M27" s="125" t="s">
+      <c r="K27" s="70"/>
+      <c r="M27" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="N27" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="125" t="s">
+      <c r="O27" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="S27" s="123" t="s">
+      <c r="Q27" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="S27" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AB27" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC27" s="36" t="s">
+      <c r="AB27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AD27" s="36" t="s">
+      <c r="AD27" s="34" t="s">
         <v>6</v>
       </c>
       <c r="AJ27" s="30" t="s">
@@ -9482,11 +9813,11 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="7">
@@ -9495,34 +9826,34 @@
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="M28" s="125" t="s">
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="M28" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="125" t="s">
-        <v>260</v>
-      </c>
-      <c r="O28" s="125" t="s">
+      <c r="N28" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="S28" s="123" t="s">
+      <c r="Q28" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="S28" s="105" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AJ28" s="30" t="s">
         <v>14</v>
@@ -9534,34 +9865,34 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BY28" s="72" t="s">
-        <v>283</v>
+        <v>226</v>
+      </c>
+      <c r="BY28" s="58" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="M29" s="125" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="M29" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="125" t="s">
-        <v>258</v>
-      </c>
-      <c r="O29" s="125" t="s">
+      <c r="N29" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="123" t="s">
-        <v>258</v>
-      </c>
-      <c r="S29" s="123" t="s">
+      <c r="Q29" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="S29" s="105" t="s">
         <v>6</v>
       </c>
       <c r="AJ29" s="30" t="s">
@@ -9574,87 +9905,87 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="M30" s="126" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="M30" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="126" t="s">
-        <v>259</v>
-      </c>
-      <c r="O30" s="126" t="s">
+      <c r="N30" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="125" t="s">
+      <c r="Q30" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="125" t="s">
+      <c r="R30" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="S30" s="125" t="s">
+      <c r="S30" s="107" t="s">
         <v>5</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="Q31" s="125" t="s">
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="Q31" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="125" t="s">
-        <v>260</v>
-      </c>
-      <c r="S31" s="125" t="s">
+      <c r="R31" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="S31" s="107" t="s">
         <v>6</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AJ31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -9662,25 +9993,25 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q32" s="125" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q32" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="125" t="s">
-        <v>258</v>
-      </c>
-      <c r="S32" s="125" t="s">
+      <c r="R32" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="S32" s="107" t="s">
         <v>6</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>99</v>
@@ -9689,7 +10020,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -9699,42 +10030,42 @@
       </c>
     </row>
     <row r="33" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q33" s="125" t="s">
+      <c r="Q33" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="125" t="s">
-        <v>260</v>
-      </c>
-      <c r="S33" s="125" t="s">
+      <c r="R33" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="S33" s="107" t="s">
         <v>6</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AJ33" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK33" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL33" s="36" t="s">
+      <c r="AJ33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK33" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL33" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q34" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q34" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="126" t="s">
-        <v>258</v>
-      </c>
-      <c r="S34" s="126" t="s">
+      <c r="R34" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="S34" s="108" t="s">
         <v>6</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -9754,16 +10085,16 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9771,7 +10102,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -9779,21 +10110,21 @@
     </row>
     <row r="38" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BT39" s="113" t="s">
-        <v>249</v>
+        <v>264</v>
+      </c>
+      <c r="BT39" s="95" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -9803,7 +10134,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -9816,7 +10147,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="311">
   <si>
     <t>Variable 1</t>
   </si>
@@ -951,6 +951,33 @@
   </si>
   <si>
     <t>Leaf val</t>
+  </si>
+  <si>
+    <t>Weapon selling</t>
+  </si>
+  <si>
+    <t>World population</t>
+  </si>
+  <si>
+    <t>directed / weighted</t>
+  </si>
+  <si>
+    <t>directed / UNweighted</t>
+  </si>
+  <si>
+    <t>country immigration</t>
+  </si>
+  <si>
+    <t>undirected weighted</t>
+  </si>
+  <si>
+    <t>undirected Unweighted</t>
+  </si>
+  <si>
+    <t>Twitter connection of rstat and python people</t>
+  </si>
+  <si>
+    <t>Network of co publication?</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1593,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,6 +2016,9 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3768,8 +3798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="AA24" zoomScale="270" zoomScaleNormal="270" zoomScalePageLayoutView="270" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27:AH31"/>
+    <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
+      <selection activeCell="AF59" sqref="AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5096,7 +5126,7 @@
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D47" s="90" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="I47" s="90" t="s">
         <v>54</v>
@@ -5108,13 +5138,16 @@
         <v>54</v>
       </c>
       <c r="W47" s="90" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="AA47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="AE47" s="90" t="s">
-        <v>54</v>
+      <c r="AE47" s="161" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH47" s="90" t="s">
+        <v>309</v>
       </c>
       <c r="AL47" s="90"/>
       <c r="AM47" s="70"/>
@@ -5126,13 +5159,32 @@
       </c>
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="AE48" s="161" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="AM48" s="70"/>
     </row>
     <row r="49" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AM49" s="70"/>
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
+      <c r="AE50" s="161" t="s">
+        <v>307</v>
+      </c>
       <c r="AM50" s="70"/>
+    </row>
+    <row r="51" spans="26:39" x14ac:dyDescent="0.2">
+      <c r="AE51" s="161" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="26:39" x14ac:dyDescent="0.2">
+      <c r="AH53" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
       <c r="Z61" s="69"/>
@@ -8174,8 +8226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:CW45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="700" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="39140" yWindow="1180" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -3799,7 +3799,7 @@
   <dimension ref="C1:AY69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
-      <selection activeCell="AF59" sqref="AF59"/>
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39140" yWindow="1180" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="39560" yWindow="720" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="330">
   <si>
     <t>Variable 1</t>
   </si>
@@ -905,12 +905,6 @@
     <t>Baby. Names</t>
   </si>
   <si>
-    <t>17 Point map</t>
-  </si>
-  <si>
-    <t>18 bubble map</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -978,6 +972,69 @@
   </si>
   <si>
     <t>Network of co publication?</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>lat - from</t>
+  </si>
+  <si>
+    <t>lat - to</t>
+  </si>
+  <si>
+    <t>long - to</t>
+  </si>
+  <si>
+    <t>long - from</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>17 List of point</t>
+  </si>
+  <si>
+    <t>18 Point with value</t>
+  </si>
+  <si>
+    <t>gives dot map</t>
+  </si>
+  <si>
+    <t>chloropleth map</t>
+  </si>
+  <si>
+    <t>hexbin map</t>
+  </si>
+  <si>
+    <t>gives bubble</t>
+  </si>
+  <si>
+    <t>Region with value</t>
+  </si>
+  <si>
+    <t>Arm transfer</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1650,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2019,6 +2076,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3798,7 +3861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
@@ -3823,12 +3886,12 @@
   <sheetData>
     <row r="1" spans="3:51" x14ac:dyDescent="0.2">
       <c r="AU1" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="3:51" x14ac:dyDescent="0.2">
       <c r="AU2" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="3:51" ht="62" x14ac:dyDescent="0.7">
@@ -3846,27 +3909,27 @@
       <c r="AG3" s="63"/>
       <c r="AH3" s="66"/>
       <c r="AU3" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="3:51" x14ac:dyDescent="0.2">
       <c r="AU4" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="3:51" x14ac:dyDescent="0.2">
       <c r="AU5" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="3:51" x14ac:dyDescent="0.2">
       <c r="AU6" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="3:51" x14ac:dyDescent="0.2">
       <c r="AU7" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="3:51" ht="26" x14ac:dyDescent="0.3">
@@ -4039,7 +4102,7 @@
         <v>113</v>
       </c>
       <c r="AO17" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ17" s="127" t="s">
         <v>12</v>
@@ -4051,7 +4114,7 @@
         <v>113</v>
       </c>
       <c r="AT17" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AV17" s="127" t="s">
         <v>12</v>
@@ -4063,7 +4126,7 @@
         <v>113</v>
       </c>
       <c r="AY17" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.2">
@@ -4095,7 +4158,7 @@
         <v>7</v>
       </c>
       <c r="AO18" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ18" s="48" t="s">
         <v>13</v>
@@ -4107,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AV18" s="48" t="s">
         <v>13</v>
@@ -4119,7 +4182,7 @@
         <v>7</v>
       </c>
       <c r="AY18" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.2">
@@ -4154,7 +4217,7 @@
         <v>8</v>
       </c>
       <c r="AO19" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ19" s="48" t="s">
         <v>13</v>
@@ -4166,7 +4229,7 @@
         <v>8</v>
       </c>
       <c r="AT19" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AV19" s="117" t="s">
         <v>14</v>
@@ -4178,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="AY19" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.2">
@@ -4210,7 +4273,7 @@
         <v>9</v>
       </c>
       <c r="AO20" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ20" s="48" t="s">
         <v>13</v>
@@ -4222,7 +4285,7 @@
         <v>9</v>
       </c>
       <c r="AT20" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AV20" s="118" t="s">
         <v>15</v>
@@ -4234,21 +4297,21 @@
         <v>98</v>
       </c>
       <c r="AY20" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I21" s="117" t="s">
         <v>14</v>
@@ -4294,10 +4357,10 @@
         <v>95</v>
       </c>
       <c r="AE21" s="127" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF21" s="127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG21" s="127" t="s">
         <v>95</v>
@@ -4312,7 +4375,7 @@
         <v>10</v>
       </c>
       <c r="AO21" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ21" s="117" t="s">
         <v>14</v>
@@ -4324,19 +4387,19 @@
         <v>10</v>
       </c>
       <c r="AT21" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AW21" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AX21" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AY21" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.2">
@@ -4369,7 +4432,7 @@
         <v>13</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y22" s="78" t="s">
         <v>2</v>
@@ -4379,7 +4442,7 @@
         <v>13</v>
       </c>
       <c r="AB22" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AC22" s="45" t="s">
         <v>2</v>
@@ -4403,7 +4466,7 @@
         <v>10</v>
       </c>
       <c r="AO22" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ22" s="117" t="s">
         <v>14</v>
@@ -4415,15 +4478,15 @@
         <v>10</v>
       </c>
       <c r="AT22" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.2">
       <c r="I23" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O23" s="81" t="s">
         <v>13</v>
@@ -4448,7 +4511,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
@@ -4458,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AC23" s="46" t="s">
         <v>3</v>
@@ -4473,28 +4536,28 @@
         <v>2</v>
       </c>
       <c r="AL23" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AM23" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AN23" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO23" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AQ23" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AR23" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AS23" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AT23" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>126</v>
@@ -4527,7 +4590,7 @@
         <v>14</v>
       </c>
       <c r="X24" s="117" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>5</v>
@@ -4537,7 +4600,7 @@
         <v>13</v>
       </c>
       <c r="AB24" s="138" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC24" s="46" t="s">
         <v>4</v>
@@ -4579,7 +4642,7 @@
         <v>14</v>
       </c>
       <c r="X25" s="117" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y25" s="3">
         <v>3.2</v>
@@ -4589,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="AB25" s="131" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AC25" s="136" t="s">
         <v>23</v>
@@ -4618,13 +4681,13 @@
         <v>21</v>
       </c>
       <c r="O26" s="128" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S26" s="117" t="s">
         <v>14</v>
@@ -4636,19 +4699,19 @@
         <v>6</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA26" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AC26" s="46" t="s">
         <v>5</v>
@@ -4695,13 +4758,13 @@
         <v>14</v>
       </c>
       <c r="AB27" s="133" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
       <c r="AE27" s="145" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF27" s="145"/>
       <c r="AL27" s="58" t="s">
@@ -4719,25 +4782,25 @@
         <v>89</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA28" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
       <c r="AD28" s="143" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AE28" s="144"/>
       <c r="AF28" s="127" t="s">
@@ -4772,7 +4835,7 @@
         <v>14</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC29" s="47" t="s">
         <v>6</v>
@@ -5126,7 +5189,7 @@
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D47" s="90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I47" s="90" t="s">
         <v>54</v>
@@ -5138,16 +5201,16 @@
         <v>54</v>
       </c>
       <c r="W47" s="90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AA47" s="90" t="s">
         <v>54</v>
       </c>
       <c r="AE47" s="161" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AH47" s="90" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AL47" s="90"/>
       <c r="AM47" s="70"/>
@@ -5160,10 +5223,10 @@
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
       <c r="AE48" s="161" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AM48" s="70"/>
     </row>
@@ -5172,18 +5235,18 @@
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE50" s="161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM50" s="70"/>
     </row>
     <row r="51" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE51" s="161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AH53" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
@@ -5253,7 +5316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="268" zoomScaleNormal="268" zoomScalePageLayoutView="268" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5419,7 +5482,7 @@
         <v>144</v>
       </c>
       <c r="AG15" s="111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI15" s="111" t="s">
         <v>95</v>
@@ -5434,7 +5497,7 @@
         <v>144</v>
       </c>
       <c r="AM15" s="111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
@@ -5484,7 +5547,7 @@
         <v>7</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI16" s="6" t="s">
         <v>2</v>
@@ -5499,7 +5562,7 @@
         <v>7</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
@@ -5549,7 +5612,7 @@
         <v>8</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI17" s="6" t="s">
         <v>3</v>
@@ -5564,7 +5627,7 @@
         <v>8</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
@@ -5614,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI18" s="6" t="s">
         <v>4</v>
@@ -5629,7 +5692,7 @@
         <v>9</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
@@ -5679,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>5</v>
@@ -5694,72 +5757,72 @@
         <v>10</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="W20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Y20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Z20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AC20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AD20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AE20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AJ20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AK20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AL20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AM20" s="112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
@@ -5963,7 +6026,7 @@
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I42" s="90" t="s">
         <v>197</v>
@@ -5985,13 +6048,13 @@
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6010,8 +6073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="260" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6207,7 +6270,7 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>154</v>
@@ -6236,10 +6299,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="H19" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L19" s="117" t="s">
         <v>14</v>
@@ -6265,22 +6328,22 @@
         <v>191</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R20" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -6434,7 +6497,7 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="90" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="H41" s="90" t="s">
         <v>54</v>
@@ -7142,13 +7205,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="K14" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="260" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="8" style="1"/>
+    <col min="1" max="2" width="8" style="1"/>
+    <col min="3" max="6" width="5.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8" style="1"/>
     <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
     <col min="16" max="17" width="8" style="1"/>
@@ -7162,7 +7230,7 @@
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
       <c r="H3" s="113" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I3" s="114"/>
       <c r="J3" s="114"/>
@@ -7267,10 +7335,10 @@
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C13" s="127" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D13" s="127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E13" s="127" t="s">
         <v>95</v>
@@ -7352,7 +7420,7 @@
         <v>171</v>
       </c>
       <c r="T15" s="127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V15" s="127" t="s">
         <v>66</v>
@@ -7487,7 +7555,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C18" s="150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D18" s="150"/>
       <c r="E18" s="150"/>
@@ -7610,7 +7678,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21" s="145" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" s="145"/>
       <c r="L21" s="49" t="s">
@@ -7642,10 +7710,10 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="143" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="144"/>
+      <c r="B22" s="162" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="163"/>
       <c r="D22" s="127" t="s">
         <v>13</v>
       </c>
@@ -7655,32 +7723,38 @@
       <c r="F22" s="127" t="s">
         <v>15</v>
       </c>
+      <c r="H22" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="127" t="s">
+        <v>129</v>
+      </c>
       <c r="L22" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M22" s="152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="W22" s="152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA22" s="152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -7696,6 +7770,12 @@
       <c r="F23" s="35">
         <v>1.3</v>
       </c>
+      <c r="H23" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="45">
+        <v>1</v>
+      </c>
       <c r="K23" s="79" t="s">
         <v>42</v>
       </c>
@@ -7716,6 +7796,15 @@
       <c r="F24" s="36">
         <v>2.2000000000000002</v>
       </c>
+      <c r="G24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="46">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="L24" s="76" t="s">
         <v>176</v>
       </c>
@@ -7730,7 +7819,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="111" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -7742,6 +7831,12 @@
       <c r="F25" s="37" t="s">
         <v>32</v>
       </c>
+      <c r="H25" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="47">
+        <v>10</v>
+      </c>
       <c r="L25" s="127" t="s">
         <v>12</v>
       </c>
@@ -7749,7 +7844,7 @@
         <v>96</v>
       </c>
       <c r="N25" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P25" s="127" t="s">
         <v>12</v>
@@ -7758,10 +7853,10 @@
         <v>96</v>
       </c>
       <c r="R25" s="127" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S25" s="127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z25" s="76"/>
     </row>
@@ -7773,7 +7868,7 @@
         <v>27</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>13</v>
@@ -7782,7 +7877,7 @@
         <v>27</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>2</v>
@@ -7799,7 +7894,7 @@
         <v>27</v>
       </c>
       <c r="N27" s="136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P27" s="48" t="s">
         <v>13</v>
@@ -7808,7 +7903,7 @@
         <v>27</v>
       </c>
       <c r="R27" s="136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>3</v>
@@ -7822,7 +7917,7 @@
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>13</v>
@@ -7831,7 +7926,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S28" s="46" t="s">
         <v>4</v>
@@ -7848,7 +7943,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P29" s="131" t="s">
         <v>13</v>
@@ -7857,7 +7952,7 @@
         <v>28</v>
       </c>
       <c r="R29" s="135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S29" s="136" t="s">
         <v>23</v>
@@ -7874,7 +7969,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="157" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P30" s="117" t="s">
         <v>14</v>
@@ -7883,7 +7978,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="157" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S30" s="46" t="s">
         <v>5</v>
@@ -7900,7 +7995,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P31" s="117" t="s">
         <v>14</v>
@@ -7909,7 +8004,7 @@
         <v>29</v>
       </c>
       <c r="R31" s="136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S31" s="46" t="s">
         <v>22</v>
@@ -7926,7 +8021,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P32" s="117" t="s">
         <v>14</v>
@@ -7935,7 +8030,7 @@
         <v>30</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S32" s="46" t="s">
         <v>2</v>
@@ -7949,7 +8044,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P33" s="122" t="s">
         <v>14</v>
@@ -7958,7 +8053,7 @@
         <v>30</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S33" s="47" t="s">
         <v>6</v>
@@ -8096,47 +8191,256 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B14:H17"/>
+  <dimension ref="B6:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="19" width="9.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" style="1" customWidth="1"/>
+    <col min="21" max="22" width="9.83203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="90" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>314</v>
+      </c>
+      <c r="L6" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="M6" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="O6" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="P6" s="127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="45">
+        <v>48.8</v>
+      </c>
+      <c r="C7" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E7" s="45">
+        <v>48.8</v>
+      </c>
+      <c r="F7" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="45">
+        <v>48.8</v>
+      </c>
+      <c r="K7" s="35">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L7" s="45">
+        <v>-10.1</v>
+      </c>
+      <c r="M7" s="35">
+        <v>140</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="P7" s="35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="46">
+        <v>50.2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>12.9</v>
+      </c>
+      <c r="E8" s="46">
+        <v>50.2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>12.9</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="46">
+        <v>50.2</v>
+      </c>
+      <c r="K8" s="36">
+        <v>12.9</v>
+      </c>
+      <c r="L8" s="46">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="M8" s="36">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="P8" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="46">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="C9" s="36">
+        <v>-4.8</v>
+      </c>
+      <c r="E9" s="46">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F9" s="36">
+        <v>-4.8</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="46">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K9" s="36">
+        <v>-4.8</v>
+      </c>
+      <c r="L9" s="46">
+        <v>-12.3</v>
+      </c>
+      <c r="M9" s="36">
+        <v>123.8</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="P9" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="47">
+        <v>60.4</v>
+      </c>
+      <c r="C10" s="37">
+        <v>6</v>
+      </c>
+      <c r="E10" s="47">
+        <v>60.4</v>
+      </c>
+      <c r="F10" s="37">
+        <v>6</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="47">
+        <v>60.4</v>
+      </c>
+      <c r="K10" s="37">
+        <v>6</v>
+      </c>
+      <c r="L10" s="47">
+        <v>2.8</v>
+      </c>
+      <c r="M10" s="37">
+        <v>126</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="P10" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="J19" s="91">
+        <v>19</v>
+      </c>
+      <c r="O19" s="90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E20" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="H15" s="91">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="90" t="s">
+      <c r="J20" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="O20" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="90" t="s">
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="90" t="s">
+      <c r="E21" s="90" t="s">
         <v>54</v>
+      </c>
+      <c r="J21" s="90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39560" yWindow="720" windowWidth="37240" windowHeight="19220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2520" yWindow="2000" windowWidth="31840" windowHeight="17620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="335">
   <si>
     <t>Variable 1</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>story2numNoOrder</t>
-  </si>
-  <si>
-    <t>height men / women</t>
   </si>
   <si>
     <t>story2numOrder</t>
@@ -968,9 +965,6 @@
     <t>undirected Unweighted</t>
   </si>
   <si>
-    <t>Twitter connection of rstat and python people</t>
-  </si>
-  <si>
     <t>Network of co publication?</t>
   </si>
   <si>
@@ -1035,6 +1029,27 @@
   </si>
   <si>
     <t>Arm transfer</t>
+  </si>
+  <si>
+    <t>Rap Songs</t>
+  </si>
+  <si>
+    <t>Publication Network</t>
+  </si>
+  <si>
+    <t>Migration Flow</t>
+  </si>
+  <si>
+    <t>StoryNestedSeveralvalue</t>
+  </si>
+  <si>
+    <t>Perception of probability</t>
+  </si>
+  <si>
+    <t>bike / temperature ?</t>
+  </si>
+  <si>
+    <t>Twitter connection of #rstat</t>
   </si>
 </sst>
 </file>
@@ -3834,7 +3849,7 @@
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
@@ -3844,12 +3859,12 @@
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3859,10 +3874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AY69"/>
+  <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3884,16 +3899,6 @@
     <col min="52" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="AU1" s="127" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="AU2" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
     <row r="3" spans="3:51" ht="62" x14ac:dyDescent="0.7">
       <c r="X3" s="62"/>
       <c r="Y3" s="63"/>
@@ -3908,29 +3913,6 @@
       <c r="AF3" s="64"/>
       <c r="AG3" s="63"/>
       <c r="AH3" s="66"/>
-      <c r="AU3" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="AU4" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="AU5" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="AU6" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="AU7" s="37" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="9" spans="3:51" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="54"/>
@@ -3946,7 +3928,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="54"/>
       <c r="O9" s="73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
@@ -3970,7 +3952,7 @@
       <c r="AI9" s="54"/>
       <c r="AJ9" s="68"/>
       <c r="AL9" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
@@ -4053,22 +4035,22 @@
     </row>
     <row r="16" spans="3:51" ht="26" x14ac:dyDescent="0.3">
       <c r="O16" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="S16" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
       <c r="AA16" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
@@ -4102,7 +4084,7 @@
         <v>113</v>
       </c>
       <c r="AO17" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ17" s="127" t="s">
         <v>12</v>
@@ -4114,7 +4096,7 @@
         <v>113</v>
       </c>
       <c r="AT17" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV17" s="127" t="s">
         <v>12</v>
@@ -4126,7 +4108,7 @@
         <v>113</v>
       </c>
       <c r="AY17" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.2">
@@ -4158,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="AO18" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ18" s="48" t="s">
         <v>13</v>
@@ -4170,7 +4152,7 @@
         <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV18" s="48" t="s">
         <v>13</v>
@@ -4182,7 +4164,7 @@
         <v>7</v>
       </c>
       <c r="AY18" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.2">
@@ -4217,7 +4199,7 @@
         <v>8</v>
       </c>
       <c r="AO19" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ19" s="48" t="s">
         <v>13</v>
@@ -4229,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="AT19" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV19" s="117" t="s">
         <v>14</v>
@@ -4241,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="AY19" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.2">
@@ -4273,7 +4255,7 @@
         <v>9</v>
       </c>
       <c r="AO20" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ20" s="48" t="s">
         <v>13</v>
@@ -4285,7 +4267,7 @@
         <v>9</v>
       </c>
       <c r="AT20" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV20" s="118" t="s">
         <v>15</v>
@@ -4297,21 +4279,21 @@
         <v>98</v>
       </c>
       <c r="AY20" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I21" s="117" t="s">
         <v>14</v>
@@ -4357,10 +4339,10 @@
         <v>95</v>
       </c>
       <c r="AE21" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF21" s="127" t="s">
         <v>293</v>
-      </c>
-      <c r="AF21" s="127" t="s">
-        <v>294</v>
       </c>
       <c r="AG21" s="127" t="s">
         <v>95</v>
@@ -4375,7 +4357,7 @@
         <v>10</v>
       </c>
       <c r="AO21" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ21" s="117" t="s">
         <v>14</v>
@@ -4387,19 +4369,19 @@
         <v>10</v>
       </c>
       <c r="AT21" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AW21" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AX21" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AY21" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.2">
@@ -4432,7 +4414,7 @@
         <v>13</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y22" s="78" t="s">
         <v>2</v>
@@ -4442,7 +4424,7 @@
         <v>13</v>
       </c>
       <c r="AB22" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC22" s="45" t="s">
         <v>2</v>
@@ -4466,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="AO22" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ22" s="117" t="s">
         <v>14</v>
@@ -4478,21 +4460,21 @@
         <v>10</v>
       </c>
       <c r="AT22" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.2">
       <c r="I23" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O23" s="81" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
@@ -4511,7 +4493,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
@@ -4521,7 +4503,7 @@
         <v>13</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC23" s="46" t="s">
         <v>3</v>
@@ -4536,28 +4518,28 @@
         <v>2</v>
       </c>
       <c r="AL23" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM23" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AN23" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AO23" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ23" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AR23" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AS23" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AT23" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>126</v>
@@ -4581,7 +4563,7 @@
         <v>13</v>
       </c>
       <c r="T24" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U24" s="46" t="s">
         <v>4</v>
@@ -4590,7 +4572,7 @@
         <v>14</v>
       </c>
       <c r="X24" s="117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>5</v>
@@ -4600,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="AB24" s="138" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC24" s="46" t="s">
         <v>4</v>
@@ -4623,7 +4605,7 @@
         <v>14</v>
       </c>
       <c r="P25" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>6</v>
@@ -4642,7 +4624,7 @@
         <v>14</v>
       </c>
       <c r="X25" s="117" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y25" s="3">
         <v>3.2</v>
@@ -4652,7 +4634,7 @@
         <v>13</v>
       </c>
       <c r="AB25" s="131" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC25" s="136" t="s">
         <v>23</v>
@@ -4681,13 +4663,13 @@
         <v>21</v>
       </c>
       <c r="O26" s="128" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S26" s="117" t="s">
         <v>14</v>
@@ -4699,19 +4681,19 @@
         <v>6</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA26" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC26" s="46" t="s">
         <v>5</v>
@@ -4726,7 +4708,7 @@
         <v>140</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>109</v>
@@ -4749,7 +4731,7 @@
         <v>14</v>
       </c>
       <c r="T27" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U27" s="46" t="s">
         <v>5</v>
@@ -4758,13 +4740,13 @@
         <v>14</v>
       </c>
       <c r="AB27" s="133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
       <c r="AE27" s="145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF27" s="145"/>
       <c r="AL27" s="58" t="s">
@@ -4782,25 +4764,25 @@
         <v>89</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA28" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
       <c r="AD28" s="143" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE28" s="144"/>
       <c r="AF28" s="127" t="s">
@@ -4835,7 +4817,7 @@
         <v>14</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC29" s="47" t="s">
         <v>6</v>
@@ -4853,10 +4835,10 @@
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM29" s="95" t="s">
         <v>244</v>
-      </c>
-      <c r="AM29" s="95" t="s">
-        <v>245</v>
       </c>
       <c r="AQ29" s="1" t="s">
         <v>118</v>
@@ -4917,7 +4899,7 @@
         <v>32</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AV31" s="1" t="s">
         <v>104</v>
@@ -4937,10 +4919,10 @@
         <v>88</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AV32" s="1" t="s">
         <v>105</v>
@@ -4955,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>163</v>
@@ -4967,19 +4949,19 @@
         <v>24</v>
       </c>
       <c r="AA34" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN34" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV34" s="68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="4:48" x14ac:dyDescent="0.2">
@@ -4987,13 +4969,13 @@
         <v>25</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AV35" s="68"/>
     </row>
@@ -5008,10 +4990,10 @@
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF37" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG37" s="95"/>
     </row>
@@ -5033,7 +5015,7 @@
     </row>
     <row r="40" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O40" s="68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -5158,75 +5140,71 @@
     </row>
     <row r="46" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D46" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="I46" s="90" t="s">
-        <v>205</v>
-      </c>
       <c r="O46" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="S46" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="S46" s="90" t="s">
-        <v>209</v>
-      </c>
       <c r="W46" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA46" s="90" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE46" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="AA46" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE46" s="90" t="s">
-        <v>216</v>
+      <c r="AH46" s="90" t="s">
+        <v>334</v>
       </c>
       <c r="AL46" s="90"/>
       <c r="AM46" s="70"/>
       <c r="AQ46" s="90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AV46" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D47" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I47" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" s="90" t="s">
-        <v>207</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O47" s="90"/>
       <c r="S47" s="90" t="s">
         <v>54</v>
       </c>
       <c r="W47" s="90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA47" s="90" t="s">
         <v>54</v>
       </c>
       <c r="AE47" s="161" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH47" s="90" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL47" s="90"/>
       <c r="AM47" s="70"/>
       <c r="AQ47" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="AV47" s="90" t="s">
-        <v>207</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AV47" s="90"/>
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
       <c r="AE48" s="161" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH48" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="AM48" s="70"/>
     </row>
@@ -5235,18 +5213,18 @@
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE50" s="161" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM50" s="70"/>
     </row>
     <row r="51" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE51" s="161" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AH53" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
@@ -5316,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="Q5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5482,7 +5460,7 @@
         <v>144</v>
       </c>
       <c r="AG15" s="111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI15" s="111" t="s">
         <v>95</v>
@@ -5497,7 +5475,7 @@
         <v>144</v>
       </c>
       <c r="AM15" s="111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
@@ -5547,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI16" s="6" t="s">
         <v>2</v>
@@ -5562,7 +5540,7 @@
         <v>7</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
@@ -5612,7 +5590,7 @@
         <v>8</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI17" s="6" t="s">
         <v>3</v>
@@ -5627,7 +5605,7 @@
         <v>8</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
@@ -5677,7 +5655,7 @@
         <v>9</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI18" s="6" t="s">
         <v>4</v>
@@ -5692,7 +5670,7 @@
         <v>9</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
@@ -5742,7 +5720,7 @@
         <v>10</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>5</v>
@@ -5757,77 +5735,77 @@
         <v>10</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AK20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM20" s="112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
       <c r="H21" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I21" s="89"/>
       <c r="J21" s="89"/>
@@ -5921,7 +5899,7 @@
         <v>142</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5929,7 +5907,7 @@
         <v>57</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>59</v>
@@ -5978,7 +5956,7 @@
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN37" s="88"/>
     </row>
@@ -6011,50 +5989,53 @@
       </c>
       <c r="J41" s="90"/>
       <c r="P41" s="90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q41" s="90"/>
       <c r="U41" s="90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB41" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI41" s="90" t="s">
         <v>202</v>
-      </c>
-      <c r="AI41" s="90" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I42" s="90" t="s">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="J42" s="90"/>
       <c r="P42" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="90"/>
       <c r="U42" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB42" s="90" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI42" s="90" t="s">
         <v>218</v>
-      </c>
-      <c r="AB42" s="90" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI42" s="90" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6073,8 +6054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A17" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6105,7 +6086,7 @@
       <c r="D9" s="59"/>
       <c r="E9" s="54"/>
       <c r="H9" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I9" s="59"/>
       <c r="J9" s="54"/>
@@ -6157,10 +6138,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="111" t="s">
         <v>220</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>221</v>
       </c>
       <c r="L14" s="111" t="s">
         <v>95</v>
@@ -6270,7 +6251,7 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>154</v>
@@ -6299,10 +6280,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="H19" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L19" s="117" t="s">
         <v>14</v>
@@ -6328,22 +6309,22 @@
         <v>191</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R20" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -6427,7 +6408,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
@@ -6458,7 +6439,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
@@ -6480,33 +6461,33 @@
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="90" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H40" s="90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L40" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="O40" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="R40" s="90" t="s">
         <v>215</v>
-      </c>
-      <c r="O40" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="R40" s="90" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="90" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H41" s="90" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="L41" s="90" t="s">
         <v>54</v>
       </c>
       <c r="O41" s="90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R41" s="90" t="s">
         <v>54</v>
@@ -7205,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E17"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7230,7 +7211,7 @@
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
       <c r="H3" s="113" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I3" s="114"/>
       <c r="J3" s="114"/>
@@ -7280,7 +7261,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="L9" s="94" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="54"/>
@@ -7321,7 +7302,7 @@
       <c r="S12" s="54"/>
       <c r="T12" s="54"/>
       <c r="V12" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W12" s="54"/>
       <c r="X12" s="54"/>
@@ -7335,10 +7316,10 @@
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C13" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="127" t="s">
         <v>293</v>
-      </c>
-      <c r="D13" s="127" t="s">
-        <v>294</v>
       </c>
       <c r="E13" s="127" t="s">
         <v>95</v>
@@ -7420,7 +7401,7 @@
         <v>171</v>
       </c>
       <c r="T15" s="127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V15" s="127" t="s">
         <v>66</v>
@@ -7555,7 +7536,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C18" s="150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D18" s="150"/>
       <c r="E18" s="150"/>
@@ -7678,7 +7659,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21" s="145" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="145"/>
       <c r="L21" s="49" t="s">
@@ -7711,7 +7692,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B22" s="162" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C22" s="163"/>
       <c r="D22" s="127" t="s">
@@ -7730,31 +7711,31 @@
         <v>129</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M22" s="152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W22" s="152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AA22" s="152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -7844,7 +7825,7 @@
         <v>96</v>
       </c>
       <c r="N25" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P25" s="127" t="s">
         <v>12</v>
@@ -7853,10 +7834,10 @@
         <v>96</v>
       </c>
       <c r="R25" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S25" s="127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z25" s="76"/>
     </row>
@@ -7868,7 +7849,7 @@
         <v>27</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>13</v>
@@ -7877,7 +7858,7 @@
         <v>27</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>2</v>
@@ -7894,7 +7875,7 @@
         <v>27</v>
       </c>
       <c r="N27" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P27" s="48" t="s">
         <v>13</v>
@@ -7903,7 +7884,7 @@
         <v>27</v>
       </c>
       <c r="R27" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>3</v>
@@ -7917,7 +7898,7 @@
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>13</v>
@@ -7926,7 +7907,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S28" s="46" t="s">
         <v>4</v>
@@ -7943,7 +7924,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P29" s="131" t="s">
         <v>13</v>
@@ -7952,7 +7933,7 @@
         <v>28</v>
       </c>
       <c r="R29" s="135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S29" s="136" t="s">
         <v>23</v>
@@ -7969,7 +7950,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="157" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P30" s="117" t="s">
         <v>14</v>
@@ -7978,7 +7959,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="157" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S30" s="46" t="s">
         <v>5</v>
@@ -7995,7 +7976,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P31" s="117" t="s">
         <v>14</v>
@@ -8004,7 +7985,7 @@
         <v>29</v>
       </c>
       <c r="R31" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S31" s="46" t="s">
         <v>22</v>
@@ -8021,7 +8002,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P32" s="117" t="s">
         <v>14</v>
@@ -8030,7 +8011,7 @@
         <v>30</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S32" s="46" t="s">
         <v>2</v>
@@ -8044,7 +8025,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P33" s="122" t="s">
         <v>14</v>
@@ -8053,7 +8034,7 @@
         <v>30</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S33" s="47" t="s">
         <v>6</v>
@@ -8061,10 +8042,10 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -8083,7 +8064,7 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="68"/>
     </row>
@@ -8114,7 +8095,7 @@
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N43" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
@@ -8130,7 +8111,7 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C45" s="90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L45" s="75"/>
       <c r="M45" s="75"/>
@@ -8144,21 +8125,21 @@
       <c r="S45" s="75"/>
       <c r="T45" s="75"/>
       <c r="V45" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z45" s="90" t="s">
         <v>223</v>
-      </c>
-      <c r="Z45" s="90" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C46" s="90" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
       <c r="N46" s="68"/>
       <c r="O46" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
@@ -8173,8 +8154,11 @@
       </c>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="O47" s="90" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8208,37 +8192,37 @@
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G6" s="127" t="s">
         <v>129</v>
       </c>
       <c r="J6" s="127" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="L6" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="M6" s="127" t="s">
         <v>311</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="O6" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="P6" s="127" t="s">
         <v>314</v>
-      </c>
-      <c r="L6" s="127" t="s">
-        <v>312</v>
-      </c>
-      <c r="M6" s="127" t="s">
-        <v>313</v>
-      </c>
-      <c r="O6" s="127" t="s">
-        <v>315</v>
-      </c>
-      <c r="P6" s="127" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -8270,7 +8254,7 @@
         <v>140</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P7" s="35">
         <v>23</v>
@@ -8305,7 +8289,7 @@
         <v>142.30000000000001</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P8" s="36">
         <v>12</v>
@@ -8340,7 +8324,7 @@
         <v>123.8</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P9" s="36">
         <v>9</v>
@@ -8375,7 +8359,7 @@
         <v>126</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P10" s="37">
         <v>10</v>
@@ -8388,27 +8372,27 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J19" s="91">
         <v>19</v>
       </c>
       <c r="O19" s="90" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J20" s="90" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O20" s="90" t="s">
         <v>54</v>
@@ -8427,20 +8411,20 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -8492,31 +8476,31 @@
     <row r="28" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8592,7 +8576,7 @@
       <c r="AW7" s="68"/>
       <c r="AX7" s="68"/>
       <c r="AZ7" s="73" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
@@ -8734,7 +8718,7 @@
       <c r="CK11" s="54"/>
       <c r="CL11" s="54"/>
       <c r="CO11" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CP11" s="54"/>
       <c r="CQ11" s="54"/>
@@ -8777,7 +8761,7 @@
         <v>96</v>
       </c>
       <c r="BB13" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BC13" s="96" t="s">
         <v>95</v>
@@ -8814,12 +8798,12 @@
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E14" s="102"/>
       <c r="F14" s="102"/>
       <c r="M14" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
@@ -8830,12 +8814,12 @@
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
       <c r="X14" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Y14" s="102"/>
       <c r="Z14" s="102"/>
       <c r="AF14" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG14" s="102"/>
       <c r="AH14" s="102"/>
@@ -8860,7 +8844,7 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
@@ -8992,7 +8976,7 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
@@ -9128,7 +9112,7 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
@@ -9228,41 +9212,41 @@
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" s="102"/>
       <c r="F17" s="54"/>
       <c r="H17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I17" s="102"/>
       <c r="J17" s="54"/>
       <c r="M17" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N17" s="102"/>
       <c r="Q17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R17" s="102"/>
       <c r="X17" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y17" s="102"/>
       <c r="Z17" s="54"/>
       <c r="AB17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC17" s="102"/>
       <c r="AD17" s="54"/>
       <c r="AE17" s="70"/>
       <c r="AF17" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG17" s="102"/>
       <c r="AH17" s="54"/>
       <c r="AJ17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AK17" s="102"/>
       <c r="AL17" s="54"/>
@@ -9283,7 +9267,7 @@
         <v>103</v>
       </c>
       <c r="BB17" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
@@ -9380,10 +9364,10 @@
         <v>35</v>
       </c>
       <c r="BI18" s="89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BR18" s="89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -9404,7 +9388,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -9609,10 +9593,10 @@
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9708,7 +9692,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BC21" s="58"/>
       <c r="BD21" s="58"/>
@@ -9722,7 +9706,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9784,7 +9768,7 @@
         <v>13</v>
       </c>
       <c r="AG22" s="109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9811,7 +9795,7 @@
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BW22" s="58" t="s">
         <v>120</v>
@@ -9820,7 +9804,7 @@
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9846,7 +9830,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O23" s="104" t="s">
         <v>2</v>
@@ -9937,7 +9921,7 @@
         <v>13</v>
       </c>
       <c r="R24" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S24" s="104" t="s">
         <v>2</v>
@@ -9964,13 +9948,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -9998,7 +9982,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O25" s="105" t="s">
         <v>6</v>
@@ -10025,7 +10009,7 @@
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -10034,13 +10018,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -10063,7 +10047,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
@@ -10072,7 +10056,7 @@
         <v>14</v>
       </c>
       <c r="N26" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O26" s="105" t="s">
         <v>6</v>
@@ -10087,7 +10071,7 @@
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB26" s="30" t="s">
         <v>14</v>
@@ -10108,7 +10092,7 @@
         <v>5</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10126,7 +10110,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>6</v>
@@ -10145,7 +10129,7 @@
         <v>14</v>
       </c>
       <c r="R27" s="105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S27" s="105" t="s">
         <v>6</v>
@@ -10169,7 +10153,7 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10191,7 +10175,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O28" s="107" t="s">
         <v>6</v>
@@ -10200,16 +10184,16 @@
         <v>14</v>
       </c>
       <c r="R28" s="105" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S28" s="105" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ28" s="30" t="s">
         <v>14</v>
@@ -10221,10 +10205,10 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BY28" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10237,7 +10221,7 @@
         <v>15</v>
       </c>
       <c r="N29" s="107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O29" s="107" t="s">
         <v>6</v>
@@ -10246,7 +10230,7 @@
         <v>14</v>
       </c>
       <c r="R29" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S29" s="105" t="s">
         <v>6</v>
@@ -10261,15 +10245,15 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
@@ -10280,7 +10264,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O30" s="108" t="s">
         <v>6</v>
@@ -10298,19 +10282,19 @@
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
@@ -10326,7 +10310,7 @@
         <v>15</v>
       </c>
       <c r="R31" s="107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S31" s="107" t="s">
         <v>6</v>
@@ -10335,13 +10319,13 @@
         <v>82</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -10349,16 +10333,16 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q32" s="107" t="s">
         <v>15</v>
       </c>
       <c r="R32" s="107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S32" s="107" t="s">
         <v>6</v>
@@ -10367,7 +10351,7 @@
         <v>83</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>99</v>
@@ -10376,7 +10360,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -10390,7 +10374,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S33" s="107" t="s">
         <v>6</v>
@@ -10402,7 +10386,7 @@
         <v>14</v>
       </c>
       <c r="AK33" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL33" s="34" t="s">
         <v>6</v>
@@ -10410,16 +10394,16 @@
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="108" t="s">
         <v>15</v>
       </c>
       <c r="R34" s="108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S34" s="108" t="s">
         <v>6</v>
@@ -10441,16 +10425,16 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10458,7 +10442,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -10466,21 +10450,21 @@
     </row>
     <row r="38" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BT39" s="95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -10490,7 +10474,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -10503,7 +10487,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.holtz/Dropbox/data_to_viz/Example_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Dropbox/data_to_viz/Example_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2000" windowWidth="31840" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25220" windowHeight="14160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -24,9 +24,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -653,9 +650,6 @@
   </si>
   <si>
     <t>grouped barplot</t>
-  </si>
-  <si>
-    <t>Gene expression</t>
   </si>
   <si>
     <t>Story1Num2catSubgroup1value</t>
@@ -1046,10 +1040,13 @@
     <t>Perception of probability</t>
   </si>
   <si>
-    <t>bike / temperature ?</t>
-  </si>
-  <si>
     <t>Twitter connection of #rstat</t>
+  </si>
+  <si>
+    <t>House kaggle</t>
+  </si>
+  <si>
+    <t>Migration flow</t>
   </si>
 </sst>
 </file>
@@ -1947,18 +1944,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2036,6 +2021,52 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
@@ -2046,51 +2077,17 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
@@ -2100,10 +2097,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
@@ -3859,12 +3856,12 @@
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -3928,7 +3925,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="54"/>
       <c r="O9" s="73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
@@ -3952,7 +3949,7 @@
       <c r="AI9" s="54"/>
       <c r="AJ9" s="68"/>
       <c r="AL9" s="73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
@@ -4035,22 +4032,22 @@
     </row>
     <row r="16" spans="3:51" ht="26" x14ac:dyDescent="0.3">
       <c r="O16" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="S16" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
       <c r="AA16" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
@@ -4074,48 +4071,48 @@
       <c r="J17" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="AL17" s="127" t="s">
+      <c r="AL17" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="AM17" s="127" t="s">
+      <c r="AM17" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="AN17" s="127" t="s">
+      <c r="AN17" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="AO17" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ17" s="127" t="s">
+      <c r="AO17" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ17" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="AR17" s="127" t="s">
+      <c r="AR17" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="AS17" s="127" t="s">
+      <c r="AS17" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="AT17" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV17" s="127" t="s">
+      <c r="AT17" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV17" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="AW17" s="146" t="s">
+      <c r="AW17" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="AX17" s="127" t="s">
+      <c r="AX17" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="AY17" s="127" t="s">
-        <v>287</v>
+      <c r="AY17" s="123" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="115">
         <v>0.25</v>
       </c>
       <c r="F18" s="45" t="s">
@@ -4140,7 +4137,7 @@
         <v>7</v>
       </c>
       <c r="AO18" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ18" s="48" t="s">
         <v>13</v>
@@ -4152,7 +4149,7 @@
         <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV18" s="48" t="s">
         <v>13</v>
@@ -4164,14 +4161,14 @@
         <v>7</v>
       </c>
       <c r="AY18" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="116">
         <v>0.3</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -4199,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="AO19" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ19" s="48" t="s">
         <v>13</v>
@@ -4211,9 +4208,9 @@
         <v>8</v>
       </c>
       <c r="AT19" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV19" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV19" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AW19" s="36">
@@ -4223,14 +4220,14 @@
         <v>11</v>
       </c>
       <c r="AY19" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="120">
+      <c r="D20" s="116">
         <v>0.4</v>
       </c>
       <c r="F20" s="46" t="s">
@@ -4255,7 +4252,7 @@
         <v>9</v>
       </c>
       <c r="AO20" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ20" s="48" t="s">
         <v>13</v>
@@ -4267,9 +4264,9 @@
         <v>9</v>
       </c>
       <c r="AT20" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV20" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV20" s="114" t="s">
         <v>15</v>
       </c>
       <c r="AW20" s="36">
@@ -4279,75 +4276,75 @@
         <v>98</v>
       </c>
       <c r="AY20" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="121" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="D21" s="117" t="s">
+        <v>286</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="I21" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="I21" s="113" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="127" t="s">
+      <c r="O21" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="127" t="s">
+      <c r="P21" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="Q21" s="127" t="s">
+      <c r="Q21" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="S21" s="127" t="s">
+      <c r="S21" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="127" t="s">
+      <c r="T21" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="U21" s="127" t="s">
+      <c r="U21" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="W21" s="127" t="s">
+      <c r="W21" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="127" t="s">
+      <c r="X21" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="Y21" s="127" t="s">
+      <c r="Y21" s="123" t="s">
         <v>95</v>
       </c>
       <c r="Z21" s="70"/>
-      <c r="AA21" s="127" t="s">
+      <c r="AA21" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="127" t="s">
+      <c r="AB21" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" s="127" t="s">
+      <c r="AC21" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="AE21" s="127" t="s">
+      <c r="AE21" s="123" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF21" s="123" t="s">
         <v>292</v>
       </c>
-      <c r="AF21" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG21" s="127" t="s">
+      <c r="AG21" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="AL21" s="117" t="s">
+      <c r="AL21" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AM21" s="46" t="s">
@@ -4357,9 +4354,9 @@
         <v>10</v>
       </c>
       <c r="AO21" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ21" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ21" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AR21" s="6">
@@ -4369,23 +4366,23 @@
         <v>10</v>
       </c>
       <c r="AT21" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AW21" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AX21" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AY21" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="I22" s="117" t="s">
+      <c r="I22" s="113" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -4414,7 +4411,7 @@
         <v>13</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y22" s="78" t="s">
         <v>2</v>
@@ -4424,7 +4421,7 @@
         <v>13</v>
       </c>
       <c r="AB22" s="51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC22" s="45" t="s">
         <v>2</v>
@@ -4432,13 +4429,13 @@
       <c r="AE22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AF22" s="139" t="s">
+      <c r="AF22" s="135" t="s">
         <v>14</v>
       </c>
       <c r="AG22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AL22" s="117" t="s">
+      <c r="AL22" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AM22" s="46" t="s">
@@ -4448,9 +4445,9 @@
         <v>10</v>
       </c>
       <c r="AO22" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ22" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ22" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AR22" s="46">
@@ -4460,21 +4457,21 @@
         <v>10</v>
       </c>
       <c r="AT22" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.2">
       <c r="I23" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O23" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P23" s="125" t="s">
-        <v>255</v>
+      <c r="P23" s="121" t="s">
+        <v>254</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
@@ -4493,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
@@ -4503,7 +4500,7 @@
         <v>13</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC23" s="46" t="s">
         <v>3</v>
@@ -4511,35 +4508,35 @@
       <c r="AE23" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AF23" s="140" t="s">
+      <c r="AF23" s="136" t="s">
         <v>15</v>
       </c>
       <c r="AG23" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AL23" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM23" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AN23" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AO23" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ23" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AR23" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AS23" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AT23" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>126</v>
@@ -4549,7 +4546,7 @@
       <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="126" t="s">
+      <c r="O24" s="122" t="s">
         <v>14</v>
       </c>
       <c r="P24" s="46" t="s">
@@ -4562,17 +4559,17 @@
       <c r="S24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="125" t="s">
-        <v>255</v>
+      <c r="T24" s="121" t="s">
+        <v>254</v>
       </c>
       <c r="U24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" s="117" t="s">
-        <v>290</v>
+      <c r="W24" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="113" t="s">
+        <v>289</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>5</v>
@@ -4581,16 +4578,16 @@
       <c r="AA24" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AB24" s="138" t="s">
-        <v>289</v>
+      <c r="AB24" s="134" t="s">
+        <v>288</v>
       </c>
       <c r="AC24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AE24" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF24" s="141" t="s">
+      <c r="AE24" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" s="137" t="s">
         <v>13</v>
       </c>
       <c r="AG24" s="36" t="s">
@@ -4601,17 +4598,17 @@
       <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O25" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="125" t="s">
-        <v>255</v>
+      <c r="O25" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="121" t="s">
+        <v>254</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R25" s="70"/>
-      <c r="S25" s="117" t="s">
+      <c r="S25" s="113" t="s">
         <v>14</v>
       </c>
       <c r="T25" s="46" t="s">
@@ -4620,29 +4617,29 @@
       <c r="U25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W25" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="X25" s="117" t="s">
-        <v>291</v>
+      <c r="W25" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25" s="113" t="s">
+        <v>290</v>
       </c>
       <c r="Y25" s="3">
         <v>3.2</v>
       </c>
       <c r="Z25" s="70"/>
-      <c r="AA25" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="131" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC25" s="136" t="s">
+      <c r="AA25" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="127" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC25" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="AE25" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF25" s="142" t="s">
+      <c r="AE25" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="138" t="s">
         <v>15</v>
       </c>
       <c r="AG25" s="37" t="s">
@@ -4662,16 +4659,16 @@
       <c r="I26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="128" t="s">
-        <v>287</v>
+      <c r="O26" s="124" t="s">
+        <v>286</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="S26" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="S26" s="113" t="s">
         <v>14</v>
       </c>
       <c r="T26" s="46" t="s">
@@ -4681,19 +4678,19 @@
         <v>6</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA26" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA26" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC26" s="46" t="s">
         <v>5</v>
@@ -4708,7 +4705,7 @@
         <v>140</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>109</v>
@@ -4727,28 +4724,28 @@
       <c r="J27" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="125" t="s">
-        <v>255</v>
+      <c r="S27" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="121" t="s">
+        <v>254</v>
       </c>
       <c r="U27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AA27" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB27" s="133" t="s">
-        <v>290</v>
+      <c r="AA27" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB27" s="129" t="s">
+        <v>289</v>
       </c>
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="145" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF27" s="145"/>
+      <c r="AE27" s="157" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF27" s="157"/>
       <c r="AL27" s="58" t="s">
         <v>121</v>
       </c>
@@ -4764,34 +4761,34 @@
         <v>89</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA28" s="117" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA28" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="143" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE28" s="144"/>
-      <c r="AF28" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG28" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH28" s="127" t="s">
+      <c r="AD28" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG28" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH28" s="123" t="s">
         <v>15</v>
       </c>
       <c r="AQ28" s="1" t="s">
@@ -4813,16 +4810,16 @@
       </c>
       <c r="R29" s="58"/>
       <c r="U29" s="58"/>
-      <c r="AA29" s="122" t="s">
+      <c r="AA29" s="118" t="s">
         <v>14</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AE29" s="127" t="s">
+      <c r="AE29" s="123" t="s">
         <v>13</v>
       </c>
       <c r="AF29" s="45" t="s">
@@ -4835,10 +4832,10 @@
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM29" s="95" t="s">
         <v>243</v>
-      </c>
-      <c r="AM29" s="95" t="s">
-        <v>244</v>
       </c>
       <c r="AQ29" s="1" t="s">
         <v>118</v>
@@ -4854,7 +4851,7 @@
       <c r="J30" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="AE30" s="127" t="s">
+      <c r="AE30" s="123" t="s">
         <v>14</v>
       </c>
       <c r="AF30" s="46">
@@ -4886,7 +4883,7 @@
       <c r="S31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE31" s="127" t="s">
+      <c r="AE31" s="123" t="s">
         <v>15</v>
       </c>
       <c r="AF31" s="47" t="s">
@@ -4899,7 +4896,7 @@
         <v>32</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AV31" s="1" t="s">
         <v>104</v>
@@ -4919,10 +4916,10 @@
         <v>88</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AV32" s="1" t="s">
         <v>105</v>
@@ -4937,7 +4934,7 @@
         <v>78</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>163</v>
@@ -4949,19 +4946,19 @@
         <v>24</v>
       </c>
       <c r="AA34" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN34" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AV34" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="4:48" x14ac:dyDescent="0.2">
@@ -4969,13 +4966,13 @@
         <v>25</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV35" s="68"/>
     </row>
@@ -4990,10 +4987,10 @@
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF37" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG37" s="95"/>
     </row>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="40" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O40" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -5146,22 +5143,22 @@
         <v>204</v>
       </c>
       <c r="O46" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="S46" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="S46" s="90" t="s">
-        <v>208</v>
-      </c>
       <c r="W46" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA46" s="90" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE46" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="AA46" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE46" s="90" t="s">
-        <v>215</v>
-      </c>
       <c r="AH46" s="90" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AL46" s="90"/>
       <c r="AM46" s="70"/>
@@ -5169,28 +5166,28 @@
         <v>201</v>
       </c>
       <c r="AV46" s="90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D47" s="90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I47" s="90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O47" s="90"/>
       <c r="S47" s="90" t="s">
         <v>54</v>
       </c>
       <c r="W47" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AA47" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="AE47" s="161" t="s">
-        <v>301</v>
+      <c r="AE47" s="154" t="s">
+        <v>300</v>
       </c>
       <c r="AL47" s="90"/>
       <c r="AM47" s="70"/>
@@ -5200,11 +5197,11 @@
       <c r="AV47" s="90"/>
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
-      <c r="AE48" s="161" t="s">
+      <c r="AE48" s="154" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH48" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="AM48" s="70"/>
     </row>
@@ -5212,19 +5209,19 @@
       <c r="AM49" s="70"/>
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AE50" s="161" t="s">
+      <c r="AE50" s="154" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM50" s="70"/>
+    </row>
+    <row r="51" spans="26:39" x14ac:dyDescent="0.2">
+      <c r="AE51" s="154" t="s">
         <v>304</v>
-      </c>
-      <c r="AM50" s="70"/>
-    </row>
-    <row r="51" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AE51" s="161" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="53" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AH53" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
@@ -5294,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView topLeftCell="Q5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5317,14 +5314,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="115"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
     </row>
     <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="59" t="s">
@@ -5460,7 +5457,7 @@
         <v>144</v>
       </c>
       <c r="AG15" s="111" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI15" s="111" t="s">
         <v>95</v>
@@ -5475,7 +5472,7 @@
         <v>144</v>
       </c>
       <c r="AM15" s="111" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
@@ -5525,7 +5522,7 @@
         <v>7</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI16" s="6" t="s">
         <v>2</v>
@@ -5540,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
@@ -5590,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI17" s="6" t="s">
         <v>3</v>
@@ -5605,7 +5602,7 @@
         <v>8</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
@@ -5655,7 +5652,7 @@
         <v>9</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI18" s="6" t="s">
         <v>4</v>
@@ -5670,7 +5667,7 @@
         <v>9</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
@@ -5720,7 +5717,7 @@
         <v>10</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>5</v>
@@ -5735,77 +5732,77 @@
         <v>10</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="W20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AE20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AI20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AJ20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM20" s="112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
       <c r="H21" s="89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I21" s="89"/>
       <c r="J21" s="89"/>
@@ -5899,7 +5896,7 @@
         <v>142</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5956,7 +5953,7 @@
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN37" s="88"/>
     </row>
@@ -6004,7 +6001,7 @@
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I42" s="90" t="s">
         <v>333</v>
@@ -6015,27 +6012,27 @@
       </c>
       <c r="Q42" s="90"/>
       <c r="U42" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB42" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI42" s="90" t="s">
         <v>217</v>
-      </c>
-      <c r="AB42" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI42" s="90" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6054,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14:S21"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6070,14 +6067,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="115"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="160"/>
     </row>
     <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="59" t="s">
@@ -6086,7 +6083,7 @@
       <c r="D9" s="59"/>
       <c r="E9" s="54"/>
       <c r="H9" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9" s="59"/>
       <c r="J9" s="54"/>
@@ -6138,10 +6135,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="111" t="s">
         <v>219</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>220</v>
       </c>
       <c r="L14" s="111" t="s">
         <v>95</v>
@@ -6175,7 +6172,7 @@
       <c r="L15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="141" t="s">
+      <c r="M15" s="137" t="s">
         <v>150</v>
       </c>
       <c r="O15" s="51" t="s">
@@ -6204,7 +6201,7 @@
       <c r="L16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="141" t="s">
+      <c r="M16" s="137" t="s">
         <v>150</v>
       </c>
       <c r="O16" s="48" t="s">
@@ -6216,7 +6213,7 @@
       <c r="R16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="118" t="s">
+      <c r="S16" s="114" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6233,7 +6230,7 @@
       <c r="L17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="147" t="s">
+      <c r="M17" s="140" t="s">
         <v>151</v>
       </c>
       <c r="O17" s="48" t="s">
@@ -6245,13 +6242,13 @@
       <c r="R17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="117" t="s">
+      <c r="S17" s="113" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>154</v>
@@ -6259,19 +6256,19 @@
       <c r="J18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="L18" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="148" t="s">
+      <c r="L18" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="117" t="s">
+      <c r="O18" s="113" t="s">
         <v>14</v>
       </c>
       <c r="P18" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="R18" s="117" t="s">
+      <c r="R18" s="113" t="s">
         <v>14</v>
       </c>
       <c r="S18" s="48" t="s">
@@ -6280,24 +6277,24 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="H19" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L19" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="148" t="s">
+        <v>286</v>
+      </c>
+      <c r="L19" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="117" t="s">
+      <c r="O19" s="113" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="R19" s="117" t="s">
+      <c r="R19" s="113" t="s">
         <v>14</v>
       </c>
       <c r="S19" s="48" t="s">
@@ -6309,22 +6306,22 @@
         <v>191</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R20" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -6408,7 +6405,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
@@ -6439,7 +6436,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
@@ -6464,33 +6461,33 @@
         <v>203</v>
       </c>
       <c r="H40" s="90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L40" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="O40" s="90" t="s">
+        <v>206</v>
+      </c>
+      <c r="R40" s="90" t="s">
         <v>214</v>
-      </c>
-      <c r="O40" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="R40" s="90" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="90" t="s">
+        <v>326</v>
+      </c>
+      <c r="H41" s="90" t="s">
         <v>327</v>
-      </c>
-      <c r="H41" s="90" t="s">
-        <v>328</v>
       </c>
       <c r="L41" s="90" t="s">
         <v>54</v>
       </c>
       <c r="O41" s="90" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="R41" s="90" t="s">
-        <v>54</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
@@ -7210,24 +7207,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
-      <c r="H3" s="113" t="s">
-        <v>297</v>
-      </c>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
+      <c r="H3" s="158" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.2">
       <c r="L8" s="68"/>
@@ -7261,7 +7258,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="L9" s="94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="54"/>
@@ -7302,7 +7299,7 @@
       <c r="S12" s="54"/>
       <c r="T12" s="54"/>
       <c r="V12" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W12" s="54"/>
       <c r="X12" s="54"/>
@@ -7315,19 +7312,19 @@
       <c r="AD12" s="54"/>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="123" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="127" t="s">
-        <v>293</v>
-      </c>
-      <c r="E13" s="127" t="s">
+      <c r="E13" s="123" t="s">
         <v>95</v>
       </c>
       <c r="H13" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="127" t="s">
+      <c r="I13" s="123" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7335,7 +7332,7 @@
       <c r="C14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="135" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="35" t="s">
@@ -7370,7 +7367,7 @@
       <c r="C15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="136" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -7379,57 +7376,57 @@
       <c r="F15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="113" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L15" s="127" t="s">
+      <c r="L15" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="127" t="s">
+      <c r="M15" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="127" t="s">
+      <c r="P15" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="127" t="s">
+      <c r="Q15" s="123" t="s">
         <v>67</v>
       </c>
       <c r="S15" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="T15" s="127" t="s">
-        <v>298</v>
-      </c>
-      <c r="V15" s="127" t="s">
+      <c r="T15" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="V15" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="127" t="s">
+      <c r="W15" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="X15" s="127" t="s">
+      <c r="X15" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="Z15" s="127" t="s">
+      <c r="Z15" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="127" t="s">
+      <c r="AA15" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="127" t="s">
+      <c r="AC15" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="AD15" s="127" t="s">
+      <c r="AD15" s="123" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C16" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="141" t="s">
+      <c r="C16" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="137" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -7438,7 +7435,7 @@
       <c r="F16" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="149" t="s">
+      <c r="H16" s="142" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="47">
@@ -7456,7 +7453,7 @@
       <c r="Q16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="155" t="s">
+      <c r="S16" s="148" t="s">
         <v>27</v>
       </c>
       <c r="T16" s="45">
@@ -7477,18 +7474,18 @@
       <c r="AA16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AC16" s="158" t="s">
+      <c r="AC16" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="AD16" s="137" t="s">
+      <c r="AD16" s="133" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C17" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="142" t="s">
+      <c r="C17" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="138" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -7497,16 +7494,16 @@
       <c r="L17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="117" t="s">
+      <c r="M17" s="113" t="s">
         <v>14</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" s="156" t="s">
+      <c r="Q17" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="149" t="s">
         <v>28</v>
       </c>
       <c r="T17" s="46">
@@ -7515,7 +7512,7 @@
       <c r="V17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="W17" s="117" t="s">
+      <c r="W17" s="113" t="s">
         <v>14</v>
       </c>
       <c r="X17" s="46">
@@ -7524,10 +7521,10 @@
       <c r="Z17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC17" s="151" t="s">
+      <c r="AA17" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="144" t="s">
         <v>30</v>
       </c>
       <c r="AD17" s="49" t="s">
@@ -7535,21 +7532,21 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C18" s="150" t="s">
-        <v>296</v>
-      </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
+      <c r="C18" s="143" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
       <c r="L18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="155" t="s">
+      <c r="M18" s="148" t="s">
         <v>27</v>
       </c>
       <c r="P18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="155" t="s">
+      <c r="Q18" s="148" t="s">
         <v>27</v>
       </c>
       <c r="R18" s="33" t="s">
@@ -7564,7 +7561,7 @@
       <c r="V18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="W18" s="155" t="s">
+      <c r="W18" s="148" t="s">
         <v>27</v>
       </c>
       <c r="X18" s="46">
@@ -7573,16 +7570,16 @@
       <c r="Z18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AA18" s="155" t="s">
+      <c r="AA18" s="148" t="s">
         <v>27</v>
       </c>
       <c r="AB18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AC18" s="159" t="s">
+      <c r="AC18" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" s="160" t="s">
+      <c r="AD18" s="153" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7593,16 +7590,16 @@
       <c r="L19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="156" t="s">
+      <c r="M19" s="149" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="156" t="s">
+      <c r="Q19" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="152" t="s">
+      <c r="S19" s="145" t="s">
         <v>30</v>
       </c>
       <c r="T19" s="47">
@@ -7611,7 +7608,7 @@
       <c r="V19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="W19" s="156" t="s">
+      <c r="W19" s="149" t="s">
         <v>28</v>
       </c>
       <c r="X19" s="46">
@@ -7620,7 +7617,7 @@
       <c r="Z19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AA19" s="156" t="s">
+      <c r="AA19" s="149" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7658,26 +7655,26 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="145" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="145"/>
+      <c r="C21" s="157" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="157"/>
       <c r="L21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="151" t="s">
+      <c r="M21" s="144" t="s">
         <v>30</v>
       </c>
       <c r="P21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="151" t="s">
+      <c r="Q21" s="144" t="s">
         <v>30</v>
       </c>
       <c r="V21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W21" s="151" t="s">
+      <c r="W21" s="144" t="s">
         <v>30</v>
       </c>
       <c r="X21" s="46">
@@ -7686,60 +7683,60 @@
       <c r="Z21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AA21" s="151" t="s">
+      <c r="AA21" s="144" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B22" s="162" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="163"/>
-      <c r="D22" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="127" t="s">
+      <c r="D22" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="123" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="127" t="s">
+      <c r="I22" s="123" t="s">
         <v>129</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="M22" s="152" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="M22" s="145" t="s">
+        <v>286</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q22" s="152" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="Q22" s="145" t="s">
+        <v>286</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="W22" s="152" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="W22" s="145" t="s">
+        <v>286</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA22" s="152" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="AA22" s="145" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="45" t="s">
@@ -7765,7 +7762,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="123" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="46">
@@ -7780,7 +7777,7 @@
       <c r="G24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="113" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="46">
@@ -7812,32 +7809,32 @@
       <c r="F25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="149" t="s">
+      <c r="H25" s="142" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="47">
         <v>10</v>
       </c>
-      <c r="L25" s="127" t="s">
+      <c r="L25" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="127" t="s">
+      <c r="M25" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="N25" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="P25" s="127" t="s">
+      <c r="N25" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="Q25" s="127" t="s">
+      <c r="Q25" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="R25" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="S25" s="127" t="s">
-        <v>298</v>
+      <c r="R25" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="S25" s="123" t="s">
+        <v>297</v>
       </c>
       <c r="Z25" s="76"/>
     </row>
@@ -7845,20 +7842,20 @@
       <c r="L26" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="123" t="s">
+      <c r="M26" s="119" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="123" t="s">
+      <c r="Q26" s="119" t="s">
         <v>27</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>2</v>
@@ -7871,20 +7868,20 @@
       <c r="L27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="153" t="s">
+      <c r="M27" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="136" t="s">
-        <v>287</v>
+      <c r="N27" s="132" t="s">
+        <v>286</v>
       </c>
       <c r="P27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="153" t="s">
+      <c r="Q27" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="136" t="s">
-        <v>287</v>
+      <c r="R27" s="132" t="s">
+        <v>286</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>3</v>
@@ -7894,20 +7891,20 @@
       <c r="L28" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="124" t="s">
+      <c r="M28" s="120" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="124" t="s">
+      <c r="Q28" s="120" t="s">
         <v>28</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S28" s="46" t="s">
         <v>4</v>
@@ -7917,25 +7914,25 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L29" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="154" t="s">
+      <c r="L29" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="135" t="s">
-        <v>287</v>
-      </c>
-      <c r="P29" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="154" t="s">
+      <c r="N29" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="P29" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="R29" s="135" t="s">
-        <v>287</v>
-      </c>
-      <c r="S29" s="136" t="s">
+      <c r="R29" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="S29" s="132" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7943,23 +7940,23 @@
       <c r="C30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L30" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="129" t="s">
+      <c r="L30" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="157" t="s">
-        <v>287</v>
-      </c>
-      <c r="P30" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="129" t="s">
+      <c r="N30" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="P30" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="R30" s="157" t="s">
-        <v>287</v>
+      <c r="R30" s="150" t="s">
+        <v>286</v>
       </c>
       <c r="S30" s="46" t="s">
         <v>5</v>
@@ -7969,23 +7966,23 @@
       <c r="C31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L31" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="133" t="s">
+      <c r="L31" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="P31" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q31" s="133" t="s">
+      <c r="N31" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="P31" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="136" t="s">
-        <v>287</v>
+      <c r="R31" s="132" t="s">
+        <v>286</v>
       </c>
       <c r="S31" s="46" t="s">
         <v>22</v>
@@ -7995,46 +7992,46 @@
       <c r="C32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L32" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="134" t="s">
+      <c r="L32" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="130" t="s">
         <v>30</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="P32" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q32" s="134" t="s">
+        <v>286</v>
+      </c>
+      <c r="P32" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="130" t="s">
         <v>30</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S32" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="L33" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="130" t="s">
+      <c r="L33" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="126" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="P33" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="130" t="s">
+        <v>286</v>
+      </c>
+      <c r="P33" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="126" t="s">
         <v>30</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S33" s="47" t="s">
         <v>6</v>
@@ -8042,10 +8039,10 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -8064,7 +8061,7 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="68"/>
     </row>
@@ -8095,7 +8092,7 @@
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N43" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
@@ -8111,7 +8108,7 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C45" s="90" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L45" s="75"/>
       <c r="M45" s="75"/>
@@ -8125,21 +8122,21 @@
       <c r="S45" s="75"/>
       <c r="T45" s="75"/>
       <c r="V45" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z45" s="90" t="s">
         <v>222</v>
-      </c>
-      <c r="Z45" s="90" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C46" s="90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
       <c r="N46" s="68"/>
       <c r="O46" s="93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
@@ -8155,10 +8152,10 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O47" s="90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -8191,38 +8188,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="123" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="E6" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="123" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="123" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="127" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="127" t="s">
+      <c r="K6" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="L6" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="M6" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="O6" s="123" t="s">
         <v>312</v>
       </c>
-      <c r="L6" s="127" t="s">
-        <v>310</v>
-      </c>
-      <c r="M6" s="127" t="s">
-        <v>311</v>
-      </c>
-      <c r="O6" s="127" t="s">
+      <c r="P6" s="123" t="s">
         <v>313</v>
-      </c>
-      <c r="P6" s="127" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -8254,7 +8251,7 @@
         <v>140</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P7" s="35">
         <v>23</v>
@@ -8289,7 +8286,7 @@
         <v>142.30000000000001</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P8" s="36">
         <v>12</v>
@@ -8324,7 +8321,7 @@
         <v>123.8</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P9" s="36">
         <v>9</v>
@@ -8359,7 +8356,7 @@
         <v>126</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P10" s="37">
         <v>10</v>
@@ -8372,27 +8369,27 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="91" t="s">
         <v>320</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>321</v>
       </c>
       <c r="J19" s="91">
         <v>19</v>
       </c>
       <c r="O19" s="90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J20" s="90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O20" s="90" t="s">
         <v>54</v>
@@ -8411,20 +8408,20 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -8476,31 +8473,31 @@
     <row r="28" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8576,7 +8573,7 @@
       <c r="AW7" s="68"/>
       <c r="AX7" s="68"/>
       <c r="AZ7" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
@@ -8718,7 +8715,7 @@
       <c r="CK11" s="54"/>
       <c r="CL11" s="54"/>
       <c r="CO11" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CP11" s="54"/>
       <c r="CQ11" s="54"/>
@@ -8761,7 +8758,7 @@
         <v>96</v>
       </c>
       <c r="BB13" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BC13" s="96" t="s">
         <v>95</v>
@@ -8798,12 +8795,12 @@
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="102"/>
       <c r="F14" s="102"/>
       <c r="M14" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
@@ -8814,12 +8811,12 @@
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
       <c r="X14" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y14" s="102"/>
       <c r="Z14" s="102"/>
       <c r="AF14" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG14" s="102"/>
       <c r="AH14" s="102"/>
@@ -8844,7 +8841,7 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
@@ -8976,7 +8973,7 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
@@ -9112,7 +9109,7 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
@@ -9212,41 +9209,41 @@
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="102"/>
       <c r="F17" s="54"/>
       <c r="H17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="102"/>
       <c r="J17" s="54"/>
       <c r="M17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N17" s="102"/>
       <c r="Q17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R17" s="102"/>
       <c r="X17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y17" s="102"/>
       <c r="Z17" s="54"/>
       <c r="AB17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC17" s="102"/>
       <c r="AD17" s="54"/>
       <c r="AE17" s="70"/>
       <c r="AF17" s="60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG17" s="102"/>
       <c r="AH17" s="54"/>
       <c r="AJ17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AK17" s="102"/>
       <c r="AL17" s="54"/>
@@ -9267,7 +9264,7 @@
         <v>103</v>
       </c>
       <c r="BB17" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
@@ -9364,10 +9361,10 @@
         <v>35</v>
       </c>
       <c r="BI18" s="89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BR18" s="89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -9388,7 +9385,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -9593,10 +9590,10 @@
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9692,7 +9689,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BC21" s="58"/>
       <c r="BD21" s="58"/>
@@ -9706,7 +9703,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9768,7 +9765,7 @@
         <v>13</v>
       </c>
       <c r="AG22" s="109" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9795,7 +9792,7 @@
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BW22" s="58" t="s">
         <v>120</v>
@@ -9804,7 +9801,7 @@
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9830,7 +9827,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O23" s="104" t="s">
         <v>2</v>
@@ -9921,7 +9918,7 @@
         <v>13</v>
       </c>
       <c r="R24" s="104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S24" s="104" t="s">
         <v>2</v>
@@ -9948,13 +9945,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -9982,7 +9979,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O25" s="105" t="s">
         <v>6</v>
@@ -10009,7 +10006,7 @@
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -10018,13 +10015,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -10047,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
@@ -10056,7 +10053,7 @@
         <v>14</v>
       </c>
       <c r="N26" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O26" s="105" t="s">
         <v>6</v>
@@ -10071,7 +10068,7 @@
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB26" s="30" t="s">
         <v>14</v>
@@ -10092,7 +10089,7 @@
         <v>5</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10110,7 +10107,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>6</v>
@@ -10129,7 +10126,7 @@
         <v>14</v>
       </c>
       <c r="R27" s="105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S27" s="105" t="s">
         <v>6</v>
@@ -10153,7 +10150,7 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10175,7 +10172,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O28" s="107" t="s">
         <v>6</v>
@@ -10184,16 +10181,16 @@
         <v>14</v>
       </c>
       <c r="R28" s="105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S28" s="105" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AJ28" s="30" t="s">
         <v>14</v>
@@ -10205,10 +10202,10 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BY28" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10221,7 +10218,7 @@
         <v>15</v>
       </c>
       <c r="N29" s="107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O29" s="107" t="s">
         <v>6</v>
@@ -10230,7 +10227,7 @@
         <v>14</v>
       </c>
       <c r="R29" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S29" s="105" t="s">
         <v>6</v>
@@ -10245,15 +10242,15 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
@@ -10264,7 +10261,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="108" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O30" s="108" t="s">
         <v>6</v>
@@ -10282,19 +10279,19 @@
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
@@ -10310,7 +10307,7 @@
         <v>15</v>
       </c>
       <c r="R31" s="107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S31" s="107" t="s">
         <v>6</v>
@@ -10319,13 +10316,13 @@
         <v>82</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AJ31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -10333,16 +10330,16 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q32" s="107" t="s">
         <v>15</v>
       </c>
       <c r="R32" s="107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S32" s="107" t="s">
         <v>6</v>
@@ -10351,7 +10348,7 @@
         <v>83</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>99</v>
@@ -10360,7 +10357,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -10374,7 +10371,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S33" s="107" t="s">
         <v>6</v>
@@ -10386,7 +10383,7 @@
         <v>14</v>
       </c>
       <c r="AK33" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL33" s="34" t="s">
         <v>6</v>
@@ -10394,16 +10391,16 @@
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="108" t="s">
         <v>15</v>
       </c>
       <c r="R34" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S34" s="108" t="s">
         <v>6</v>
@@ -10425,16 +10422,16 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10442,7 +10439,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -10453,18 +10450,18 @@
         <v>205</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BT39" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -10474,7 +10471,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -10487,7 +10484,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25220" windowHeight="14160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25220" windowHeight="14160" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="339">
   <si>
     <t>Variable 1</t>
   </si>
@@ -1047,6 +1047,18 @@
   </si>
   <si>
     <t>Migration flow</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>surfers</t>
+  </si>
+  <si>
+    <t>Where does the government</t>
+  </si>
+  <si>
+    <t>money goes</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,6 +1437,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF69B3A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF444484"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF414282"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1686,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,6 +2119,8 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -2107,6 +2133,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF414282"/>
+      <color rgb="FF444484"/>
       <color rgb="FF69B3A2"/>
     </mruColors>
   </colors>
@@ -3873,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5126,7 +5154,9 @@
       <c r="AE45" s="91">
         <v>13</v>
       </c>
-      <c r="AL45" s="91"/>
+      <c r="AL45" s="91" t="s">
+        <v>54</v>
+      </c>
       <c r="AM45" s="70"/>
       <c r="AQ45" s="91">
         <v>5</v>
@@ -5160,7 +5190,9 @@
       <c r="AH46" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="AL46" s="90"/>
+      <c r="AL46" s="90" t="s">
+        <v>335</v>
+      </c>
       <c r="AM46" s="70"/>
       <c r="AQ46" s="90" t="s">
         <v>201</v>
@@ -6051,7 +6083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+    <sheetView topLeftCell="D28" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
       <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
@@ -7181,10 +7213,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD47"/>
+  <dimension ref="A3:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8144,7 +8176,7 @@
       <c r="S46" s="68"/>
       <c r="T46" s="68"/>
       <c r="V46" s="90" t="s">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="Z46" s="90" t="s">
         <v>54</v>
@@ -8157,6 +8189,13 @@
       <c r="O47" s="90" t="s">
         <v>299</v>
       </c>
+      <c r="V47" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N51" s="165"/>
+      <c r="O51" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8174,8 +8213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8403,7 +8442,7 @@
         <v>54</v>
       </c>
       <c r="J21" s="90" t="s">
-        <v>54</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25220" windowHeight="14160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25220" windowHeight="14160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -2092,6 +2092,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
     </xf>
@@ -2119,8 +2121,6 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -3901,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="AK47" sqref="AK47"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4770,10 +4770,10 @@
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="157" t="s">
+      <c r="AE27" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="AF27" s="157"/>
+      <c r="AF27" s="159"/>
       <c r="AL27" s="58" t="s">
         <v>121</v>
       </c>
@@ -4806,10 +4806,10 @@
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="155" t="s">
+      <c r="AD28" s="157" t="s">
         <v>293</v>
       </c>
-      <c r="AE28" s="156"/>
+      <c r="AE28" s="158"/>
       <c r="AF28" s="123" t="s">
         <v>13</v>
       </c>
@@ -5323,7 +5323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="U8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -5346,14 +5346,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="160"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
     </row>
     <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="59" t="s">
@@ -6099,14 +6099,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
-      <c r="L3" s="158" t="s">
+      <c r="L3" s="160" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="160"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="162"/>
     </row>
     <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="59" t="s">
@@ -7215,7 +7215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -7239,24 +7239,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="160"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="162"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="H4" s="161" t="s">
+      <c r="H4" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.2">
       <c r="L8" s="68"/>
@@ -7687,10 +7687,10 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="157" t="s">
+      <c r="C21" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="157"/>
+      <c r="D21" s="159"/>
       <c r="L21" s="49" t="s">
         <v>14</v>
       </c>
@@ -7720,10 +7720,10 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="164" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="163"/>
+      <c r="C22" s="165"/>
       <c r="D22" s="123" t="s">
         <v>13</v>
       </c>
@@ -8194,8 +8194,8 @@
       </c>
     </row>
     <row r="51" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N51" s="165"/>
-      <c r="O51" s="164"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yan/Dropbox/data_to_viz/Example_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.holtz/Dropbox/data_to_viz/Example_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25220" windowHeight="14160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -683,9 +686,6 @@
   </si>
   <si>
     <t>Gapminder</t>
-  </si>
-  <si>
-    <t>iris</t>
   </si>
   <si>
     <t>List 1</t>
@@ -1059,6 +1059,9 @@
   </si>
   <si>
     <t>money goes</t>
+  </si>
+  <si>
+    <t>Mtcars</t>
   </si>
 </sst>
 </file>
@@ -2123,10 +2126,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3874,7 +3877,7 @@
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.2">
@@ -3884,12 +3887,12 @@
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +3904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+    <sheetView topLeftCell="AA9" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -3953,7 +3956,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="54"/>
       <c r="O9" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
@@ -3977,7 +3980,7 @@
       <c r="AI9" s="54"/>
       <c r="AJ9" s="68"/>
       <c r="AL9" s="73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
@@ -4060,22 +4063,22 @@
     </row>
     <row r="16" spans="3:51" ht="26" x14ac:dyDescent="0.3">
       <c r="O16" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="S16" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
       <c r="AA16" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
@@ -4109,7 +4112,7 @@
         <v>113</v>
       </c>
       <c r="AO17" s="123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ17" s="123" t="s">
         <v>12</v>
@@ -4121,7 +4124,7 @@
         <v>113</v>
       </c>
       <c r="AT17" s="123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV17" s="123" t="s">
         <v>12</v>
@@ -4133,7 +4136,7 @@
         <v>113</v>
       </c>
       <c r="AY17" s="123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.2">
@@ -4165,7 +4168,7 @@
         <v>7</v>
       </c>
       <c r="AO18" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ18" s="48" t="s">
         <v>13</v>
@@ -4177,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV18" s="48" t="s">
         <v>13</v>
@@ -4189,7 +4192,7 @@
         <v>7</v>
       </c>
       <c r="AY18" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.2">
@@ -4224,7 +4227,7 @@
         <v>8</v>
       </c>
       <c r="AO19" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ19" s="48" t="s">
         <v>13</v>
@@ -4236,7 +4239,7 @@
         <v>8</v>
       </c>
       <c r="AT19" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV19" s="113" t="s">
         <v>14</v>
@@ -4248,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="AY19" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.2">
@@ -4280,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="AO20" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ20" s="48" t="s">
         <v>13</v>
@@ -4292,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="AT20" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV20" s="114" t="s">
         <v>15</v>
@@ -4304,21 +4307,21 @@
         <v>98</v>
       </c>
       <c r="AY20" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="117" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I21" s="113" t="s">
         <v>14</v>
@@ -4364,10 +4367,10 @@
         <v>95</v>
       </c>
       <c r="AE21" s="123" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF21" s="123" t="s">
         <v>291</v>
-      </c>
-      <c r="AF21" s="123" t="s">
-        <v>292</v>
       </c>
       <c r="AG21" s="123" t="s">
         <v>95</v>
@@ -4382,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="AO21" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ21" s="113" t="s">
         <v>14</v>
@@ -4394,19 +4397,19 @@
         <v>10</v>
       </c>
       <c r="AT21" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AW21" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AX21" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AY21" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.2">
@@ -4439,7 +4442,7 @@
         <v>13</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y22" s="78" t="s">
         <v>2</v>
@@ -4449,7 +4452,7 @@
         <v>13</v>
       </c>
       <c r="AB22" s="51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC22" s="45" t="s">
         <v>2</v>
@@ -4473,7 +4476,7 @@
         <v>10</v>
       </c>
       <c r="AO22" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ22" s="113" t="s">
         <v>14</v>
@@ -4485,21 +4488,21 @@
         <v>10</v>
       </c>
       <c r="AT22" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.2">
       <c r="I23" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O23" s="81" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
@@ -4518,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
@@ -4528,7 +4531,7 @@
         <v>13</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC23" s="46" t="s">
         <v>3</v>
@@ -4543,28 +4546,28 @@
         <v>2</v>
       </c>
       <c r="AL23" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM23" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AN23" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AO23" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AQ23" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AR23" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AS23" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AT23" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>126</v>
@@ -4588,7 +4591,7 @@
         <v>13</v>
       </c>
       <c r="T24" s="121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U24" s="46" t="s">
         <v>4</v>
@@ -4597,7 +4600,7 @@
         <v>14</v>
       </c>
       <c r="X24" s="113" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>5</v>
@@ -4607,7 +4610,7 @@
         <v>13</v>
       </c>
       <c r="AB24" s="134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC24" s="46" t="s">
         <v>4</v>
@@ -4630,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="P25" s="121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>6</v>
@@ -4649,7 +4652,7 @@
         <v>14</v>
       </c>
       <c r="X25" s="113" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y25" s="3">
         <v>3.2</v>
@@ -4659,7 +4662,7 @@
         <v>13</v>
       </c>
       <c r="AB25" s="127" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC25" s="132" t="s">
         <v>23</v>
@@ -4688,13 +4691,13 @@
         <v>21</v>
       </c>
       <c r="O26" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S26" s="113" t="s">
         <v>14</v>
@@ -4706,19 +4709,19 @@
         <v>6</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA26" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC26" s="46" t="s">
         <v>5</v>
@@ -4733,7 +4736,7 @@
         <v>140</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>109</v>
@@ -4756,7 +4759,7 @@
         <v>14</v>
       </c>
       <c r="T27" s="121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U27" s="46" t="s">
         <v>5</v>
@@ -4765,13 +4768,13 @@
         <v>14</v>
       </c>
       <c r="AB27" s="129" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
       <c r="AE27" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF27" s="159"/>
       <c r="AL27" s="58" t="s">
@@ -4789,25 +4792,25 @@
         <v>89</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA28" s="113" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
       <c r="AD28" s="157" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE28" s="158"/>
       <c r="AF28" s="123" t="s">
@@ -4842,7 +4845,7 @@
         <v>14</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC29" s="47" t="s">
         <v>6</v>
@@ -4860,10 +4863,10 @@
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM29" s="95" t="s">
         <v>242</v>
-      </c>
-      <c r="AM29" s="95" t="s">
-        <v>243</v>
       </c>
       <c r="AQ29" s="1" t="s">
         <v>118</v>
@@ -4947,7 +4950,7 @@
         <v>211</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AV32" s="1" t="s">
         <v>105</v>
@@ -4980,13 +4983,13 @@
         <v>172</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN34" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AV34" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="4:48" x14ac:dyDescent="0.2">
@@ -5000,7 +5003,7 @@
         <v>173</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AV35" s="68"/>
     </row>
@@ -5015,10 +5018,10 @@
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF37" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG37" s="95"/>
     </row>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="40" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O40" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -5182,16 +5185,16 @@
         <v>213</v>
       </c>
       <c r="AA46" s="90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AE46" s="90" t="s">
         <v>214</v>
       </c>
       <c r="AH46" s="90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AL46" s="90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM46" s="70"/>
       <c r="AQ46" s="90" t="s">
@@ -5203,23 +5206,23 @@
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D47" s="90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I47" s="90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O47" s="90"/>
       <c r="S47" s="90" t="s">
         <v>54</v>
       </c>
       <c r="W47" s="90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA47" s="90" t="s">
         <v>54</v>
       </c>
       <c r="AE47" s="154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL47" s="90"/>
       <c r="AM47" s="70"/>
@@ -5230,10 +5233,10 @@
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
       <c r="AE48" s="154" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH48" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="AM48" s="70"/>
     </row>
@@ -5242,18 +5245,18 @@
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE50" s="154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM50" s="70"/>
     </row>
     <row r="51" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE51" s="154" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AH53" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
@@ -5323,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView topLeftCell="U8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5489,7 +5492,7 @@
         <v>144</v>
       </c>
       <c r="AG15" s="111" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI15" s="111" t="s">
         <v>95</v>
@@ -5504,7 +5507,7 @@
         <v>144</v>
       </c>
       <c r="AM15" s="111" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
@@ -5554,7 +5557,7 @@
         <v>7</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI16" s="6" t="s">
         <v>2</v>
@@ -5569,7 +5572,7 @@
         <v>7</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
@@ -5619,7 +5622,7 @@
         <v>8</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI17" s="6" t="s">
         <v>3</v>
@@ -5634,7 +5637,7 @@
         <v>8</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
@@ -5684,7 +5687,7 @@
         <v>9</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI18" s="6" t="s">
         <v>4</v>
@@ -5699,7 +5702,7 @@
         <v>9</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
@@ -5749,7 +5752,7 @@
         <v>10</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>5</v>
@@ -5764,77 +5767,77 @@
         <v>10</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AC20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AJ20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM20" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
       <c r="H21" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I21" s="89"/>
       <c r="J21" s="89"/>
@@ -5928,7 +5931,7 @@
         <v>142</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5985,7 +5988,7 @@
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN37" s="88"/>
     </row>
@@ -6033,10 +6036,10 @@
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I42" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J42" s="90"/>
       <c r="P42" s="90" t="s">
@@ -6047,24 +6050,24 @@
         <v>216</v>
       </c>
       <c r="AB42" s="90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI42" s="90" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6115,7 +6118,7 @@
       <c r="D9" s="59"/>
       <c r="E9" s="54"/>
       <c r="H9" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I9" s="59"/>
       <c r="J9" s="54"/>
@@ -6167,10 +6170,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="111" t="s">
         <v>218</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>219</v>
       </c>
       <c r="L14" s="111" t="s">
         <v>95</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>154</v>
@@ -6309,10 +6312,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="H19" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L19" s="113" t="s">
         <v>14</v>
@@ -6338,22 +6341,22 @@
         <v>191</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R20" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -6468,7 +6471,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
@@ -6493,7 +6496,7 @@
         <v>203</v>
       </c>
       <c r="H40" s="90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L40" s="90" t="s">
         <v>213</v>
@@ -6507,10 +6510,10 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="H41" s="90" t="s">
         <v>326</v>
-      </c>
-      <c r="H41" s="90" t="s">
-        <v>327</v>
       </c>
       <c r="L41" s="90" t="s">
         <v>54</v>
@@ -6519,7 +6522,7 @@
         <v>54</v>
       </c>
       <c r="R41" s="90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
@@ -7240,7 +7243,7 @@
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
       <c r="H3" s="160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I3" s="161"/>
       <c r="J3" s="161"/>
@@ -7290,7 +7293,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="L9" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="54"/>
@@ -7331,7 +7334,7 @@
       <c r="S12" s="54"/>
       <c r="T12" s="54"/>
       <c r="V12" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W12" s="54"/>
       <c r="X12" s="54"/>
@@ -7345,10 +7348,10 @@
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C13" s="123" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>291</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>292</v>
       </c>
       <c r="E13" s="123" t="s">
         <v>95</v>
@@ -7430,7 +7433,7 @@
         <v>171</v>
       </c>
       <c r="T15" s="123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="V15" s="123" t="s">
         <v>66</v>
@@ -7565,7 +7568,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C18" s="143" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="143"/>
       <c r="E18" s="143"/>
@@ -7688,7 +7691,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D21" s="159"/>
       <c r="L21" s="49" t="s">
@@ -7721,7 +7724,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B22" s="164" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="165"/>
       <c r="D22" s="123" t="s">
@@ -7740,31 +7743,31 @@
         <v>129</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M22" s="145" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="145" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W22" s="145" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA22" s="145" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -7854,7 +7857,7 @@
         <v>96</v>
       </c>
       <c r="N25" s="123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P25" s="123" t="s">
         <v>12</v>
@@ -7863,10 +7866,10 @@
         <v>96</v>
       </c>
       <c r="R25" s="123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S25" s="123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z25" s="76"/>
     </row>
@@ -7878,7 +7881,7 @@
         <v>27</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>13</v>
@@ -7887,7 +7890,7 @@
         <v>27</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>2</v>
@@ -7904,7 +7907,7 @@
         <v>27</v>
       </c>
       <c r="N27" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P27" s="48" t="s">
         <v>13</v>
@@ -7913,7 +7916,7 @@
         <v>27</v>
       </c>
       <c r="R27" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>3</v>
@@ -7927,7 +7930,7 @@
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>13</v>
@@ -7936,7 +7939,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S28" s="46" t="s">
         <v>4</v>
@@ -7953,7 +7956,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="131" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P29" s="127" t="s">
         <v>13</v>
@@ -7962,7 +7965,7 @@
         <v>28</v>
       </c>
       <c r="R29" s="131" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S29" s="132" t="s">
         <v>23</v>
@@ -7979,7 +7982,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="150" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P30" s="113" t="s">
         <v>14</v>
@@ -7988,7 +7991,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="150" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S30" s="46" t="s">
         <v>5</v>
@@ -8005,7 +8008,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P31" s="113" t="s">
         <v>14</v>
@@ -8014,7 +8017,7 @@
         <v>29</v>
       </c>
       <c r="R31" s="132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S31" s="46" t="s">
         <v>22</v>
@@ -8031,7 +8034,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P32" s="113" t="s">
         <v>14</v>
@@ -8040,7 +8043,7 @@
         <v>30</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S32" s="46" t="s">
         <v>2</v>
@@ -8054,7 +8057,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P33" s="118" t="s">
         <v>14</v>
@@ -8063,7 +8066,7 @@
         <v>30</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S33" s="47" t="s">
         <v>6</v>
@@ -8071,10 +8074,10 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q38" s="68"/>
     </row>
@@ -8124,7 +8127,7 @@
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N43" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
@@ -8154,15 +8157,15 @@
       <c r="S45" s="75"/>
       <c r="T45" s="75"/>
       <c r="V45" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z45" s="90" t="s">
         <v>221</v>
-      </c>
-      <c r="Z45" s="90" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C46" s="90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
@@ -8176,7 +8179,7 @@
       <c r="S46" s="68"/>
       <c r="T46" s="68"/>
       <c r="V46" s="90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z46" s="90" t="s">
         <v>54</v>
@@ -8184,13 +8187,13 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O47" s="90" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="14:15" x14ac:dyDescent="0.2">
@@ -8228,37 +8231,37 @@
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="123" t="s">
         <v>306</v>
       </c>
-      <c r="C6" s="123" t="s">
-        <v>307</v>
-      </c>
       <c r="E6" s="123" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="123" t="s">
         <v>306</v>
-      </c>
-      <c r="F6" s="123" t="s">
-        <v>307</v>
       </c>
       <c r="G6" s="123" t="s">
         <v>129</v>
       </c>
       <c r="J6" s="123" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="123" t="s">
         <v>308</v>
       </c>
-      <c r="K6" s="123" t="s">
+      <c r="M6" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="O6" s="123" t="s">
         <v>311</v>
       </c>
-      <c r="L6" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="M6" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="O6" s="123" t="s">
+      <c r="P6" s="123" t="s">
         <v>312</v>
-      </c>
-      <c r="P6" s="123" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -8290,7 +8293,7 @@
         <v>140</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P7" s="35">
         <v>23</v>
@@ -8325,7 +8328,7 @@
         <v>142.30000000000001</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P8" s="36">
         <v>12</v>
@@ -8360,7 +8363,7 @@
         <v>123.8</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P9" s="36">
         <v>9</v>
@@ -8395,7 +8398,7 @@
         <v>126</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P10" s="37">
         <v>10</v>
@@ -8408,27 +8411,27 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="91" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="91" t="s">
         <v>319</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>320</v>
       </c>
       <c r="J19" s="91">
         <v>19</v>
       </c>
       <c r="O19" s="90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J20" s="90" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O20" s="90" t="s">
         <v>54</v>
@@ -8442,25 +8445,25 @@
         <v>54</v>
       </c>
       <c r="J21" s="90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8512,31 +8515,31 @@
     <row r="28" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8612,7 +8615,7 @@
       <c r="AW7" s="68"/>
       <c r="AX7" s="68"/>
       <c r="AZ7" s="73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
@@ -8797,7 +8800,7 @@
         <v>96</v>
       </c>
       <c r="BB13" s="72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BC13" s="96" t="s">
         <v>95</v>
@@ -8834,12 +8837,12 @@
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="102"/>
       <c r="F14" s="102"/>
       <c r="M14" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
@@ -8850,12 +8853,12 @@
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
       <c r="X14" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y14" s="102"/>
       <c r="Z14" s="102"/>
       <c r="AF14" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG14" s="102"/>
       <c r="AH14" s="102"/>
@@ -8880,7 +8883,7 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
@@ -9012,7 +9015,7 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
@@ -9148,7 +9151,7 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
@@ -9248,41 +9251,41 @@
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17" s="102"/>
       <c r="F17" s="54"/>
       <c r="H17" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I17" s="102"/>
       <c r="J17" s="54"/>
       <c r="M17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N17" s="102"/>
       <c r="Q17" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R17" s="102"/>
       <c r="X17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y17" s="102"/>
       <c r="Z17" s="54"/>
       <c r="AB17" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC17" s="102"/>
       <c r="AD17" s="54"/>
       <c r="AE17" s="70"/>
       <c r="AF17" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG17" s="102"/>
       <c r="AH17" s="54"/>
       <c r="AJ17" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK17" s="102"/>
       <c r="AL17" s="54"/>
@@ -9303,7 +9306,7 @@
         <v>103</v>
       </c>
       <c r="BB17" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
@@ -9403,7 +9406,7 @@
         <v>208</v>
       </c>
       <c r="BR18" s="89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -9424,7 +9427,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -9629,10 +9632,10 @@
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9728,7 +9731,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BC21" s="58"/>
       <c r="BD21" s="58"/>
@@ -9742,7 +9745,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9804,7 +9807,7 @@
         <v>13</v>
       </c>
       <c r="AG22" s="109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9831,7 +9834,7 @@
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BW22" s="58" t="s">
         <v>120</v>
@@ -9840,7 +9843,7 @@
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9866,7 +9869,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O23" s="104" t="s">
         <v>2</v>
@@ -9957,7 +9960,7 @@
         <v>13</v>
       </c>
       <c r="R24" s="104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S24" s="104" t="s">
         <v>2</v>
@@ -9984,13 +9987,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -10018,7 +10021,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O25" s="105" t="s">
         <v>6</v>
@@ -10045,7 +10048,7 @@
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -10054,13 +10057,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -10083,7 +10086,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
@@ -10092,7 +10095,7 @@
         <v>14</v>
       </c>
       <c r="N26" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O26" s="105" t="s">
         <v>6</v>
@@ -10146,7 +10149,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>6</v>
@@ -10165,7 +10168,7 @@
         <v>14</v>
       </c>
       <c r="R27" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S27" s="105" t="s">
         <v>6</v>
@@ -10189,7 +10192,7 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10211,7 +10214,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O28" s="107" t="s">
         <v>6</v>
@@ -10220,13 +10223,13 @@
         <v>14</v>
       </c>
       <c r="R28" s="105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S28" s="105" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>209</v>
@@ -10241,10 +10244,10 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BY28" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10257,7 +10260,7 @@
         <v>15</v>
       </c>
       <c r="N29" s="107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O29" s="107" t="s">
         <v>6</v>
@@ -10266,7 +10269,7 @@
         <v>14</v>
       </c>
       <c r="R29" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S29" s="105" t="s">
         <v>6</v>
@@ -10281,15 +10284,15 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
@@ -10300,7 +10303,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O30" s="108" t="s">
         <v>6</v>
@@ -10318,19 +10321,19 @@
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
@@ -10346,7 +10349,7 @@
         <v>15</v>
       </c>
       <c r="R31" s="107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S31" s="107" t="s">
         <v>6</v>
@@ -10361,7 +10364,7 @@
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -10369,16 +10372,16 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="107" t="s">
         <v>15</v>
       </c>
       <c r="R32" s="107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S32" s="107" t="s">
         <v>6</v>
@@ -10396,7 +10399,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -10410,7 +10413,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="107" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S33" s="107" t="s">
         <v>6</v>
@@ -10422,7 +10425,7 @@
         <v>14</v>
       </c>
       <c r="AK33" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL33" s="34" t="s">
         <v>6</v>
@@ -10430,16 +10433,16 @@
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q34" s="108" t="s">
         <v>15</v>
       </c>
       <c r="R34" s="108" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S34" s="108" t="s">
         <v>6</v>
@@ -10461,10 +10464,10 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
@@ -10478,7 +10481,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -10489,18 +10492,18 @@
         <v>205</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BT39" s="95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -10510,7 +10513,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -10523,7 +10526,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-38860" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="SHENFA" sheetId="9" r:id="rId1"/>
-    <sheet name="Num and Cat" sheetId="1" r:id="rId2"/>
-    <sheet name="Num" sheetId="2" r:id="rId3"/>
-    <sheet name="Cat" sheetId="3" r:id="rId4"/>
-    <sheet name="Relationnal" sheetId="4" r:id="rId5"/>
-    <sheet name="Map" sheetId="5" r:id="rId6"/>
-    <sheet name="Time Serie" sheetId="6" r:id="rId7"/>
-    <sheet name="new logo needed" sheetId="7" r:id="rId8"/>
-    <sheet name="Yan only" sheetId="10" r:id="rId9"/>
+    <sheet name="Num" sheetId="2" r:id="rId1"/>
+    <sheet name="Cat" sheetId="3" r:id="rId2"/>
+    <sheet name="Num and Cat" sheetId="1" r:id="rId3"/>
+    <sheet name="Relationnal" sheetId="4" r:id="rId4"/>
+    <sheet name="Map" sheetId="5" r:id="rId5"/>
+    <sheet name="Time Serie" sheetId="6" r:id="rId6"/>
+    <sheet name="new logo needed" sheetId="7" r:id="rId7"/>
+    <sheet name="Yan only" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="339">
   <si>
     <t>Variable 1</t>
   </si>
@@ -589,15 +588,6 @@
     <t>Marimekko Chart</t>
   </si>
   <si>
-    <t>SHENFA CHANGES</t>
-  </si>
-  <si>
-    <t>Order must be respected: from left to right: 1 num, 2 nums …</t>
-  </si>
-  <si>
-    <t>To much white space on top. We need the tree to be wider, but shorter.</t>
-  </si>
-  <si>
     <t>Histo</t>
   </si>
   <si>
@@ -730,9 +720,6 @@
     <t>Des points en essayant de les grouper en 3 groupes, genre en haut a droite, en haut a gauche, en bas.</t>
   </si>
   <si>
-    <t>small modif in the tree: follow data above</t>
-  </si>
-  <si>
     <t>2 cat or more</t>
   </si>
   <si>
@@ -740,12 +727,6 @@
   </si>
   <si>
     <t>Sankey</t>
-  </si>
-  <si>
-    <t>The highest hexagones must be on the same horizontal line.</t>
-  </si>
-  <si>
-    <t>Text must be bigger, too hard to read currently</t>
   </si>
   <si>
     <r>
@@ -1040,35 +1021,53 @@
     <t>Perception of probability</t>
   </si>
   <si>
-    <t>Twitter connection of #rstat</t>
-  </si>
-  <si>
     <t>House kaggle</t>
   </si>
   <si>
     <t>Migration flow</t>
   </si>
   <si>
-    <t>Todo</t>
-  </si>
-  <si>
     <t>surfers</t>
   </si>
   <si>
-    <t>Where does the government</t>
-  </si>
-  <si>
     <t>money goes</t>
   </si>
   <si>
     <t>Mtcars</t>
+  </si>
+  <si>
+    <t>Wage Gap</t>
+  </si>
+  <si>
+    <t>Research network</t>
+  </si>
+  <si>
+    <t>OneNumSevCatSubgroupOneObs</t>
+  </si>
+  <si>
+    <t>Wage gap</t>
+  </si>
+  <si>
+    <t>People tip</t>
+  </si>
+  <si>
+    <t>Should use MTCARS?</t>
+  </si>
+  <si>
+    <t>Baby Names</t>
+  </si>
+  <si>
+    <t>Flare - links to edge bundle page</t>
+  </si>
+  <si>
+    <t>ListGPSCoordinates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1174,13 +1173,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1684,12 +1676,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1841,7 +1833,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1852,22 +1844,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1877,25 +1869,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,14 +1896,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1920,10 +1911,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1942,7 +1933,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1952,144 +1943,144 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2097,31 +2088,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
   </cellXfs>
@@ -3846,66 +3837,1907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:K16"/>
+  <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="8.5" style="1"/>
+    <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.5" style="1"/>
+    <col min="10" max="10" width="4" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="23" width="8.5" style="1"/>
+    <col min="24" max="24" width="4.5" style="1" customWidth="1"/>
+    <col min="25" max="28" width="8.5" style="1"/>
+    <col min="29" max="33" width="7.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" style="1" customWidth="1"/>
+    <col min="35" max="38" width="8.5" style="1"/>
+    <col min="39" max="39" width="8.5" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="83" t="s">
+    <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
+      <c r="K3" s="159" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+    </row>
+    <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
+      <c r="C9" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="54"/>
+      <c r="H9" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="68"/>
+      <c r="U9" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AC9" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+    </row>
+    <row r="13" spans="3:39" ht="26" x14ac:dyDescent="0.3">
+      <c r="H13" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="P13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="68"/>
+      <c r="U13" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="Y13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AC13" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AI13" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="3:39" ht="26" x14ac:dyDescent="0.3">
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+    </row>
+    <row r="15" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="V15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE15" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF15" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG15" s="110" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI15" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ15" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK15" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL15" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM15" s="110" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="3:39" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="U20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="V20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="W20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL20" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM20" s="111" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="H21" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="P21" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="U21" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC21" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI21" s="88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="3:40" ht="19" x14ac:dyDescent="0.25">
+      <c r="H23" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="AI23" s="68"/>
+    </row>
+    <row r="24" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI24" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN24" s="85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
+      <c r="K26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI26" s="68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="3:40" s="83" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI27" s="84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="3:40" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI29" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN30" s="86" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
-        <v>236</v>
+    <row r="31" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="3:40" s="83" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="P35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="P36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN36" s="87" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="AB37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN37" s="87"/>
+    </row>
+    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C40" s="90">
+        <v>1</v>
+      </c>
+      <c r="I40" s="90">
+        <v>2</v>
+      </c>
+      <c r="P40" s="90">
+        <v>3</v>
+      </c>
+      <c r="U40" s="90">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="90">
+        <v>5</v>
+      </c>
+      <c r="AI40" s="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C41" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="J41" s="89"/>
+      <c r="P41" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q41" s="89"/>
+      <c r="U41" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB41" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI41" s="89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C42" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="I42" s="89" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" s="89"/>
+      <c r="P42" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q42" s="89"/>
+      <c r="U42" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB42" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI42" s="89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:P3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C16:C19 AI16:AL19 AD16" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T156"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="O41" sqref="O40:O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="8.33203125" style="1"/>
+    <col min="9" max="9" width="0.5" style="1" customWidth="1"/>
+    <col min="10" max="13" width="8.33203125" style="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.33203125" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
+      <c r="L3" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="161"/>
+    </row>
+    <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
+      <c r="C9" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="54"/>
+      <c r="H9" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="68"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="L12" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="54"/>
+      <c r="O12" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="54"/>
+      <c r="R12" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="54"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="139" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="H19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="R20" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="L25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="O28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C29" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C30" s="55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="O31" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O34" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C39" s="90">
+        <v>7</v>
+      </c>
+      <c r="H39" s="90">
+        <v>14</v>
+      </c>
+      <c r="L39" s="90">
+        <v>11</v>
+      </c>
+      <c r="O39" s="90">
+        <v>9</v>
+      </c>
+      <c r="R39" s="90">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C40" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="O40" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="R40" s="89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C41" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="R41" s="89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="89" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2001</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="12">
+        <v>2001</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="6">
+        <v>2002</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="7">
+        <v>2002</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C148" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C149" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C150" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C151" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C152" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C153" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C154" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C155" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C156" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="AA9" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="AS57" sqref="AS57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3956,7 +5788,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="54"/>
       <c r="O9" s="73" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
@@ -3980,7 +5812,7 @@
       <c r="AI9" s="54"/>
       <c r="AJ9" s="68"/>
       <c r="AL9" s="73" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
@@ -4063,87 +5895,87 @@
     </row>
     <row r="16" spans="3:51" ht="26" x14ac:dyDescent="0.3">
       <c r="O16" s="53" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="S16" s="53" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
       <c r="AA16" s="53" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
     </row>
     <row r="17" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="AL17" s="123" t="s">
+      <c r="AL17" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AM17" s="123" t="s">
+      <c r="AM17" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="AN17" s="123" t="s">
+      <c r="AN17" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="AO17" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ17" s="123" t="s">
+      <c r="AO17" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ17" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AR17" s="123" t="s">
+      <c r="AR17" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="AS17" s="123" t="s">
+      <c r="AS17" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="AT17" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV17" s="123" t="s">
+      <c r="AT17" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV17" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AW17" s="139" t="s">
+      <c r="AW17" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="AX17" s="123" t="s">
+      <c r="AX17" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="AY17" s="123" t="s">
-        <v>285</v>
+      <c r="AY17" s="122" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="114">
         <v>0.25</v>
       </c>
       <c r="F18" s="45" t="s">
@@ -4168,7 +6000,7 @@
         <v>7</v>
       </c>
       <c r="AO18" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AQ18" s="48" t="s">
         <v>13</v>
@@ -4180,7 +6012,7 @@
         <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AV18" s="48" t="s">
         <v>13</v>
@@ -4192,14 +6024,14 @@
         <v>7</v>
       </c>
       <c r="AY18" s="46" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="115">
         <v>0.3</v>
       </c>
       <c r="E19" s="33" t="s">
@@ -4227,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="AO19" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AQ19" s="48" t="s">
         <v>13</v>
@@ -4239,9 +6071,9 @@
         <v>8</v>
       </c>
       <c r="AT19" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV19" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV19" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AW19" s="36">
@@ -4251,14 +6083,14 @@
         <v>11</v>
       </c>
       <c r="AY19" s="46" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="116">
+      <c r="D20" s="115">
         <v>0.4</v>
       </c>
       <c r="F20" s="46" t="s">
@@ -4283,7 +6115,7 @@
         <v>9</v>
       </c>
       <c r="AO20" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AQ20" s="48" t="s">
         <v>13</v>
@@ -4295,9 +6127,9 @@
         <v>9</v>
       </c>
       <c r="AT20" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV20" s="114" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV20" s="113" t="s">
         <v>15</v>
       </c>
       <c r="AW20" s="36">
@@ -4307,75 +6139,75 @@
         <v>98</v>
       </c>
       <c r="AY20" s="46" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="117" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>279</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="I21" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="112" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="123" t="s">
+      <c r="O21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="123" t="s">
+      <c r="P21" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="Q21" s="123" t="s">
+      <c r="Q21" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="S21" s="123" t="s">
+      <c r="S21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="123" t="s">
+      <c r="T21" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="U21" s="123" t="s">
+      <c r="U21" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="W21" s="123" t="s">
+      <c r="W21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="123" t="s">
+      <c r="X21" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="Y21" s="123" t="s">
+      <c r="Y21" s="122" t="s">
         <v>95</v>
       </c>
       <c r="Z21" s="70"/>
-      <c r="AA21" s="123" t="s">
+      <c r="AA21" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AB21" s="123" t="s">
+      <c r="AB21" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" s="123" t="s">
+      <c r="AC21" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="AE21" s="123" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF21" s="123" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG21" s="123" t="s">
+      <c r="AE21" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF21" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG21" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="AL21" s="113" t="s">
+      <c r="AL21" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AM21" s="46" t="s">
@@ -4385,9 +6217,9 @@
         <v>10</v>
       </c>
       <c r="AO21" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ21" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ21" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AR21" s="6">
@@ -4397,23 +6229,23 @@
         <v>10</v>
       </c>
       <c r="AT21" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AW21" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AX21" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AY21" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.2">
-      <c r="I22" s="113" t="s">
+      <c r="I22" s="112" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -4442,7 +6274,7 @@
         <v>13</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y22" s="78" t="s">
         <v>2</v>
@@ -4452,7 +6284,7 @@
         <v>13</v>
       </c>
       <c r="AB22" s="51" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AC22" s="45" t="s">
         <v>2</v>
@@ -4460,13 +6292,13 @@
       <c r="AE22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AF22" s="135" t="s">
+      <c r="AF22" s="134" t="s">
         <v>14</v>
       </c>
       <c r="AG22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AL22" s="113" t="s">
+      <c r="AL22" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AM22" s="46" t="s">
@@ -4476,9 +6308,9 @@
         <v>10</v>
       </c>
       <c r="AO22" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ22" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ22" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AR22" s="46">
@@ -4488,21 +6320,21 @@
         <v>10</v>
       </c>
       <c r="AT22" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.2">
       <c r="I23" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O23" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P23" s="121" t="s">
-        <v>253</v>
+      <c r="P23" s="120" t="s">
+        <v>247</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
@@ -4521,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
@@ -4531,7 +6363,7 @@
         <v>13</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AC23" s="46" t="s">
         <v>3</v>
@@ -4539,35 +6371,35 @@
       <c r="AE23" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AF23" s="136" t="s">
+      <c r="AF23" s="135" t="s">
         <v>15</v>
       </c>
       <c r="AG23" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AL23" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AM23" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AN23" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AO23" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AQ23" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AR23" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AS23" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AT23" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>126</v>
@@ -4577,7 +6409,7 @@
       <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="122" t="s">
+      <c r="O24" s="121" t="s">
         <v>14</v>
       </c>
       <c r="P24" s="46" t="s">
@@ -4590,17 +6422,17 @@
       <c r="S24" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="121" t="s">
-        <v>253</v>
+      <c r="T24" s="120" t="s">
+        <v>247</v>
       </c>
       <c r="U24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" s="113" t="s">
-        <v>288</v>
+      <c r="W24" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="112" t="s">
+        <v>282</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>5</v>
@@ -4609,16 +6441,16 @@
       <c r="AA24" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AB24" s="134" t="s">
-        <v>287</v>
+      <c r="AB24" s="133" t="s">
+        <v>281</v>
       </c>
       <c r="AC24" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AE24" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF24" s="137" t="s">
+      <c r="AE24" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF24" s="136" t="s">
         <v>13</v>
       </c>
       <c r="AG24" s="36" t="s">
@@ -4629,17 +6461,17 @@
       <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O25" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="121" t="s">
-        <v>253</v>
+      <c r="O25" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="120" t="s">
+        <v>247</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R25" s="70"/>
-      <c r="S25" s="113" t="s">
+      <c r="S25" s="112" t="s">
         <v>14</v>
       </c>
       <c r="T25" s="46" t="s">
@@ -4648,29 +6480,29 @@
       <c r="U25" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="W25" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="X25" s="113" t="s">
-        <v>289</v>
+      <c r="W25" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="X25" s="112" t="s">
+        <v>283</v>
       </c>
       <c r="Y25" s="3">
         <v>3.2</v>
       </c>
       <c r="Z25" s="70"/>
-      <c r="AA25" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="127" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC25" s="132" t="s">
+      <c r="AA25" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB25" s="126" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC25" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="AE25" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF25" s="138" t="s">
+      <c r="AE25" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="137" t="s">
         <v>15</v>
       </c>
       <c r="AG25" s="37" t="s">
@@ -4690,16 +6522,16 @@
       <c r="I26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="124" t="s">
-        <v>285</v>
+      <c r="O26" s="123" t="s">
+        <v>279</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="S26" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="S26" s="112" t="s">
         <v>14</v>
       </c>
       <c r="T26" s="46" t="s">
@@ -4709,19 +6541,19 @@
         <v>6</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA26" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA26" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AC26" s="46" t="s">
         <v>5</v>
@@ -4736,7 +6568,7 @@
         <v>140</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>109</v>
@@ -4755,28 +6587,28 @@
       <c r="J27" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="121" t="s">
-        <v>253</v>
+      <c r="S27" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="120" t="s">
+        <v>247</v>
       </c>
       <c r="U27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AA27" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB27" s="129" t="s">
-        <v>288</v>
+      <c r="AA27" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB27" s="128" t="s">
+        <v>282</v>
       </c>
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="159" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF27" s="159"/>
+      <c r="AE27" s="158" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF27" s="158"/>
       <c r="AL27" s="58" t="s">
         <v>121</v>
       </c>
@@ -4792,34 +6624,34 @@
         <v>89</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA28" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA28" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="157" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE28" s="158"/>
-      <c r="AF28" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG28" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH28" s="123" t="s">
+      <c r="AD28" s="156" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG28" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH28" s="122" t="s">
         <v>15</v>
       </c>
       <c r="AQ28" s="1" t="s">
@@ -4841,16 +6673,16 @@
       </c>
       <c r="R29" s="58"/>
       <c r="U29" s="58"/>
-      <c r="AA29" s="118" t="s">
+      <c r="AA29" s="117" t="s">
         <v>14</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AC29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AE29" s="123" t="s">
+      <c r="AE29" s="122" t="s">
         <v>13</v>
       </c>
       <c r="AF29" s="45" t="s">
@@ -4863,10 +6695,10 @@
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM29" s="95" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="AM29" s="94" t="s">
+        <v>236</v>
       </c>
       <c r="AQ29" s="1" t="s">
         <v>118</v>
@@ -4882,7 +6714,7 @@
       <c r="J30" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="AE30" s="123" t="s">
+      <c r="AE30" s="122" t="s">
         <v>14</v>
       </c>
       <c r="AF30" s="46">
@@ -4914,7 +6746,7 @@
       <c r="S31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE31" s="123" t="s">
+      <c r="AE31" s="122" t="s">
         <v>15</v>
       </c>
       <c r="AF31" s="47" t="s">
@@ -4927,7 +6759,7 @@
         <v>32</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AV31" s="1" t="s">
         <v>104</v>
@@ -4947,10 +6779,10 @@
         <v>88</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AV32" s="1" t="s">
         <v>105</v>
@@ -4965,7 +6797,7 @@
         <v>78</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>163</v>
@@ -4977,19 +6809,19 @@
         <v>24</v>
       </c>
       <c r="AA34" s="58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AN34" s="58" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AV34" s="68" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="4:48" x14ac:dyDescent="0.2">
@@ -4997,13 +6829,13 @@
         <v>25</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AV35" s="68"/>
     </row>
@@ -5018,12 +6850,12 @@
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF37" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG37" s="95"/>
+        <v>232</v>
+      </c>
+      <c r="AG37" s="94"/>
     </row>
     <row r="38" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O38" s="1" t="s">
@@ -5043,7 +6875,7 @@
     </row>
     <row r="40" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O40" s="68" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -5136,107 +6968,109 @@
       <c r="AI43" s="68"/>
     </row>
     <row r="45" spans="4:48" x14ac:dyDescent="0.2">
-      <c r="D45" s="91">
+      <c r="D45" s="90">
         <v>7</v>
       </c>
-      <c r="I45" s="91">
+      <c r="I45" s="90">
         <v>8</v>
       </c>
-      <c r="O45" s="91">
+      <c r="O45" s="90">
         <v>9</v>
       </c>
-      <c r="S45" s="91">
+      <c r="S45" s="90">
         <v>10</v>
       </c>
-      <c r="W45" s="91">
+      <c r="W45" s="90">
         <v>11</v>
       </c>
-      <c r="AA45" s="91">
+      <c r="AA45" s="90">
         <v>12</v>
       </c>
-      <c r="AE45" s="91">
-        <v>13</v>
-      </c>
-      <c r="AL45" s="91" t="s">
+      <c r="AE45" s="90">
+        <v>13</v>
+      </c>
+      <c r="AL45" s="90" t="s">
         <v>54</v>
       </c>
       <c r="AM45" s="70"/>
-      <c r="AQ45" s="91">
+      <c r="AQ45" s="90">
         <v>5</v>
       </c>
-      <c r="AV45" s="91">
+      <c r="AV45" s="90">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="4:48" x14ac:dyDescent="0.2">
-      <c r="D46" s="90" t="s">
+      <c r="D46" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="O46" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="S46" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="W46" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA46" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE46" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH46" s="89"/>
+      <c r="AL46" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM46" s="70"/>
+      <c r="AQ46" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV46" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="I46" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="S46" s="90" t="s">
-        <v>207</v>
-      </c>
-      <c r="W46" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA46" s="90" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE46" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH46" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="AL46" s="90" t="s">
+    </row>
+    <row r="47" spans="4:48" x14ac:dyDescent="0.2">
+      <c r="D47" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="O47" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="S47" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="AM46" s="70"/>
-      <c r="AQ46" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV46" s="90" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="4:48" x14ac:dyDescent="0.2">
-      <c r="D47" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="I47" s="90" t="s">
+      <c r="W47" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA47" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE47" s="153" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL47" s="89"/>
+      <c r="AM47" s="70"/>
+      <c r="AQ47" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV47" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="O47" s="90"/>
-      <c r="S47" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="W47" s="90" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA47" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE47" s="154" t="s">
-        <v>299</v>
-      </c>
-      <c r="AL47" s="90"/>
-      <c r="AM47" s="70"/>
-      <c r="AQ47" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV47" s="90"/>
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
-      <c r="AE48" s="154" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>301</v>
+      <c r="AE48" s="153" t="s">
+        <v>294</v>
       </c>
       <c r="AM48" s="70"/>
     </row>
@@ -5244,19 +7078,17 @@
       <c r="AM49" s="70"/>
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AE50" s="154" t="s">
-        <v>302</v>
+      <c r="AE50" s="153" t="s">
+        <v>296</v>
       </c>
       <c r="AM50" s="70"/>
     </row>
     <row r="51" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AE51" s="154" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="26:39" x14ac:dyDescent="0.2">
-      <c r="AH53" s="1" t="s">
-        <v>304</v>
+      <c r="AE51" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
@@ -5322,1904 +7154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AN43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="4" width="8.5" style="1"/>
-    <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
-    <col min="6" max="9" width="8.5" style="1"/>
-    <col min="10" max="10" width="4" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
-    <col min="12" max="14" width="5" style="1" customWidth="1"/>
-    <col min="15" max="23" width="8.5" style="1"/>
-    <col min="24" max="24" width="4.5" style="1" customWidth="1"/>
-    <col min="25" max="28" width="8.5" style="1"/>
-    <col min="29" max="33" width="7.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="2.83203125" style="1" customWidth="1"/>
-    <col min="35" max="38" width="8.5" style="1"/>
-    <col min="39" max="39" width="8.5" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
-      <c r="K3" s="160" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
-    </row>
-    <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="54"/>
-      <c r="H9" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="68"/>
-      <c r="U9" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AC9" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-    </row>
-    <row r="13" spans="3:39" ht="26" x14ac:dyDescent="0.3">
-      <c r="H13" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="P13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="68"/>
-      <c r="U13" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="Y13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AC13" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AI13" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="68"/>
-    </row>
-    <row r="14" spans="3:39" ht="26" x14ac:dyDescent="0.3">
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-    </row>
-    <row r="15" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="V15" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z15" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA15" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD15" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE15" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF15" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG15" s="111" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI15" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ15" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK15" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL15" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM15" s="111" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM16" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P17" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>2</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM18" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>4</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="I20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="P20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="U20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="V20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="W20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AL20" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM20" s="112" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="H21" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="P21" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="U21" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y21" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC21" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI21" s="89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="3:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="H23" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="AI23" s="68"/>
-    </row>
-    <row r="24" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI24" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN24" s="86" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI25" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI26" s="68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="3:40" s="84" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI27" s="85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="3:40" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN30" s="87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI31" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AI32" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="3:40" s="84" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="P35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="P36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN36" s="88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="AB37" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN37" s="88"/>
-    </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C40" s="91">
-        <v>1</v>
-      </c>
-      <c r="I40" s="91">
-        <v>2</v>
-      </c>
-      <c r="P40" s="91">
-        <v>3</v>
-      </c>
-      <c r="U40" s="91">
-        <v>4</v>
-      </c>
-      <c r="AB40" s="91">
-        <v>5</v>
-      </c>
-      <c r="AI40" s="91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C41" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="I41" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="J41" s="90"/>
-      <c r="P41" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q41" s="90"/>
-      <c r="U41" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB41" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI41" s="90" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C42" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="I42" s="90" t="s">
-        <v>332</v>
-      </c>
-      <c r="J42" s="90"/>
-      <c r="P42" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q42" s="90"/>
-      <c r="U42" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB42" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI42" s="90" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K3:P3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C16:C19 AI16:AL19 AD16" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:T156"/>
-  <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="8.33203125" style="1"/>
-    <col min="9" max="9" width="0.5" style="1" customWidth="1"/>
-    <col min="10" max="13" width="8.33203125" style="1"/>
-    <col min="14" max="14" width="12.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.33203125" style="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
-      <c r="L3" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="162"/>
-    </row>
-    <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
-      <c r="C9" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="54"/>
-      <c r="H9" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="68"/>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="111" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="L12" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="54"/>
-      <c r="O12" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" s="54"/>
-      <c r="R12" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="54"/>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="S14" s="111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="137" t="s">
-        <v>150</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" s="51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="137" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="R16" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="S16" s="114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="R17" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="S17" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="O18" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="R18" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="H19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L19" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="R19" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="89" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="O20" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="P20" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="R20" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="S20" s="37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="L25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="O28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C29" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C30" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="O31" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="O34" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C39" s="91">
-        <v>7</v>
-      </c>
-      <c r="H39" s="91">
-        <v>14</v>
-      </c>
-      <c r="L39" s="91">
-        <v>11</v>
-      </c>
-      <c r="O39" s="91">
-        <v>9</v>
-      </c>
-      <c r="R39" s="91">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C40" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="90" t="s">
-        <v>219</v>
-      </c>
-      <c r="L40" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="O40" s="90" t="s">
-        <v>206</v>
-      </c>
-      <c r="R40" s="90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C41" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="90" t="s">
-        <v>326</v>
-      </c>
-      <c r="L41" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="R41" s="90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2001</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D65" s="12">
-        <v>2001</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D66" s="6">
-        <v>2002</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="7">
-        <v>2002</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D76" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D78" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D79" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D80" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D87" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D89" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D90" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D91" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D96" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D97" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D98" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D100" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D101" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D102" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D107" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D116" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D118" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D119" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E119" s="38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D120" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E120" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E122" s="48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E123" s="49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E124" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D135" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D136" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C137" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C148" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C149" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C150" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C151" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C152" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C153" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C154" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C155" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C156" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E156" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L3:Q3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD51"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="Z46" sqref="Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7242,24 +7182,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
-      <c r="H3" s="160" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="162"/>
+      <c r="H3" s="159" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.2">
       <c r="L8" s="68"/>
@@ -7292,8 +7232,8 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
-      <c r="L9" s="94" t="s">
-        <v>237</v>
+      <c r="L9" s="93" t="s">
+        <v>231</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="54"/>
@@ -7334,7 +7274,7 @@
       <c r="S12" s="54"/>
       <c r="T12" s="54"/>
       <c r="V12" s="74" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="W12" s="54"/>
       <c r="X12" s="54"/>
@@ -7347,19 +7287,19 @@
       <c r="AD12" s="54"/>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C13" s="123" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="123" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" s="123" t="s">
+      <c r="C13" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="111" t="s">
+      <c r="H13" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="123" t="s">
+      <c r="I13" s="122" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7367,7 +7307,7 @@
       <c r="C14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="134" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="35" t="s">
@@ -7402,7 +7342,7 @@
       <c r="C15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="135" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="36" t="s">
@@ -7411,57 +7351,57 @@
       <c r="F15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="112" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L15" s="123" t="s">
+      <c r="L15" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="123" t="s">
+      <c r="M15" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="123" t="s">
+      <c r="P15" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="123" t="s">
+      <c r="Q15" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="111" t="s">
+      <c r="S15" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="T15" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="V15" s="123" t="s">
+      <c r="T15" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="V15" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="W15" s="123" t="s">
+      <c r="W15" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="X15" s="123" t="s">
+      <c r="X15" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="Z15" s="123" t="s">
+      <c r="Z15" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="AA15" s="123" t="s">
+      <c r="AA15" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="AC15" s="123" t="s">
+      <c r="AC15" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="AD15" s="123" t="s">
+      <c r="AD15" s="122" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C16" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="137" t="s">
+      <c r="C16" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="136" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -7470,7 +7410,7 @@
       <c r="F16" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="142" t="s">
+      <c r="H16" s="141" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="47">
@@ -7488,7 +7428,7 @@
       <c r="Q16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="148" t="s">
+      <c r="S16" s="147" t="s">
         <v>27</v>
       </c>
       <c r="T16" s="45">
@@ -7509,18 +7449,18 @@
       <c r="AA16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AC16" s="151" t="s">
+      <c r="AC16" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="AD16" s="133" t="s">
+      <c r="AD16" s="132" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C17" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="138" t="s">
+      <c r="C17" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -7529,16 +7469,16 @@
       <c r="L17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="113" t="s">
+      <c r="M17" s="112" t="s">
         <v>14</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" s="149" t="s">
+      <c r="Q17" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="148" t="s">
         <v>28</v>
       </c>
       <c r="T17" s="46">
@@ -7547,7 +7487,7 @@
       <c r="V17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="W17" s="113" t="s">
+      <c r="W17" s="112" t="s">
         <v>14</v>
       </c>
       <c r="X17" s="46">
@@ -7556,10 +7496,10 @@
       <c r="Z17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC17" s="144" t="s">
+      <c r="AA17" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="143" t="s">
         <v>30</v>
       </c>
       <c r="AD17" s="49" t="s">
@@ -7567,21 +7507,21 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C18" s="143" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
+      <c r="C18" s="142" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
       <c r="L18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="148" t="s">
+      <c r="M18" s="147" t="s">
         <v>27</v>
       </c>
       <c r="P18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="148" t="s">
+      <c r="Q18" s="147" t="s">
         <v>27</v>
       </c>
       <c r="R18" s="33" t="s">
@@ -7596,7 +7536,7 @@
       <c r="V18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="W18" s="148" t="s">
+      <c r="W18" s="147" t="s">
         <v>27</v>
       </c>
       <c r="X18" s="46">
@@ -7605,16 +7545,16 @@
       <c r="Z18" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AA18" s="148" t="s">
+      <c r="AA18" s="147" t="s">
         <v>27</v>
       </c>
       <c r="AB18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AC18" s="152" t="s">
+      <c r="AC18" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="AD18" s="153" t="s">
+      <c r="AD18" s="152" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7625,16 +7565,16 @@
       <c r="L19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="149" t="s">
+      <c r="M19" s="148" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="149" t="s">
+      <c r="Q19" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="145" t="s">
+      <c r="S19" s="144" t="s">
         <v>30</v>
       </c>
       <c r="T19" s="47">
@@ -7643,7 +7583,7 @@
       <c r="V19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="W19" s="149" t="s">
+      <c r="W19" s="148" t="s">
         <v>28</v>
       </c>
       <c r="X19" s="46">
@@ -7652,7 +7592,7 @@
       <c r="Z19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AA19" s="149" t="s">
+      <c r="AA19" s="148" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7690,26 +7630,26 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="159" t="s">
-        <v>293</v>
-      </c>
-      <c r="D21" s="159"/>
+      <c r="C21" s="158" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="158"/>
       <c r="L21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="144" t="s">
+      <c r="M21" s="143" t="s">
         <v>30</v>
       </c>
       <c r="P21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="144" t="s">
+      <c r="Q21" s="143" t="s">
         <v>30</v>
       </c>
       <c r="V21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W21" s="144" t="s">
+      <c r="W21" s="143" t="s">
         <v>30</v>
       </c>
       <c r="X21" s="46">
@@ -7718,60 +7658,60 @@
       <c r="Z21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AA21" s="144" t="s">
+      <c r="AA21" s="143" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="164" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="123" t="s">
+      <c r="B22" s="163" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="164"/>
+      <c r="D22" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="111" t="s">
+      <c r="H22" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="122" t="s">
         <v>129</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="M22" s="145" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="M22" s="144" t="s">
+        <v>279</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q22" s="145" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="Q22" s="144" t="s">
+        <v>279</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="W22" s="145" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="W22" s="144" t="s">
+        <v>279</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA22" s="145" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="AA22" s="144" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="122" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="45" t="s">
@@ -7797,7 +7737,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="122" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="46">
@@ -7812,7 +7752,7 @@
       <c r="G24" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="113" t="s">
+      <c r="H24" s="112" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="46">
@@ -7832,7 +7772,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="110" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -7844,32 +7784,32 @@
       <c r="F25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="142" t="s">
+      <c r="H25" s="141" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="47">
         <v>10</v>
       </c>
-      <c r="L25" s="123" t="s">
+      <c r="L25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="123" t="s">
+      <c r="M25" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="N25" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="P25" s="123" t="s">
+      <c r="N25" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="P25" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="Q25" s="123" t="s">
+      <c r="Q25" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="R25" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="S25" s="123" t="s">
-        <v>296</v>
+      <c r="R25" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="S25" s="122" t="s">
+        <v>290</v>
       </c>
       <c r="Z25" s="76"/>
     </row>
@@ -7877,20 +7817,20 @@
       <c r="L26" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="119" t="s">
+      <c r="M26" s="118" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="119" t="s">
+      <c r="Q26" s="118" t="s">
         <v>27</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>2</v>
@@ -7903,20 +7843,20 @@
       <c r="L27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="146" t="s">
+      <c r="M27" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="132" t="s">
-        <v>285</v>
+      <c r="N27" s="131" t="s">
+        <v>279</v>
       </c>
       <c r="P27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="146" t="s">
+      <c r="Q27" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="132" t="s">
-        <v>285</v>
+      <c r="R27" s="131" t="s">
+        <v>279</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>3</v>
@@ -7926,20 +7866,20 @@
       <c r="L28" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="120" t="s">
+      <c r="M28" s="119" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="120" t="s">
+      <c r="Q28" s="119" t="s">
         <v>28</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S28" s="46" t="s">
         <v>4</v>
@@ -7949,25 +7889,25 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L29" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="147" t="s">
+      <c r="L29" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="P29" s="127" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q29" s="147" t="s">
+      <c r="N29" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="P29" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="R29" s="131" t="s">
-        <v>285</v>
-      </c>
-      <c r="S29" s="132" t="s">
+      <c r="R29" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="S29" s="131" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7975,23 +7915,23 @@
       <c r="C30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L30" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="125" t="s">
+      <c r="L30" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="150" t="s">
-        <v>285</v>
-      </c>
-      <c r="P30" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="125" t="s">
+      <c r="N30" s="149" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="R30" s="150" t="s">
-        <v>285</v>
+      <c r="R30" s="149" t="s">
+        <v>279</v>
       </c>
       <c r="S30" s="46" t="s">
         <v>5</v>
@@ -8001,23 +7941,23 @@
       <c r="C31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L31" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="129" t="s">
+      <c r="L31" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="132" t="s">
-        <v>285</v>
-      </c>
-      <c r="P31" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q31" s="129" t="s">
+      <c r="N31" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="P31" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="132" t="s">
-        <v>285</v>
+      <c r="R31" s="131" t="s">
+        <v>279</v>
       </c>
       <c r="S31" s="46" t="s">
         <v>22</v>
@@ -8027,46 +7967,46 @@
       <c r="C32" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L32" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="130" t="s">
+      <c r="L32" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="129" t="s">
         <v>30</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="P32" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q32" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="P32" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="129" t="s">
         <v>30</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S32" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="L33" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="126" t="s">
+      <c r="L33" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="125" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="P33" s="118" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q33" s="126" t="s">
+        <v>279</v>
+      </c>
+      <c r="P33" s="117" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="125" t="s">
         <v>30</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S33" s="47" t="s">
         <v>6</v>
@@ -8074,14 +8014,14 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
+        <v>232</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
@@ -8096,7 +8036,7 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q38" s="68"/>
     </row>
@@ -8127,28 +8067,28 @@
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N43" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C44" s="91">
-        <v>13</v>
-      </c>
-      <c r="V44" s="91">
+      <c r="C44" s="90">
+        <v>13</v>
+      </c>
+      <c r="V44" s="90">
         <v>15</v>
       </c>
-      <c r="Z44" s="91">
+      <c r="Z44" s="90">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C45" s="90" t="s">
-        <v>214</v>
+      <c r="C45" s="89" t="s">
+        <v>211</v>
       </c>
       <c r="L45" s="75"/>
       <c r="M45" s="75"/>
       <c r="N45" s="75"/>
-      <c r="O45" s="92">
+      <c r="O45" s="91">
         <v>11</v>
       </c>
       <c r="P45" s="75"/>
@@ -8156,49 +8096,49 @@
       <c r="R45" s="75"/>
       <c r="S45" s="75"/>
       <c r="T45" s="75"/>
-      <c r="V45" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z45" s="90" t="s">
-        <v>221</v>
+      <c r="V45" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z45" s="89" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C46" s="90" t="s">
-        <v>327</v>
+      <c r="C46" s="89" t="s">
+        <v>321</v>
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
       <c r="N46" s="68"/>
-      <c r="O46" s="93" t="s">
-        <v>213</v>
+      <c r="O46" s="92" t="s">
+        <v>210</v>
       </c>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
       <c r="R46" s="68"/>
       <c r="S46" s="68"/>
       <c r="T46" s="68"/>
-      <c r="V46" s="90" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z46" s="90" t="s">
+      <c r="V46" s="89" t="s">
         <v>54</v>
+      </c>
+      <c r="Z46" s="89" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="O47" s="90" t="s">
-        <v>298</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="51" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N51" s="156"/>
-      <c r="O51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8212,12 +8152,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8230,38 +8170,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="M6" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="P6" s="122" t="s">
         <v>306</v>
-      </c>
-      <c r="E6" s="123" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="123" t="s">
-        <v>306</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="123" t="s">
-        <v>307</v>
-      </c>
-      <c r="K6" s="123" t="s">
-        <v>310</v>
-      </c>
-      <c r="L6" s="123" t="s">
-        <v>308</v>
-      </c>
-      <c r="M6" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="O6" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="P6" s="123" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -8293,7 +8233,7 @@
         <v>140</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P7" s="35">
         <v>23</v>
@@ -8328,7 +8268,7 @@
         <v>142.30000000000001</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P8" s="36">
         <v>12</v>
@@ -8363,7 +8303,7 @@
         <v>123.8</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P9" s="36">
         <v>9</v>
@@ -8398,72 +8338,70 @@
         <v>126</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P10" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O18" s="91">
+      <c r="O18" s="90">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" s="90">
+        <v>19</v>
+      </c>
+      <c r="O19" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="E19" s="91" t="s">
-        <v>319</v>
-      </c>
-      <c r="J19" s="91">
-        <v>19</v>
-      </c>
-      <c r="O19" s="90" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="90" t="s">
-        <v>317</v>
-      </c>
-      <c r="O20" s="90" t="s">
+      <c r="B20" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="O20" s="89" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="89"/>
+      <c r="E21" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="90" t="s">
-        <v>335</v>
+      <c r="J21" s="89" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8471,7 +8409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8485,7 +8423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:Q55"/>
   <sheetViews>
@@ -8515,31 +8453,31 @@
     <row r="28" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8549,7 +8487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:CW45"/>
   <sheetViews>
@@ -8615,7 +8553,7 @@
       <c r="AW7" s="68"/>
       <c r="AX7" s="68"/>
       <c r="AZ7" s="73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
@@ -8757,7 +8695,7 @@
       <c r="CK11" s="54"/>
       <c r="CL11" s="54"/>
       <c r="CO11" s="53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="CP11" s="54"/>
       <c r="CQ11" s="54"/>
@@ -8784,7 +8722,7 @@
       <c r="AK13" s="70"/>
       <c r="AL13" s="70"/>
       <c r="AM13" s="70"/>
-      <c r="AO13" s="96" t="s">
+      <c r="AO13" s="95" t="s">
         <v>95</v>
       </c>
       <c r="AP13" s="72" t="s">
@@ -8793,23 +8731,23 @@
       <c r="AQ13" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="AZ13" s="96" t="s">
+      <c r="AZ13" s="95" t="s">
         <v>12</v>
       </c>
       <c r="BA13" s="72" t="s">
         <v>96</v>
       </c>
       <c r="BB13" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC13" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC13" s="95" t="s">
         <v>95</v>
       </c>
       <c r="BD13" s="70"/>
       <c r="BE13" s="70"/>
       <c r="BF13" s="70"/>
       <c r="BG13" s="70"/>
-      <c r="BI13" s="96" t="s">
+      <c r="BI13" s="95" t="s">
         <v>12</v>
       </c>
       <c r="BJ13" s="72" t="s">
@@ -8818,14 +8756,14 @@
       <c r="BK13" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BL13" s="96" t="s">
+      <c r="BL13" s="95" t="s">
         <v>95</v>
       </c>
       <c r="BM13" s="70"/>
       <c r="BN13" s="70"/>
       <c r="BO13" s="70"/>
       <c r="BP13" s="70"/>
-      <c r="BR13" s="96" t="s">
+      <c r="BR13" s="95" t="s">
         <v>95</v>
       </c>
       <c r="BS13" s="72" t="s">
@@ -8837,15 +8775,15 @@
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+        <v>254</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
       <c r="M14" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
+        <v>244</v>
+      </c>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70"/>
       <c r="R14" s="70"/>
@@ -8853,15 +8791,15 @@
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
       <c r="X14" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AF14" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AF14" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="102"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="70"/>
       <c r="AK14" s="70"/>
@@ -8883,7 +8821,7 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
@@ -8917,37 +8855,37 @@
       <c r="BT14" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="BW14" s="96" t="s">
+      <c r="BW14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="BX14" s="96" t="s">
+      <c r="BX14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="BY14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CA14" s="96" t="s">
+      <c r="CA14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="CB14" s="96" t="s">
+      <c r="CB14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="CC14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CE14" s="96" t="s">
+      <c r="CE14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="CF14" s="96" t="s">
+      <c r="CF14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="CG14" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="CJ14" s="96" t="s">
+      <c r="CJ14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="CK14" s="96" t="s">
+      <c r="CK14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="CL14" s="72" t="s">
@@ -8956,10 +8894,10 @@
       <c r="CM14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="CO14" s="96" t="s">
+      <c r="CO14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="CP14" s="96" t="s">
+      <c r="CP14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="CQ14" s="72" t="s">
@@ -8968,10 +8906,10 @@
       <c r="CR14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="CT14" s="96" t="s">
+      <c r="CT14" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="CU14" s="96" t="s">
+      <c r="CU14" s="95" t="s">
         <v>95</v>
       </c>
       <c r="CV14" s="72" t="s">
@@ -9015,7 +8953,7 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
@@ -9151,7 +9089,7 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
@@ -9251,43 +9189,43 @@
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="102"/>
+        <v>249</v>
+      </c>
+      <c r="E17" s="101"/>
       <c r="F17" s="54"/>
       <c r="H17" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="I17" s="102"/>
+        <v>248</v>
+      </c>
+      <c r="I17" s="101"/>
       <c r="J17" s="54"/>
       <c r="M17" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="N17" s="102"/>
+        <v>249</v>
+      </c>
+      <c r="N17" s="101"/>
       <c r="Q17" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="R17" s="102"/>
+        <v>248</v>
+      </c>
+      <c r="R17" s="101"/>
       <c r="X17" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y17" s="102"/>
+        <v>249</v>
+      </c>
+      <c r="Y17" s="101"/>
       <c r="Z17" s="54"/>
       <c r="AB17" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC17" s="102"/>
+        <v>248</v>
+      </c>
+      <c r="AC17" s="101"/>
       <c r="AD17" s="54"/>
       <c r="AE17" s="70"/>
       <c r="AF17" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="AG17" s="102"/>
+        <v>249</v>
+      </c>
+      <c r="AG17" s="101"/>
       <c r="AH17" s="54"/>
       <c r="AJ17" s="60" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK17" s="102"/>
+        <v>248</v>
+      </c>
+      <c r="AK17" s="101"/>
       <c r="AL17" s="54"/>
       <c r="AM17" s="70"/>
       <c r="AO17" s="34" t="s">
@@ -9306,7 +9244,7 @@
         <v>103</v>
       </c>
       <c r="BB17" s="57" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
@@ -9402,11 +9340,11 @@
       <c r="AP18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="BI18" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="BR18" s="89" t="s">
-        <v>249</v>
+      <c r="BI18" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR18" s="88" t="s">
+        <v>243</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -9427,7 +9365,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -9455,13 +9393,13 @@
       </c>
     </row>
     <row r="19" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X19" s="96" t="s">
+      <c r="X19" s="95" t="s">
         <v>12</v>
       </c>
       <c r="Y19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="Z19" s="96" t="s">
+      <c r="Z19" s="95" t="s">
         <v>95</v>
       </c>
       <c r="AB19" s="18" t="s">
@@ -9473,13 +9411,13 @@
       <c r="AD19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AF19" s="96" t="s">
+      <c r="AF19" s="95" t="s">
         <v>12</v>
       </c>
       <c r="AG19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AH19" s="96" t="s">
+      <c r="AH19" s="95" t="s">
         <v>95</v>
       </c>
       <c r="AJ19" s="18" t="s">
@@ -9491,13 +9429,13 @@
       <c r="AL19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AP19" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ19" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR19" s="99" t="s">
+      <c r="AP19" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ19" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR19" s="98" t="s">
         <v>15</v>
       </c>
       <c r="BW19" s="34" t="s">
@@ -9544,13 +9482,13 @@
       </c>
     </row>
     <row r="20" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="95" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="95" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="18" t="s">
@@ -9619,7 +9557,7 @@
       <c r="AN20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AO20" s="97" t="s">
+      <c r="AO20" s="96" t="s">
         <v>13</v>
       </c>
       <c r="AP20" s="45" t="s">
@@ -9632,10 +9570,10 @@
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9660,23 +9598,23 @@
       </c>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
-      <c r="M21" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="103" t="s">
+      <c r="M21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="103" t="s">
+      <c r="O21" s="102" t="s">
         <v>2</v>
       </c>
       <c r="P21" s="58"/>
-      <c r="Q21" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="R21" s="103" t="s">
+      <c r="Q21" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="S21" s="103" t="s">
+      <c r="S21" s="102" t="s">
         <v>2</v>
       </c>
       <c r="T21" s="58"/>
@@ -9718,7 +9656,7 @@
       <c r="AL21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AO21" s="100" t="s">
+      <c r="AO21" s="99" t="s">
         <v>14</v>
       </c>
       <c r="AP21" s="46">
@@ -9731,7 +9669,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="BC21" s="58"/>
       <c r="BD21" s="58"/>
@@ -9745,7 +9683,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9767,22 +9705,22 @@
       <c r="J22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="104" t="s">
+      <c r="M22" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="104" t="s">
+      <c r="O22" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="104" t="s">
+      <c r="Q22" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="104">
+      <c r="S22" s="103">
         <v>12</v>
       </c>
       <c r="X22" s="30" t="s">
@@ -9806,8 +9744,8 @@
       <c r="AF22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AG22" s="109" t="s">
-        <v>267</v>
+      <c r="AG22" s="108" t="s">
+        <v>261</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9821,7 +9759,7 @@
       <c r="AL22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AO22" s="101" t="s">
+      <c r="AO22" s="100" t="s">
         <v>15</v>
       </c>
       <c r="AP22" s="47">
@@ -9834,7 +9772,7 @@
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="BW22" s="58" t="s">
         <v>120</v>
@@ -9843,7 +9781,7 @@
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9865,22 +9803,22 @@
       <c r="J23" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="104" t="s">
-        <v>251</v>
-      </c>
-      <c r="O23" s="104" t="s">
+      <c r="M23" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="O23" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="R23" s="104" t="s">
+      <c r="Q23" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="104" t="s">
+      <c r="S23" s="103" t="s">
         <v>4</v>
       </c>
       <c r="X23" s="34" t="s">
@@ -9947,22 +9885,22 @@
       <c r="J24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="105" t="s">
+      <c r="M24" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="105" t="s">
+      <c r="O24" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="S24" s="104" t="s">
+      <c r="Q24" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="S24" s="103" t="s">
         <v>2</v>
       </c>
       <c r="AB24" s="30" t="s">
@@ -9977,7 +9915,7 @@
       <c r="AF24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AG24" s="110" t="s">
+      <c r="AG24" s="109" t="s">
         <v>30</v>
       </c>
       <c r="AH24" s="6" t="s">
@@ -9987,13 +9925,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -10006,7 +9944,7 @@
       <c r="E25" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="106"/>
+      <c r="G25" s="105"/>
       <c r="H25" s="30" t="s">
         <v>14</v>
       </c>
@@ -10016,23 +9954,23 @@
       <c r="J25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="106"/>
-      <c r="M25" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="O25" s="105" t="s">
+      <c r="K25" s="105"/>
+      <c r="M25" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="105" t="s">
+      <c r="Q25" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="S25" s="105" t="s">
+      <c r="S25" s="104" t="s">
         <v>5</v>
       </c>
       <c r="AB25" s="30" t="s">
@@ -10048,7 +9986,7 @@
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -10057,13 +9995,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -10086,31 +10024,31 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="O26" s="105" t="s">
+      <c r="M26" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="105" t="s">
+      <c r="Q26" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="105" t="s">
+      <c r="S26" s="104" t="s">
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AB26" s="30" t="s">
         <v>14</v>
@@ -10131,7 +10069,7 @@
         <v>5</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10149,28 +10087,28 @@
         <v>14</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>6</v>
       </c>
       <c r="K27" s="70"/>
-      <c r="M27" s="107" t="s">
+      <c r="M27" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="107" t="s">
+      <c r="N27" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="O27" s="107" t="s">
+      <c r="O27" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="S27" s="105" t="s">
+      <c r="Q27" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="S27" s="104" t="s">
         <v>6</v>
       </c>
       <c r="AB27" s="34" t="s">
@@ -10192,7 +10130,7 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10210,29 +10148,29 @@
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
       <c r="K28" s="70"/>
-      <c r="M28" s="107" t="s">
+      <c r="M28" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="O28" s="107" t="s">
+      <c r="N28" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="105" t="s">
-        <v>253</v>
-      </c>
-      <c r="S28" s="105" t="s">
+      <c r="Q28" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="S28" s="104" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AJ28" s="30" t="s">
         <v>14</v>
@@ -10244,10 +10182,10 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BY28" s="58" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10256,22 +10194,22 @@
       <c r="I29" s="70"/>
       <c r="J29" s="70"/>
       <c r="K29" s="70"/>
-      <c r="M29" s="107" t="s">
+      <c r="M29" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="N29" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="O29" s="107" t="s">
+      <c r="N29" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="105" t="s">
-        <v>251</v>
-      </c>
-      <c r="S29" s="105" t="s">
+      <c r="Q29" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="S29" s="104" t="s">
         <v>6</v>
       </c>
       <c r="AJ29" s="30" t="s">
@@ -10284,56 +10222,56 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
       <c r="I30" s="70"/>
       <c r="J30" s="70"/>
       <c r="K30" s="70"/>
-      <c r="M30" s="108" t="s">
+      <c r="M30" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="O30" s="108" t="s">
+      <c r="N30" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="107" t="s">
+      <c r="Q30" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R30" s="107" t="s">
+      <c r="R30" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="S30" s="107" t="s">
+      <c r="S30" s="106" t="s">
         <v>5</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
@@ -10345,26 +10283,26 @@
       <c r="I31" s="70"/>
       <c r="J31" s="70"/>
       <c r="K31" s="70"/>
-      <c r="Q31" s="107" t="s">
+      <c r="Q31" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="S31" s="107" t="s">
+      <c r="R31" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="S31" s="106" t="s">
         <v>6</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -10372,25 +10310,25 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q32" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q32" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R32" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="S32" s="107" t="s">
+      <c r="R32" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="S32" s="106" t="s">
         <v>6</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>99</v>
@@ -10399,7 +10337,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -10409,13 +10347,13 @@
       </c>
     </row>
     <row r="33" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q33" s="107" t="s">
+      <c r="Q33" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="S33" s="107" t="s">
+      <c r="R33" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="S33" s="106" t="s">
         <v>6</v>
       </c>
       <c r="AF33" s="1" t="s">
@@ -10425,7 +10363,7 @@
         <v>14</v>
       </c>
       <c r="AK33" s="34" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL33" s="34" t="s">
         <v>6</v>
@@ -10433,18 +10371,18 @@
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q34" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q34" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R34" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="S34" s="108" t="s">
+      <c r="R34" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="S34" s="107" t="s">
         <v>6</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -10464,16 +10402,16 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10481,7 +10419,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -10489,21 +10427,21 @@
     </row>
     <row r="38" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BT39" s="95" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+      <c r="BT39" s="94" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -10513,7 +10451,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -10526,7 +10464,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38860" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-38860" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Num" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="341">
   <si>
     <t>Variable 1</t>
   </si>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>storySeveralNumOrder</t>
-  </si>
-  <si>
-    <t>storySeveralNum</t>
   </si>
   <si>
     <t>Story1num1cat</t>
@@ -1051,9 +1048,6 @@
     <t>People tip</t>
   </si>
   <si>
-    <t>Should use MTCARS?</t>
-  </si>
-  <si>
     <t>Baby Names</t>
   </si>
   <si>
@@ -1061,6 +1055,18 @@
   </si>
   <si>
     <t>ListGPSCoordinates</t>
+  </si>
+  <si>
+    <t>Where surger live</t>
+  </si>
+  <si>
+    <t>UK cities</t>
+  </si>
+  <si>
+    <t>OneCatSevNumNoOrder</t>
+  </si>
+  <si>
+    <t>Gender wage gap</t>
   </si>
 </sst>
 </file>
@@ -3839,8 +3845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AJ48" sqref="AJ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4005,7 +4011,7 @@
         <v>144</v>
       </c>
       <c r="AG15" s="110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI15" s="110" t="s">
         <v>95</v>
@@ -4020,7 +4026,7 @@
         <v>144</v>
       </c>
       <c r="AM15" s="110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="3:39" x14ac:dyDescent="0.2">
@@ -4070,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI16" s="6" t="s">
         <v>2</v>
@@ -4085,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
@@ -4135,7 +4141,7 @@
         <v>8</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI17" s="6" t="s">
         <v>3</v>
@@ -4150,7 +4156,7 @@
         <v>8</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
@@ -4200,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI18" s="6" t="s">
         <v>4</v>
@@ -4215,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
@@ -4265,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI19" s="6" t="s">
         <v>5</v>
@@ -4280,77 +4286,77 @@
         <v>10</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AJ20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AK20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM20" s="111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
       <c r="H21" s="88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I21" s="88"/>
       <c r="J21" s="88"/>
@@ -4444,7 +4450,7 @@
         <v>142</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="3:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4501,7 +4507,7 @@
     </row>
     <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AB37" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN37" s="87"/>
     </row>
@@ -4509,7 +4515,10 @@
       <c r="C40" s="90">
         <v>1</v>
       </c>
-      <c r="I40" s="90">
+      <c r="H40" s="90">
+        <v>2</v>
+      </c>
+      <c r="K40" s="90">
         <v>2</v>
       </c>
       <c r="P40" s="90">
@@ -4522,17 +4531,21 @@
         <v>5</v>
       </c>
       <c r="AI40" s="90">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C41" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="89" t="s">
+      <c r="H41" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="J41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="K41" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="89"/>
       <c r="P41" s="89" t="s">
         <v>194</v>
       </c>
@@ -4544,43 +4557,47 @@
         <v>198</v>
       </c>
       <c r="AI41" s="89" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C42" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="I42" s="89" t="s">
-        <v>325</v>
-      </c>
-      <c r="J42" s="89"/>
+        <v>277</v>
+      </c>
+      <c r="H42" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="I42" s="89"/>
+      <c r="K42" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="L42" s="89"/>
       <c r="P42" s="89" t="s">
         <v>195</v>
       </c>
       <c r="Q42" s="89"/>
       <c r="U42" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB42" s="89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI42" s="89" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4599,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="O41" sqref="O40:O41"/>
+    <sheetView topLeftCell="A22" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4631,7 +4648,7 @@
       <c r="D9" s="59"/>
       <c r="E9" s="54"/>
       <c r="H9" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" s="59"/>
       <c r="J9" s="54"/>
@@ -4683,10 +4700,10 @@
         <v>13</v>
       </c>
       <c r="H14" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="110" t="s">
         <v>214</v>
-      </c>
-      <c r="J14" s="110" t="s">
-        <v>215</v>
       </c>
       <c r="L14" s="110" t="s">
         <v>95</v>
@@ -4796,7 +4813,7 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>154</v>
@@ -4825,10 +4842,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="H19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L19" s="112" t="s">
         <v>14</v>
@@ -4854,22 +4871,22 @@
         <v>188</v>
       </c>
       <c r="L20" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R20" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S20" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
@@ -4953,7 +4970,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>25</v>
@@ -4984,7 +5001,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O34" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
@@ -5006,41 +5023,41 @@
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H40" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L40" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="O40" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="R40" s="89" t="s">
         <v>210</v>
-      </c>
-      <c r="O40" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="R40" s="89" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="89" t="s">
+        <v>318</v>
+      </c>
+      <c r="H41" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="H41" s="89" t="s">
-        <v>320</v>
-      </c>
       <c r="L41" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O41" s="89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R41" s="89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="R42" s="89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
@@ -5736,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="AS57" sqref="AS57"/>
+    <sheetView topLeftCell="M14" workbookViewId="0">
+      <selection activeCell="AL45" sqref="AL45:AN47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5788,7 +5805,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="54"/>
       <c r="O9" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
@@ -5812,7 +5829,7 @@
       <c r="AI9" s="54"/>
       <c r="AJ9" s="68"/>
       <c r="AL9" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
@@ -5895,22 +5912,22 @@
     </row>
     <row r="16" spans="3:51" ht="26" x14ac:dyDescent="0.3">
       <c r="O16" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="S16" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
       <c r="AA16" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB16" s="54"/>
       <c r="AC16" s="54"/>
@@ -5944,7 +5961,7 @@
         <v>113</v>
       </c>
       <c r="AO17" s="122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ17" s="122" t="s">
         <v>12</v>
@@ -5956,7 +5973,7 @@
         <v>113</v>
       </c>
       <c r="AT17" s="122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV17" s="122" t="s">
         <v>12</v>
@@ -5968,7 +5985,7 @@
         <v>113</v>
       </c>
       <c r="AY17" s="122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.2">
@@ -6000,7 +6017,7 @@
         <v>7</v>
       </c>
       <c r="AO18" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ18" s="48" t="s">
         <v>13</v>
@@ -6012,7 +6029,7 @@
         <v>7</v>
       </c>
       <c r="AT18" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV18" s="48" t="s">
         <v>13</v>
@@ -6024,7 +6041,7 @@
         <v>7</v>
       </c>
       <c r="AY18" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.2">
@@ -6059,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="AO19" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ19" s="48" t="s">
         <v>13</v>
@@ -6071,7 +6088,7 @@
         <v>8</v>
       </c>
       <c r="AT19" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV19" s="112" t="s">
         <v>14</v>
@@ -6083,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="AY19" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.2">
@@ -6115,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="AO20" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ20" s="48" t="s">
         <v>13</v>
@@ -6127,7 +6144,7 @@
         <v>9</v>
       </c>
       <c r="AT20" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV20" s="113" t="s">
         <v>15</v>
@@ -6139,21 +6156,21 @@
         <v>98</v>
       </c>
       <c r="AY20" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D21" s="116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I21" s="112" t="s">
         <v>14</v>
@@ -6199,10 +6216,10 @@
         <v>95</v>
       </c>
       <c r="AE21" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF21" s="122" t="s">
         <v>284</v>
-      </c>
-      <c r="AF21" s="122" t="s">
-        <v>285</v>
       </c>
       <c r="AG21" s="122" t="s">
         <v>95</v>
@@ -6217,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="AO21" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ21" s="112" t="s">
         <v>14</v>
@@ -6229,19 +6246,19 @@
         <v>10</v>
       </c>
       <c r="AT21" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AW21" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AX21" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AY21" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.2">
@@ -6274,7 +6291,7 @@
         <v>13</v>
       </c>
       <c r="X22" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y22" s="78" t="s">
         <v>2</v>
@@ -6284,7 +6301,7 @@
         <v>13</v>
       </c>
       <c r="AB22" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC22" s="45" t="s">
         <v>2</v>
@@ -6308,7 +6325,7 @@
         <v>10</v>
       </c>
       <c r="AO22" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ22" s="112" t="s">
         <v>14</v>
@@ -6320,21 +6337,21 @@
         <v>10</v>
       </c>
       <c r="AT22" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.2">
       <c r="I23" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O23" s="81" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
@@ -6353,7 +6370,7 @@
         <v>13</v>
       </c>
       <c r="X23" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
@@ -6363,7 +6380,7 @@
         <v>13</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC23" s="46" t="s">
         <v>3</v>
@@ -6378,28 +6395,28 @@
         <v>2</v>
       </c>
       <c r="AL23" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM23" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AN23" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AO23" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ23" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR23" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AS23" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AT23" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AV23" s="1" t="s">
         <v>126</v>
@@ -6423,7 +6440,7 @@
         <v>13</v>
       </c>
       <c r="T24" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U24" s="46" t="s">
         <v>4</v>
@@ -6432,7 +6449,7 @@
         <v>14</v>
       </c>
       <c r="X24" s="112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>5</v>
@@ -6442,7 +6459,7 @@
         <v>13</v>
       </c>
       <c r="AB24" s="133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC24" s="46" t="s">
         <v>4</v>
@@ -6465,7 +6482,7 @@
         <v>14</v>
       </c>
       <c r="P25" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>6</v>
@@ -6484,7 +6501,7 @@
         <v>14</v>
       </c>
       <c r="X25" s="112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y25" s="3">
         <v>3.2</v>
@@ -6494,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="AB25" s="126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC25" s="131" t="s">
         <v>23</v>
@@ -6523,13 +6540,13 @@
         <v>21</v>
       </c>
       <c r="O26" s="123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S26" s="112" t="s">
         <v>14</v>
@@ -6541,19 +6558,19 @@
         <v>6</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y26" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA26" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AB26" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC26" s="46" t="s">
         <v>5</v>
@@ -6568,7 +6585,7 @@
         <v>140</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AV26" s="1" t="s">
         <v>109</v>
@@ -6591,7 +6608,7 @@
         <v>14</v>
       </c>
       <c r="T27" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U27" s="46" t="s">
         <v>5</v>
@@ -6600,13 +6617,13 @@
         <v>14</v>
       </c>
       <c r="AB27" s="128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
       <c r="AE27" s="158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF27" s="158"/>
       <c r="AL27" s="58" t="s">
@@ -6624,25 +6641,25 @@
         <v>89</v>
       </c>
       <c r="S28" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T28" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U28" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA28" s="112" t="s">
         <v>14</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
       <c r="AD28" s="156" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE28" s="157"/>
       <c r="AF28" s="122" t="s">
@@ -6677,7 +6694,7 @@
         <v>14</v>
       </c>
       <c r="AB29" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC29" s="47" t="s">
         <v>6</v>
@@ -6695,10 +6712,10 @@
         <v>1.3</v>
       </c>
       <c r="AL29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM29" s="94" t="s">
         <v>235</v>
-      </c>
-      <c r="AM29" s="94" t="s">
-        <v>236</v>
       </c>
       <c r="AQ29" s="1" t="s">
         <v>118</v>
@@ -6759,7 +6776,7 @@
         <v>32</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV31" s="1" t="s">
         <v>104</v>
@@ -6779,10 +6796,10 @@
         <v>88</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AV32" s="1" t="s">
         <v>105</v>
@@ -6797,7 +6814,7 @@
         <v>78</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>163</v>
@@ -6809,19 +6826,19 @@
         <v>24</v>
       </c>
       <c r="AA34" s="58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN34" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AV34" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="4:48" x14ac:dyDescent="0.2">
@@ -6829,13 +6846,13 @@
         <v>25</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AV35" s="68"/>
     </row>
@@ -6850,10 +6867,10 @@
         <v>99</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF37" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG37" s="94"/>
     </row>
@@ -6875,7 +6892,7 @@
     </row>
     <row r="40" spans="4:48" x14ac:dyDescent="0.2">
       <c r="O40" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
@@ -6989,10 +7006,9 @@
       <c r="AE45" s="90">
         <v>13</v>
       </c>
-      <c r="AL45" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM45" s="70"/>
+      <c r="AL45" s="90">
+        <v>6</v>
+      </c>
       <c r="AQ45" s="90">
         <v>5</v>
       </c>
@@ -7002,75 +7018,77 @@
     </row>
     <row r="46" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D46" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="89" t="s">
-        <v>201</v>
-      </c>
       <c r="O46" s="89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S46" s="89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W46" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA46" s="89" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE46" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="AA46" s="89" t="s">
-        <v>323</v>
-      </c>
-      <c r="AE46" s="89" t="s">
-        <v>211</v>
-      </c>
       <c r="AH46" s="89"/>
-      <c r="AL46" s="89" t="s">
-        <v>335</v>
+      <c r="AL46" s="90" t="s">
+        <v>339</v>
       </c>
       <c r="AM46" s="70"/>
       <c r="AQ46" s="89" t="s">
         <v>198</v>
       </c>
       <c r="AV46" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="4:48" x14ac:dyDescent="0.2">
       <c r="D47" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>323</v>
+      </c>
+      <c r="O47" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="S47" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="W47" s="89" t="s">
         <v>291</v>
-      </c>
-      <c r="I47" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="O47" s="89" t="s">
-        <v>333</v>
-      </c>
-      <c r="S47" s="89" t="s">
-        <v>334</v>
-      </c>
-      <c r="W47" s="89" t="s">
-        <v>292</v>
       </c>
       <c r="AA47" s="89" t="s">
         <v>32</v>
       </c>
       <c r="AE47" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AH47" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL47" s="89"/>
+        <v>294</v>
+      </c>
+      <c r="AL47" s="89" t="s">
+        <v>328</v>
+      </c>
       <c r="AM47" s="70"/>
       <c r="AQ47" s="89" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AV47" s="89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="4:48" x14ac:dyDescent="0.2">
       <c r="AE48" s="153" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM48" s="70"/>
     </row>
@@ -7079,16 +7097,16 @@
     </row>
     <row r="50" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE50" s="153" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM50" s="70"/>
     </row>
     <row r="51" spans="26:39" x14ac:dyDescent="0.2">
       <c r="AE51" s="153" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH51" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="AH51" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="61" spans="26:39" x14ac:dyDescent="0.2">
@@ -7183,7 +7201,7 @@
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
       <c r="H3" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" s="160"/>
       <c r="J3" s="160"/>
@@ -7233,7 +7251,7 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="L9" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="54"/>
@@ -7274,7 +7292,7 @@
       <c r="S12" s="54"/>
       <c r="T12" s="54"/>
       <c r="V12" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W12" s="54"/>
       <c r="X12" s="54"/>
@@ -7288,10 +7306,10 @@
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C13" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="122" t="s">
         <v>284</v>
-      </c>
-      <c r="D13" s="122" t="s">
-        <v>285</v>
       </c>
       <c r="E13" s="122" t="s">
         <v>95</v>
@@ -7373,7 +7391,7 @@
         <v>171</v>
       </c>
       <c r="T15" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V15" s="122" t="s">
         <v>66</v>
@@ -7508,7 +7526,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C18" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="142"/>
       <c r="E18" s="142"/>
@@ -7631,7 +7649,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21" s="158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="158"/>
       <c r="L21" s="49" t="s">
@@ -7664,7 +7682,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B22" s="163" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" s="164"/>
       <c r="D22" s="122" t="s">
@@ -7683,31 +7701,31 @@
         <v>129</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M22" s="144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W22" s="144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X22" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA22" s="144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
@@ -7797,7 +7815,7 @@
         <v>96</v>
       </c>
       <c r="N25" s="122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P25" s="122" t="s">
         <v>12</v>
@@ -7806,10 +7824,10 @@
         <v>96</v>
       </c>
       <c r="R25" s="122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S25" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z25" s="76"/>
     </row>
@@ -7821,7 +7839,7 @@
         <v>27</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P26" s="51" t="s">
         <v>13</v>
@@ -7830,7 +7848,7 @@
         <v>27</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S26" s="45" t="s">
         <v>2</v>
@@ -7847,7 +7865,7 @@
         <v>27</v>
       </c>
       <c r="N27" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P27" s="48" t="s">
         <v>13</v>
@@ -7856,7 +7874,7 @@
         <v>27</v>
       </c>
       <c r="R27" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S27" s="46" t="s">
         <v>3</v>
@@ -7870,7 +7888,7 @@
         <v>28</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>13</v>
@@ -7879,7 +7897,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S28" s="46" t="s">
         <v>4</v>
@@ -7896,7 +7914,7 @@
         <v>28</v>
       </c>
       <c r="N29" s="130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P29" s="126" t="s">
         <v>13</v>
@@ -7905,7 +7923,7 @@
         <v>28</v>
       </c>
       <c r="R29" s="130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S29" s="131" t="s">
         <v>23</v>
@@ -7922,7 +7940,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="149" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P30" s="112" t="s">
         <v>14</v>
@@ -7931,7 +7949,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="149" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S30" s="46" t="s">
         <v>5</v>
@@ -7948,7 +7966,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P31" s="112" t="s">
         <v>14</v>
@@ -7957,7 +7975,7 @@
         <v>29</v>
       </c>
       <c r="R31" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S31" s="46" t="s">
         <v>22</v>
@@ -7974,7 +7992,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P32" s="112" t="s">
         <v>14</v>
@@ -7983,7 +8001,7 @@
         <v>30</v>
       </c>
       <c r="R32" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S32" s="46" t="s">
         <v>2</v>
@@ -7997,7 +8015,7 @@
         <v>30</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P33" s="117" t="s">
         <v>14</v>
@@ -8006,7 +8024,7 @@
         <v>30</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S33" s="47" t="s">
         <v>6</v>
@@ -8014,10 +8032,10 @@
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="94"/>
       <c r="F34" s="94"/>
@@ -8036,7 +8054,7 @@
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="68"/>
     </row>
@@ -8067,7 +8085,7 @@
     </row>
     <row r="43" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N43" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.2">
@@ -8083,7 +8101,7 @@
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C45" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L45" s="75"/>
       <c r="M45" s="75"/>
@@ -8097,21 +8115,21 @@
       <c r="S45" s="75"/>
       <c r="T45" s="75"/>
       <c r="V45" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z45" s="89" t="s">
         <v>217</v>
-      </c>
-      <c r="Z45" s="89" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C46" s="89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L46" s="68"/>
       <c r="M46" s="68"/>
       <c r="N46" s="68"/>
       <c r="O46" s="92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
@@ -8122,18 +8140,18 @@
         <v>54</v>
       </c>
       <c r="Z46" s="89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O47" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="14:15" x14ac:dyDescent="0.2">
@@ -8156,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8171,37 +8189,37 @@
   <sheetData>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="122" t="s">
-        <v>300</v>
-      </c>
       <c r="E6" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" s="122" t="s">
         <v>299</v>
-      </c>
-      <c r="F6" s="122" t="s">
-        <v>300</v>
       </c>
       <c r="G6" s="122" t="s">
         <v>129</v>
       </c>
       <c r="J6" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="122" t="s">
         <v>301</v>
       </c>
-      <c r="K6" s="122" t="s">
+      <c r="M6" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="O6" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="L6" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="M6" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="O6" s="122" t="s">
+      <c r="P6" s="122" t="s">
         <v>305</v>
-      </c>
-      <c r="P6" s="122" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -8233,7 +8251,7 @@
         <v>140</v>
       </c>
       <c r="O7" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P7" s="35">
         <v>23</v>
@@ -8268,7 +8286,7 @@
         <v>142.30000000000001</v>
       </c>
       <c r="O8" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P8" s="36">
         <v>12</v>
@@ -8303,7 +8321,7 @@
         <v>123.8</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P9" s="36">
         <v>9</v>
@@ -8338,70 +8356,68 @@
         <v>126</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P10" s="37">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="O18" s="90">
-        <v>20</v>
-      </c>
-    </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="90" t="s">
         <v>312</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>313</v>
       </c>
       <c r="J19" s="90">
         <v>19</v>
       </c>
-      <c r="O19" s="89" t="s">
-        <v>318</v>
+      <c r="O19" s="90">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="E20" s="89" t="s">
-        <v>218</v>
-      </c>
       <c r="J20" s="89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O20" s="89" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="89"/>
+      <c r="J21" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="O21" s="89" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="89"/>
-      <c r="E21" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8453,31 +8469,31 @@
     <row r="28" spans="1:1" s="54" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P44" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q45" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="26" x14ac:dyDescent="0.3">
       <c r="A46" s="82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q47" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" s="75" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8553,7 +8569,7 @@
       <c r="AW7" s="68"/>
       <c r="AX7" s="68"/>
       <c r="AZ7" s="73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
@@ -8695,7 +8711,7 @@
       <c r="CK11" s="54"/>
       <c r="CL11" s="54"/>
       <c r="CO11" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CP11" s="54"/>
       <c r="CQ11" s="54"/>
@@ -8738,7 +8754,7 @@
         <v>96</v>
       </c>
       <c r="BB13" s="72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BC13" s="95" t="s">
         <v>95</v>
@@ -8775,12 +8791,12 @@
     </row>
     <row r="14" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D14" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="101"/>
       <c r="M14" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N14" s="101"/>
       <c r="O14" s="101"/>
@@ -8791,12 +8807,12 @@
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
       <c r="X14" s="60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y14" s="101"/>
       <c r="Z14" s="101"/>
       <c r="AF14" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG14" s="101"/>
       <c r="AH14" s="101"/>
@@ -8821,7 +8837,7 @@
         <v>102</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BC14" s="18" t="s">
         <v>2</v>
@@ -8953,7 +8969,7 @@
         <v>103</v>
       </c>
       <c r="BB15" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>4</v>
@@ -9089,7 +9105,7 @@
         <v>102</v>
       </c>
       <c r="BB16" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BC16" s="6" t="s">
         <v>5</v>
@@ -9189,41 +9205,41 @@
     </row>
     <row r="17" spans="4:101" ht="24" x14ac:dyDescent="0.3">
       <c r="D17" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" s="101"/>
       <c r="F17" s="54"/>
       <c r="H17" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I17" s="101"/>
       <c r="J17" s="54"/>
       <c r="M17" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N17" s="101"/>
       <c r="Q17" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R17" s="101"/>
       <c r="X17" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y17" s="101"/>
       <c r="Z17" s="54"/>
       <c r="AB17" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC17" s="101"/>
       <c r="AD17" s="54"/>
       <c r="AE17" s="70"/>
       <c r="AF17" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG17" s="101"/>
       <c r="AH17" s="54"/>
       <c r="AJ17" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK17" s="101"/>
       <c r="AL17" s="54"/>
@@ -9244,7 +9260,7 @@
         <v>103</v>
       </c>
       <c r="BB17" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BC17" s="7" t="s">
         <v>6</v>
@@ -9341,10 +9357,10 @@
         <v>35</v>
       </c>
       <c r="BI18" s="88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BR18" s="88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BW18" s="30" t="s">
         <v>14</v>
@@ -9365,7 +9381,7 @@
         <v>10</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CO18" s="30" t="s">
         <v>14</v>
@@ -9570,10 +9586,10 @@
         <v>1.3</v>
       </c>
       <c r="AZ20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9669,7 +9685,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AZ21" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BC21" s="58"/>
       <c r="BD21" s="58"/>
@@ -9683,7 +9699,7 @@
         <v>116</v>
       </c>
       <c r="CP21" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9745,7 +9761,7 @@
         <v>13</v>
       </c>
       <c r="AG22" s="108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>4</v>
@@ -9772,7 +9788,7 @@
         <v>32</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BW22" s="58" t="s">
         <v>120</v>
@@ -9781,7 +9797,7 @@
         <v>140</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9807,7 +9823,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O23" s="103" t="s">
         <v>2</v>
@@ -9898,7 +9914,7 @@
         <v>13</v>
       </c>
       <c r="R24" s="103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S24" s="103" t="s">
         <v>2</v>
@@ -9925,13 +9941,13 @@
         <v>13</v>
       </c>
       <c r="AK24" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL24" s="29" t="s">
         <v>4</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CA24" s="1" t="s">
         <v>60</v>
@@ -9959,7 +9975,7 @@
         <v>14</v>
       </c>
       <c r="N25" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O25" s="104" t="s">
         <v>6</v>
@@ -9986,7 +10002,7 @@
         <v>14</v>
       </c>
       <c r="AG25" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH25" s="7" t="s">
         <v>6</v>
@@ -9995,13 +10011,13 @@
         <v>13</v>
       </c>
       <c r="AK25" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CA25" s="1" t="s">
         <v>118</v>
@@ -10024,7 +10040,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>5</v>
@@ -10033,7 +10049,7 @@
         <v>14</v>
       </c>
       <c r="N26" s="104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O26" s="104" t="s">
         <v>6</v>
@@ -10048,7 +10064,7 @@
         <v>6</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB26" s="30" t="s">
         <v>14</v>
@@ -10069,7 +10085,7 @@
         <v>5</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10087,7 +10103,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>6</v>
@@ -10106,7 +10122,7 @@
         <v>14</v>
       </c>
       <c r="R27" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S27" s="104" t="s">
         <v>6</v>
@@ -10130,7 +10146,7 @@
         <v>5</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10152,7 +10168,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O28" s="106" t="s">
         <v>6</v>
@@ -10161,16 +10177,16 @@
         <v>14</v>
       </c>
       <c r="R28" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S28" s="104" t="s">
         <v>6</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AJ28" s="30" t="s">
         <v>14</v>
@@ -10182,10 +10198,10 @@
         <v>5</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BY28" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10198,7 +10214,7 @@
         <v>15</v>
       </c>
       <c r="N29" s="106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O29" s="106" t="s">
         <v>6</v>
@@ -10207,7 +10223,7 @@
         <v>14</v>
       </c>
       <c r="R29" s="104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S29" s="104" t="s">
         <v>6</v>
@@ -10222,15 +10238,15 @@
         <v>5</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
@@ -10241,7 +10257,7 @@
         <v>15</v>
       </c>
       <c r="N30" s="107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O30" s="107" t="s">
         <v>6</v>
@@ -10259,19 +10275,19 @@
         <v>99</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AJ30" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK30" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="CO30" s="1" t="s">
         <v>115</v>
@@ -10287,7 +10303,7 @@
         <v>15</v>
       </c>
       <c r="R31" s="106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S31" s="106" t="s">
         <v>6</v>
@@ -10296,13 +10312,13 @@
         <v>82</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ31" s="30" t="s">
         <v>14</v>
       </c>
       <c r="AK31" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL31" s="30" t="s">
         <v>6</v>
@@ -10310,16 +10326,16 @@
     </row>
     <row r="32" spans="4:101" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="106" t="s">
         <v>15</v>
       </c>
       <c r="R32" s="106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S32" s="106" t="s">
         <v>6</v>
@@ -10328,7 +10344,7 @@
         <v>83</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>99</v>
@@ -10337,7 +10353,7 @@
         <v>14</v>
       </c>
       <c r="AK32" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL32" s="30" t="s">
         <v>6</v>
@@ -10351,7 +10367,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S33" s="106" t="s">
         <v>6</v>
@@ -10363,7 +10379,7 @@
         <v>14</v>
       </c>
       <c r="AK33" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL33" s="34" t="s">
         <v>6</v>
@@ -10371,16 +10387,16 @@
     </row>
     <row r="34" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="107" t="s">
         <v>15</v>
       </c>
       <c r="R34" s="107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S34" s="107" t="s">
         <v>6</v>
@@ -10402,16 +10418,16 @@
         <v>24</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10419,7 +10435,7 @@
         <v>25</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>79</v>
@@ -10427,21 +10443,21 @@
     </row>
     <row r="38" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M38" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="4:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BT39" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="4:72" x14ac:dyDescent="0.2">
@@ -10451,7 +10467,7 @@
     </row>
     <row r="41" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M41" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AJ41" s="1" t="s">
         <v>82</v>
@@ -10464,7 +10480,7 @@
     </row>
     <row r="43" spans="4:72" x14ac:dyDescent="0.2">
       <c r="M43" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="4:72" x14ac:dyDescent="0.2">

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38860" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="-38860" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Num" sheetId="2" r:id="rId1"/>
@@ -3845,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="AJ48" sqref="AJ48"/>
     </sheetView>
   </sheetViews>
@@ -4616,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Example_dataset/Dataset_example_worksheet.xlsx
+++ b/Example_dataset/Dataset_example_worksheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.holtz/Dropbox/data_to_viz/Example_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/y.holtz/Documents/data_to_viz/Example_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38860" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38400" yWindow="640" windowWidth="38400" windowHeight="19480" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Num" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Time Serie" sheetId="6" r:id="rId6"/>
     <sheet name="new logo needed" sheetId="7" r:id="rId7"/>
     <sheet name="Yan only" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="347">
   <si>
     <t>Variable 1</t>
   </si>
@@ -1068,12 +1069,60 @@
   <si>
     <t>Gender wage gap</t>
   </si>
+  <si>
+    <t>Long format</t>
+  </si>
+  <si>
+    <t>Wide format</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <r>
+      <t>Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> C</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1391,8 +1440,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,6 +1528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF414282"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1771,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,6 +2178,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
     </xf>
@@ -2103,15 +2196,6 @@
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2120,6 +2204,25 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2133,9 +2236,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF69B3A2"/>
       <color rgb="FF414282"/>
       <color rgb="FF444484"/>
-      <color rgb="FF69B3A2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3580,6 +3683,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8466667" y="2328333"/>
+          <a:ext cx="455083" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3868,14 +4029,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:39" ht="62" x14ac:dyDescent="0.7">
-      <c r="K3" s="159" t="s">
+      <c r="K3" s="156" t="s">
         <v>130</v>
       </c>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="158"/>
     </row>
     <row r="9" spans="3:39" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="59" t="s">
@@ -4616,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+    <sheetView zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -4632,14 +4793,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="62" x14ac:dyDescent="0.7">
-      <c r="L3" s="159" t="s">
+      <c r="L3" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="161"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="158"/>
     </row>
     <row r="9" spans="3:20" ht="26" x14ac:dyDescent="0.3">
       <c r="C9" s="59" t="s">
@@ -5753,7 +5914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AY69"/>
   <sheetViews>
-    <sheetView topLeftCell="M14" workbookViewId="0">
+    <sheetView topLeftCell="L10" workbookViewId="0">
       <selection activeCell="AL45" sqref="AL45:AN47"/>
     </sheetView>
   </sheetViews>
@@ -6622,10 +6783,10 @@
       <c r="AC27" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="158" t="s">
+      <c r="AE27" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="AF27" s="158"/>
+      <c r="AF27" s="161"/>
       <c r="AL27" s="58" t="s">
         <v>121</v>
       </c>
@@ -6658,10 +6819,10 @@
       <c r="AC28" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AD28" s="156" t="s">
+      <c r="AD28" s="159" t="s">
         <v>285</v>
       </c>
-      <c r="AE28" s="157"/>
+      <c r="AE28" s="160"/>
       <c r="AF28" s="122" t="s">
         <v>13</v>
       </c>
@@ -7200,14 +7361,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:30" ht="62" x14ac:dyDescent="0.7">
-      <c r="H3" s="159" t="s">
+      <c r="H3" s="156" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="158"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.2">
       <c r="H4" s="162" t="s">
@@ -7648,10 +7809,10 @@
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="161" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="158"/>
+      <c r="D21" s="161"/>
       <c r="L21" s="49" t="s">
         <v>14</v>
       </c>
@@ -8507,8 +8668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:CW45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10497,4 +10658,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I8:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="123" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I8" s="171" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" s="171"/>
+    </row>
+    <row r="9" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="168" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="18">
+        <v>12</v>
+      </c>
+      <c r="L11" s="165" t="s">
+        <v>344</v>
+      </c>
+      <c r="M11" s="165" t="s">
+        <v>345</v>
+      </c>
+      <c r="N11" s="166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I12" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6">
+        <v>10</v>
+      </c>
+      <c r="L12" s="169">
+        <v>12</v>
+      </c>
+      <c r="M12" s="100">
+        <v>10</v>
+      </c>
+      <c r="N12" s="170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>